--- a/data_wrangling/data/output/excel/gp15.xlsx
+++ b/data_wrangling/data/output/excel/gp15.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ700"/>
+  <dimension ref="A1:AP700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,40 +535,35 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>...36</t>
+          <t>POC/Th_large(umol/dpm)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>POC/Th_large(umol/dpm)</t>
+          <t>uncert_POC/Th_large</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>uncert_POC/Th_large</t>
+          <t>PON_large(umol/L)</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>PON_large(umol/L)</t>
+          <t>uncert_PON_large</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>uncert_PON_large</t>
+          <t>PON/Th_large(umol/dpm)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>PON/Th_large(umol/dpm)</t>
+          <t>uncert_PON/Th_large</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>uncert_PON/Th_large</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>SR#</t>
         </is>
@@ -616,7 +611,7 @@
       <c r="P2">
         <v>0.04491926017300192</v>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>2_1</t>
         </is>
@@ -664,7 +659,7 @@
       <c r="P3">
         <v>0.04559263978521456</v>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>2_2</t>
         </is>
@@ -730,13 +725,13 @@
       <c r="AI4">
         <v>0.255824211</v>
       </c>
-      <c r="AK4">
+      <c r="AJ4">
         <v>1.7663586492243</v>
       </c>
-      <c r="AM4">
+      <c r="AL4">
         <v>0.032659508</v>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>2_3</t>
         </is>
@@ -784,7 +779,7 @@
       <c r="P5">
         <v>0.04902480290421144</v>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>2_4</t>
         </is>
@@ -850,13 +845,13 @@
       <c r="AI6">
         <v>0.091172958</v>
       </c>
-      <c r="AK6">
+      <c r="AJ6">
         <v>1.2267812910969</v>
       </c>
-      <c r="AM6">
+      <c r="AL6">
         <v>0.009315168</v>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>2_5</t>
         </is>
@@ -922,13 +917,13 @@
       <c r="AI7">
         <v>0.073609176</v>
       </c>
-      <c r="AK7">
+      <c r="AJ7">
         <v>1.35356272682891</v>
       </c>
-      <c r="AM7">
+      <c r="AL7">
         <v>0.007279673</v>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>2_6</t>
         </is>
@@ -976,7 +971,7 @@
       <c r="P8">
         <v>0.05033000249889122</v>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>2_7</t>
         </is>
@@ -1042,13 +1037,13 @@
       <c r="AI9">
         <v>0.206454458</v>
       </c>
-      <c r="AK9">
+      <c r="AJ9">
         <v>3.39049659540463</v>
       </c>
-      <c r="AM9">
+      <c r="AL9">
         <v>0.012963629</v>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>2_8</t>
         </is>
@@ -1096,7 +1091,7 @@
       <c r="P10">
         <v>0.05022697833030716</v>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>2_9</t>
         </is>
@@ -1162,13 +1157,13 @@
       <c r="AI11">
         <v>0.128118304</v>
       </c>
-      <c r="AK11">
+      <c r="AJ11">
         <v>1.65636900661703</v>
       </c>
-      <c r="AM11">
+      <c r="AL11">
         <v>0.016311346</v>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>2_10</t>
         </is>
@@ -1234,13 +1229,13 @@
       <c r="AI12">
         <v>0.027273815</v>
       </c>
-      <c r="AK12">
+      <c r="AJ12">
         <v>1.03834885414139</v>
       </c>
-      <c r="AM12">
+      <c r="AL12">
         <v>0.002425865</v>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>2_11</t>
         </is>
@@ -1288,7 +1283,7 @@
       <c r="P13">
         <v>0.04563311624833379</v>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>2_12</t>
         </is>
@@ -1354,13 +1349,13 @@
       <c r="AI14">
         <v>0.032327218</v>
       </c>
-      <c r="AK14">
+      <c r="AJ14">
         <v>4.57416799267284</v>
       </c>
-      <c r="AM14">
+      <c r="AL14">
         <v>0.002308421</v>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>2_13</t>
         </is>
@@ -1426,13 +1421,13 @@
       <c r="AI15">
         <v>0.026328333</v>
       </c>
-      <c r="AK15">
+      <c r="AJ15">
         <v>0.71050719607931</v>
       </c>
-      <c r="AM15">
+      <c r="AL15">
         <v>0.002995342</v>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>2_14</t>
         </is>
@@ -1498,13 +1493,13 @@
       <c r="AI16">
         <v>0.019258737</v>
       </c>
-      <c r="AK16">
+      <c r="AJ16">
         <v>0.801113310114573</v>
       </c>
-      <c r="AM16">
+      <c r="AL16">
         <v>0.002186212</v>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2_15</t>
         </is>
@@ -1570,13 +1565,13 @@
       <c r="AI17">
         <v>0.013048707</v>
       </c>
-      <c r="AK17">
+      <c r="AJ17">
         <v>1.23417053980428</v>
       </c>
-      <c r="AM17">
+      <c r="AL17">
         <v>0.001360991</v>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>2_16</t>
         </is>
@@ -1642,13 +1637,13 @@
       <c r="AI18">
         <v>0.007238021</v>
       </c>
-      <c r="AK18">
+      <c r="AJ18">
         <v>0.803087984287056</v>
       </c>
-      <c r="AM18">
+      <c r="AL18">
         <v>0.000624196</v>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>2_17</t>
         </is>
@@ -1714,13 +1709,13 @@
       <c r="AI19">
         <v>0.011251894</v>
       </c>
-      <c r="AK19">
+      <c r="AJ19">
         <v>0.896630263022946</v>
       </c>
-      <c r="AM19">
+      <c r="AL19">
         <v>0.00079826</v>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>2_18</t>
         </is>
@@ -1786,13 +1781,13 @@
       <c r="AI20">
         <v>4.175057252</v>
       </c>
-      <c r="AK20">
+      <c r="AJ20">
         <v>1.55432596606669</v>
       </c>
-      <c r="AM20">
+      <c r="AL20">
         <v>0.281191861</v>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>2_19</t>
         </is>
@@ -1858,13 +1853,13 @@
       <c r="AI21">
         <v>0.012482285</v>
       </c>
-      <c r="AK21">
+      <c r="AJ21">
         <v>0.799842995245401</v>
       </c>
-      <c r="AM21">
+      <c r="AL21">
         <v>0.001257988</v>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>2_20</t>
         </is>
@@ -1930,13 +1925,13 @@
       <c r="AI22">
         <v>0.027051369</v>
       </c>
-      <c r="AK22">
+      <c r="AJ22">
         <v>0.860705044883868</v>
       </c>
-      <c r="AM22">
+      <c r="AL22">
         <v>0.002769119</v>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>2_21</t>
         </is>
@@ -1984,7 +1979,7 @@
       <c r="P23">
         <v>0.03274291426471947</v>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>2_22</t>
         </is>
@@ -2050,13 +2045,13 @@
       <c r="AI24">
         <v>0.950112471</v>
       </c>
-      <c r="AK24">
+      <c r="AJ24">
         <v>4.04584061580708</v>
       </c>
-      <c r="AM24">
+      <c r="AL24">
         <v>0.124120497</v>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>2_23</t>
         </is>
@@ -2104,7 +2099,7 @@
       <c r="P25">
         <v>0.03301688726956815</v>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>2_24</t>
         </is>
@@ -2170,13 +2165,13 @@
       <c r="AI26">
         <v>0.135349056</v>
       </c>
-      <c r="AK26">
+      <c r="AJ26">
         <v>2.14111470926688</v>
       </c>
-      <c r="AM26">
+      <c r="AL26">
         <v>0.019479742</v>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>2_25</t>
         </is>
@@ -2224,7 +2219,7 @@
       <c r="P27">
         <v>0.03717194733731578</v>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>2_26</t>
         </is>
@@ -2290,13 +2285,13 @@
       <c r="AI28">
         <v>0.19124095</v>
       </c>
-      <c r="AK28">
+      <c r="AJ28">
         <v>2.1416022030493</v>
       </c>
-      <c r="AM28">
+      <c r="AL28">
         <v>0.027202195</v>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>2_27</t>
         </is>
@@ -2362,13 +2357,13 @@
       <c r="AI29">
         <v>0.16529766</v>
       </c>
-      <c r="AK29">
+      <c r="AJ29">
         <v>1.87835213911741</v>
       </c>
-      <c r="AM29">
+      <c r="AL29">
         <v>0.023100502</v>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>2_28</t>
         </is>
@@ -2416,7 +2411,7 @@
       <c r="P30">
         <v>0.03715906601471809</v>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>2_29</t>
         </is>
@@ -2464,7 +2459,7 @@
       <c r="P31">
         <v>0.03304187892141208</v>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>2_30</t>
         </is>
@@ -2512,7 +2507,7 @@
       <c r="P32">
         <v>0.03831225075574287</v>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>2_31</t>
         </is>
@@ -2560,7 +2555,7 @@
       <c r="P33">
         <v>0.03575004774244104</v>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>2_32</t>
         </is>
@@ -2608,7 +2603,7 @@
       <c r="P34">
         <v>0.04420856471999668</v>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>2_33</t>
         </is>
@@ -2656,7 +2651,7 @@
       <c r="P35">
         <v>0.03863499242288759</v>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>2_34</t>
         </is>
@@ -2704,7 +2699,7 @@
       <c r="P36">
         <v>0.04091493690023508</v>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>2_35</t>
         </is>
@@ -2752,7 +2747,7 @@
       <c r="P37">
         <v>0.04988813738928473</v>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>2_36</t>
         </is>
@@ -2800,7 +2795,7 @@
       <c r="P38">
         <v>0.04187947227559917</v>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>2_37</t>
         </is>
@@ -2848,7 +2843,7 @@
       <c r="P39">
         <v>0.04209251078816522</v>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>2_38</t>
         </is>
@@ -2896,7 +2891,7 @@
       <c r="P40">
         <v>0.03497107503306713</v>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>2_39</t>
         </is>
@@ -2944,7 +2939,7 @@
       <c r="P41">
         <v>0.04812667430802749</v>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>2_40</t>
         </is>
@@ -2992,7 +2987,7 @@
       <c r="P42">
         <v>0.04259264936759199</v>
       </c>
-      <c r="AQ42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>2_41</t>
         </is>
@@ -3040,7 +3035,7 @@
       <c r="P43">
         <v>0.03266408656157845</v>
       </c>
-      <c r="AQ43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>2_42</t>
         </is>
@@ -3088,7 +3083,7 @@
       <c r="P44">
         <v>0.02990404430263121</v>
       </c>
-      <c r="AQ44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>2_43</t>
         </is>
@@ -3136,7 +3131,7 @@
       <c r="P45">
         <v>0.04205979972862361</v>
       </c>
-      <c r="AQ45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>2_44</t>
         </is>
@@ -3184,7 +3179,7 @@
       <c r="P46">
         <v>0.04322897027983241</v>
       </c>
-      <c r="AQ46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>2_45</t>
         </is>
@@ -3232,7 +3227,7 @@
       <c r="P47">
         <v>0.03671445471048344</v>
       </c>
-      <c r="AQ47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>2_46</t>
         </is>
@@ -3280,7 +3275,7 @@
       <c r="P48">
         <v>0.04956668647646699</v>
       </c>
-      <c r="AQ48" t="inlineStr">
+      <c r="AP48" t="inlineStr">
         <is>
           <t>2_47</t>
         </is>
@@ -3328,7 +3323,7 @@
       <c r="P49">
         <v>0.04022719595047807</v>
       </c>
-      <c r="AQ49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>2_48</t>
         </is>
@@ -3394,13 +3389,13 @@
       <c r="AI50">
         <v>0.120990221</v>
       </c>
-      <c r="AK50">
+      <c r="AJ50">
         <v>1.45800936384101</v>
       </c>
-      <c r="AM50">
+      <c r="AL50">
         <v>0.014565631</v>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>2_49</t>
         </is>
@@ -3466,13 +3461,13 @@
       <c r="AI51">
         <v>0.045736814</v>
       </c>
-      <c r="AK51">
+      <c r="AJ51">
         <v>1.05922815389438</v>
       </c>
-      <c r="AM51">
+      <c r="AL51">
         <v>0.00408639</v>
       </c>
-      <c r="AQ51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>2_50</t>
         </is>
@@ -3538,13 +3533,13 @@
       <c r="AI52">
         <v>0.0405814</v>
       </c>
-      <c r="AK52">
+      <c r="AJ52">
         <v>0.800061838673782</v>
       </c>
-      <c r="AM52">
+      <c r="AL52">
         <v>0.004402041</v>
       </c>
-      <c r="AQ52" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>2_51</t>
         </is>
@@ -3610,13 +3605,13 @@
       <c r="AI53">
         <v>0.01914397</v>
       </c>
-      <c r="AK53">
+      <c r="AJ53">
         <v>0.996247066697292</v>
       </c>
-      <c r="AM53">
+      <c r="AL53">
         <v>0.002049195</v>
       </c>
-      <c r="AQ53" t="inlineStr">
+      <c r="AP53" t="inlineStr">
         <is>
           <t>2_52</t>
         </is>
@@ -3682,13 +3677,13 @@
       <c r="AI54">
         <v>0.019294675</v>
       </c>
-      <c r="AK54">
+      <c r="AJ54">
         <v>0.806811776828893</v>
       </c>
-      <c r="AM54">
+      <c r="AL54">
         <v>0.001945864</v>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>2_53</t>
         </is>
@@ -3754,13 +3749,13 @@
       <c r="AI55">
         <v>0.029528941</v>
       </c>
-      <c r="AK55">
+      <c r="AJ55">
         <v>0.8432831797861</v>
       </c>
-      <c r="AM55">
+      <c r="AL55">
         <v>0.003434999</v>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>2_54</t>
         </is>
@@ -3808,7 +3803,7 @@
       <c r="P56">
         <v>0.04868690714275257</v>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>2_55</t>
         </is>
@@ -3856,7 +3851,7 @@
       <c r="P57">
         <v>0.0384186731306413</v>
       </c>
-      <c r="AQ57" t="inlineStr">
+      <c r="AP57" t="inlineStr">
         <is>
           <t>2_56</t>
         </is>
@@ -3922,13 +3917,13 @@
       <c r="AI58">
         <v>0.425187631</v>
       </c>
-      <c r="AK58">
+      <c r="AJ58">
         <v>3.36048499664767</v>
       </c>
-      <c r="AM58">
+      <c r="AL58">
         <v>0.05568904</v>
       </c>
-      <c r="AQ58" t="inlineStr">
+      <c r="AP58" t="inlineStr">
         <is>
           <t>2_57</t>
         </is>
@@ -3976,7 +3971,7 @@
       <c r="P59">
         <v>0.05715222606259881</v>
       </c>
-      <c r="AQ59" t="inlineStr">
+      <c r="AP59" t="inlineStr">
         <is>
           <t>2_58</t>
         </is>
@@ -4042,13 +4037,13 @@
       <c r="AI60">
         <v>0.104925012</v>
       </c>
-      <c r="AK60">
+      <c r="AJ60">
         <v>1.30823831727232</v>
       </c>
-      <c r="AM60">
+      <c r="AL60">
         <v>0.012604794</v>
       </c>
-      <c r="AQ60" t="inlineStr">
+      <c r="AP60" t="inlineStr">
         <is>
           <t>2_59</t>
         </is>
@@ -4114,13 +4109,13 @@
       <c r="AI61">
         <v>0.08603902500000001</v>
       </c>
-      <c r="AK61">
+      <c r="AJ61">
         <v>1.48152689720563</v>
       </c>
-      <c r="AM61">
+      <c r="AL61">
         <v>0.010663047</v>
       </c>
-      <c r="AQ61" t="inlineStr">
+      <c r="AP61" t="inlineStr">
         <is>
           <t>2_60</t>
         </is>
@@ -4168,7 +4163,7 @@
       <c r="P62">
         <v>0.06017218231317108</v>
       </c>
-      <c r="AQ62" t="inlineStr">
+      <c r="AP62" t="inlineStr">
         <is>
           <t>2_61</t>
         </is>
@@ -4234,13 +4229,13 @@
       <c r="AI63">
         <v>0.07076706000000001</v>
       </c>
-      <c r="AK63">
+      <c r="AJ63">
         <v>1.15742156102401</v>
       </c>
-      <c r="AM63">
+      <c r="AL63">
         <v>0.008500796999999999</v>
       </c>
-      <c r="AQ63" t="inlineStr">
+      <c r="AP63" t="inlineStr">
         <is>
           <t>2_62</t>
         </is>
@@ -4288,7 +4283,7 @@
       <c r="P64">
         <v>0.05336613807622684</v>
       </c>
-      <c r="AQ64" t="inlineStr">
+      <c r="AP64" t="inlineStr">
         <is>
           <t>2_63</t>
         </is>
@@ -4354,13 +4349,13 @@
       <c r="AI65">
         <v>0.036398001</v>
       </c>
-      <c r="AK65">
+      <c r="AJ65">
         <v>0.8595051443702511</v>
       </c>
-      <c r="AM65">
+      <c r="AL65">
         <v>0.004224475</v>
       </c>
-      <c r="AQ65" t="inlineStr">
+      <c r="AP65" t="inlineStr">
         <is>
           <t>2_64</t>
         </is>
@@ -4426,13 +4421,13 @@
       <c r="AI66">
         <v>0.017492657</v>
       </c>
-      <c r="AK66">
+      <c r="AJ66">
         <v>0.662253596231716</v>
       </c>
-      <c r="AM66">
+      <c r="AL66">
         <v>0.002015419</v>
       </c>
-      <c r="AQ66" t="inlineStr">
+      <c r="AP66" t="inlineStr">
         <is>
           <t>2_65</t>
         </is>
@@ -4498,13 +4493,13 @@
       <c r="AI67">
         <v>0.01805999</v>
       </c>
-      <c r="AK67">
+      <c r="AJ67">
         <v>0.841164413023016</v>
       </c>
-      <c r="AM67">
+      <c r="AL67">
         <v>0.00184406</v>
       </c>
-      <c r="AQ67" t="inlineStr">
+      <c r="AP67" t="inlineStr">
         <is>
           <t>2_66</t>
         </is>
@@ -4570,13 +4565,13 @@
       <c r="AI68">
         <v>0.017544588</v>
       </c>
-      <c r="AK68">
+      <c r="AJ68">
         <v>0.9758044206261141</v>
       </c>
-      <c r="AM68">
+      <c r="AL68">
         <v>0.00194698</v>
       </c>
-      <c r="AQ68" t="inlineStr">
+      <c r="AP68" t="inlineStr">
         <is>
           <t>2_67</t>
         </is>
@@ -4642,13 +4637,13 @@
       <c r="AI69">
         <v>0.01596944</v>
       </c>
-      <c r="AK69">
+      <c r="AJ69">
         <v>0.850076524991024</v>
       </c>
-      <c r="AM69">
+      <c r="AL69">
         <v>0.001893698</v>
       </c>
-      <c r="AQ69" t="inlineStr">
+      <c r="AP69" t="inlineStr">
         <is>
           <t>2_68</t>
         </is>
@@ -4714,13 +4709,13 @@
       <c r="AI70">
         <v>0.002167679</v>
       </c>
-      <c r="AK70">
+      <c r="AJ70">
         <v>1.00003133077522</v>
       </c>
-      <c r="AM70">
+      <c r="AL70">
         <v>0.00024929</v>
       </c>
-      <c r="AQ70" t="inlineStr">
+      <c r="AP70" t="inlineStr">
         <is>
           <t>2_69</t>
         </is>
@@ -4786,13 +4781,13 @@
       <c r="AI71">
         <v>0.010800191</v>
       </c>
-      <c r="AK71">
+      <c r="AJ71">
         <v>0.921111990777186</v>
       </c>
-      <c r="AM71">
+      <c r="AL71">
         <v>0.001049598</v>
       </c>
-      <c r="AQ71" t="inlineStr">
+      <c r="AP71" t="inlineStr">
         <is>
           <t>2_70</t>
         </is>
@@ -4858,13 +4853,13 @@
       <c r="AI72">
         <v>0.022594612</v>
       </c>
-      <c r="AK72">
+      <c r="AJ72">
         <v>1.19118025224474</v>
       </c>
-      <c r="AM72">
+      <c r="AL72">
         <v>0.000896682</v>
       </c>
-      <c r="AQ72" t="inlineStr">
+      <c r="AP72" t="inlineStr">
         <is>
           <t>2_71</t>
         </is>
@@ -4930,13 +4925,13 @@
       <c r="AI73">
         <v>0.014548738</v>
       </c>
-      <c r="AK73">
+      <c r="AJ73">
         <v>0.687509114583171</v>
       </c>
-      <c r="AM73">
+      <c r="AL73">
         <v>0.001406887</v>
       </c>
-      <c r="AQ73" t="inlineStr">
+      <c r="AP73" t="inlineStr">
         <is>
           <t>2_72</t>
         </is>
@@ -5002,13 +4997,13 @@
       <c r="AI74">
         <v>0.014818039</v>
       </c>
-      <c r="AK74">
+      <c r="AJ74">
         <v>0.614983960941352</v>
       </c>
-      <c r="AM74">
+      <c r="AL74">
         <v>0.001561602</v>
       </c>
-      <c r="AQ74" t="inlineStr">
+      <c r="AP74" t="inlineStr">
         <is>
           <t>2_73</t>
         </is>
@@ -5074,13 +5069,13 @@
       <c r="AI75">
         <v>0.015512352</v>
       </c>
-      <c r="AK75">
+      <c r="AJ75">
         <v>0.652136896844802</v>
       </c>
-      <c r="AM75">
+      <c r="AL75">
         <v>0.001627801</v>
       </c>
-      <c r="AQ75" t="inlineStr">
+      <c r="AP75" t="inlineStr">
         <is>
           <t>2_74</t>
         </is>
@@ -5146,13 +5141,13 @@
       <c r="AI76">
         <v>0.023527872</v>
       </c>
-      <c r="AK76">
+      <c r="AJ76">
         <v>0.7448850485809601</v>
       </c>
-      <c r="AM76">
+      <c r="AL76">
         <v>0.002647359</v>
       </c>
-      <c r="AQ76" t="inlineStr">
+      <c r="AP76" t="inlineStr">
         <is>
           <t>2_75</t>
         </is>
@@ -5200,7 +5195,7 @@
       <c r="P77">
         <v>0.04605506220308093</v>
       </c>
-      <c r="AQ77" t="inlineStr">
+      <c r="AP77" t="inlineStr">
         <is>
           <t>2_76</t>
         </is>
@@ -5248,7 +5243,7 @@
       <c r="P78">
         <v>0.04054064886472515</v>
       </c>
-      <c r="AQ78" t="inlineStr">
+      <c r="AP78" t="inlineStr">
         <is>
           <t>2_77</t>
         </is>
@@ -5296,7 +5291,7 @@
       <c r="P79">
         <v>0.04024196994335218</v>
       </c>
-      <c r="AQ79" t="inlineStr">
+      <c r="AP79" t="inlineStr">
         <is>
           <t>2_78</t>
         </is>
@@ -5344,7 +5339,7 @@
       <c r="P80">
         <v>0.04577427709819246</v>
       </c>
-      <c r="AQ80" t="inlineStr">
+      <c r="AP80" t="inlineStr">
         <is>
           <t>2_79</t>
         </is>
@@ -5410,13 +5405,13 @@
       <c r="AI81">
         <v>0.346259528</v>
       </c>
-      <c r="AK81">
+      <c r="AJ81">
         <v>2.03565232319309</v>
       </c>
-      <c r="AM81">
+      <c r="AL81">
         <v>0.050680298</v>
       </c>
-      <c r="AQ81" t="inlineStr">
+      <c r="AP81" t="inlineStr">
         <is>
           <t>2_80</t>
         </is>
@@ -5482,13 +5477,13 @@
       <c r="AI82">
         <v>0.209784733</v>
       </c>
-      <c r="AK82">
+      <c r="AJ82">
         <v>1.15679148246666</v>
       </c>
-      <c r="AM82">
+      <c r="AL82">
         <v>0.03437473</v>
       </c>
-      <c r="AQ82" t="inlineStr">
+      <c r="AP82" t="inlineStr">
         <is>
           <t>2_81</t>
         </is>
@@ -5536,7 +5531,7 @@
       <c r="P83">
         <v>0.04954813529019545</v>
       </c>
-      <c r="AQ83" t="inlineStr">
+      <c r="AP83" t="inlineStr">
         <is>
           <t>2_82</t>
         </is>
@@ -5602,13 +5597,13 @@
       <c r="AI84">
         <v>24.67045041</v>
       </c>
-      <c r="AK84">
+      <c r="AJ84">
         <v>4.89061216035836</v>
       </c>
-      <c r="AM84">
+      <c r="AL84">
         <v>1.074590483</v>
       </c>
-      <c r="AQ84" t="inlineStr">
+      <c r="AP84" t="inlineStr">
         <is>
           <t>2_83</t>
         </is>
@@ -5656,7 +5651,7 @@
       <c r="P85">
         <v>0.04715263846705389</v>
       </c>
-      <c r="AQ85" t="inlineStr">
+      <c r="AP85" t="inlineStr">
         <is>
           <t>2_84</t>
         </is>
@@ -5722,13 +5717,13 @@
       <c r="AI86">
         <v>0.037114218</v>
       </c>
-      <c r="AK86">
+      <c r="AJ86">
         <v>0.744708801198092</v>
       </c>
-      <c r="AM86">
+      <c r="AL86">
         <v>0.005477562</v>
       </c>
-      <c r="AQ86" t="inlineStr">
+      <c r="AP86" t="inlineStr">
         <is>
           <t>2_85</t>
         </is>
@@ -5794,13 +5789,13 @@
       <c r="AI87">
         <v>0.025200534</v>
       </c>
-      <c r="AK87">
+      <c r="AJ87">
         <v>0.627786835442673</v>
       </c>
-      <c r="AM87">
+      <c r="AL87">
         <v>0.003378912</v>
       </c>
-      <c r="AQ87" t="inlineStr">
+      <c r="AP87" t="inlineStr">
         <is>
           <t>2_86</t>
         </is>
@@ -5866,13 +5861,13 @@
       <c r="AI88">
         <v>0.015889258</v>
       </c>
-      <c r="AK88">
+      <c r="AJ88">
         <v>0.502612769916345</v>
       </c>
-      <c r="AM88">
+      <c r="AL88">
         <v>0.002206645</v>
       </c>
-      <c r="AQ88" t="inlineStr">
+      <c r="AP88" t="inlineStr">
         <is>
           <t>2_87</t>
         </is>
@@ -5938,13 +5933,13 @@
       <c r="AI89">
         <v>0.015548669</v>
       </c>
-      <c r="AK89">
+      <c r="AJ89">
         <v>0.513703847416021</v>
       </c>
-      <c r="AM89">
+      <c r="AL89">
         <v>0.001856379</v>
       </c>
-      <c r="AQ89" t="inlineStr">
+      <c r="AP89" t="inlineStr">
         <is>
           <t>2_88</t>
         </is>
@@ -6010,13 +6005,13 @@
       <c r="AI90">
         <v>0.01313384</v>
       </c>
-      <c r="AK90">
+      <c r="AJ90">
         <v>0.412844977642188</v>
       </c>
-      <c r="AM90">
+      <c r="AL90">
         <v>0.001568745</v>
       </c>
-      <c r="AQ90" t="inlineStr">
+      <c r="AP90" t="inlineStr">
         <is>
           <t>2_89</t>
         </is>
@@ -6082,13 +6077,13 @@
       <c r="AI91">
         <v>0.006608281</v>
       </c>
-      <c r="AK91">
+      <c r="AJ91">
         <v>0.533602346614776</v>
       </c>
-      <c r="AM91">
+      <c r="AL91">
         <v>0.000748426</v>
       </c>
-      <c r="AQ91" t="inlineStr">
+      <c r="AP91" t="inlineStr">
         <is>
           <t>2_90</t>
         </is>
@@ -6154,13 +6149,13 @@
       <c r="AI92">
         <v>0.009271514999999999</v>
       </c>
-      <c r="AK92">
+      <c r="AJ92">
         <v>0.572283286298646</v>
       </c>
-      <c r="AM92">
+      <c r="AL92">
         <v>0.000972078</v>
       </c>
-      <c r="AQ92" t="inlineStr">
+      <c r="AP92" t="inlineStr">
         <is>
           <t>2_91</t>
         </is>
@@ -6226,13 +6221,13 @@
       <c r="AI93">
         <v>0.006779369</v>
       </c>
-      <c r="AK93">
+      <c r="AJ93">
         <v>0.539010151734811</v>
       </c>
-      <c r="AM93">
+      <c r="AL93">
         <v>0.000711442</v>
       </c>
-      <c r="AQ93" t="inlineStr">
+      <c r="AP93" t="inlineStr">
         <is>
           <t>2_92</t>
         </is>
@@ -6298,13 +6293,13 @@
       <c r="AI94">
         <v>0.004497213</v>
       </c>
-      <c r="AK94">
+      <c r="AJ94">
         <v>0.406636645120413</v>
       </c>
-      <c r="AM94">
+      <c r="AL94">
         <v>0.000488202</v>
       </c>
-      <c r="AQ94" t="inlineStr">
+      <c r="AP94" t="inlineStr">
         <is>
           <t>2_93</t>
         </is>
@@ -6370,13 +6365,13 @@
       <c r="AI95">
         <v>0.006155222</v>
       </c>
-      <c r="AK95">
+      <c r="AJ95">
         <v>0.638329433419433</v>
       </c>
-      <c r="AM95">
+      <c r="AL95">
         <v>0.000554565</v>
       </c>
-      <c r="AQ95" t="inlineStr">
+      <c r="AP95" t="inlineStr">
         <is>
           <t>2_94</t>
         </is>
@@ -6442,13 +6437,13 @@
       <c r="AI96">
         <v>0.006301586</v>
       </c>
-      <c r="AK96">
+      <c r="AJ96">
         <v>0.875756836864647</v>
       </c>
-      <c r="AM96">
+      <c r="AL96">
         <v>0.0005241</v>
       </c>
-      <c r="AQ96" t="inlineStr">
+      <c r="AP96" t="inlineStr">
         <is>
           <t>2_95</t>
         </is>
@@ -6514,13 +6509,13 @@
       <c r="AI97">
         <v>0.005474887</v>
       </c>
-      <c r="AK97">
+      <c r="AJ97">
         <v>0.635651941370744</v>
       </c>
-      <c r="AM97">
+      <c r="AL97">
         <v>0.000513877</v>
       </c>
-      <c r="AQ97" t="inlineStr">
+      <c r="AP97" t="inlineStr">
         <is>
           <t>2_96</t>
         </is>
@@ -6586,13 +6581,13 @@
       <c r="AI98">
         <v>0.008832701</v>
       </c>
-      <c r="AK98">
+      <c r="AJ98">
         <v>0.43751941099125</v>
       </c>
-      <c r="AM98">
+      <c r="AL98">
         <v>0.0009346340000000001</v>
       </c>
-      <c r="AQ98" t="inlineStr">
+      <c r="AP98" t="inlineStr">
         <is>
           <t>2_97</t>
         </is>
@@ -6640,7 +6635,7 @@
       <c r="P99">
         <v>0.03634273550089742</v>
       </c>
-      <c r="AQ99" t="inlineStr">
+      <c r="AP99" t="inlineStr">
         <is>
           <t>2_98</t>
         </is>
@@ -6688,7 +6683,7 @@
       <c r="P100">
         <v>0.04111928639030553</v>
       </c>
-      <c r="AQ100" t="inlineStr">
+      <c r="AP100" t="inlineStr">
         <is>
           <t>2_99</t>
         </is>
@@ -6736,7 +6731,7 @@
       <c r="P101">
         <v>0.03725188012861751</v>
       </c>
-      <c r="AQ101" t="inlineStr">
+      <c r="AP101" t="inlineStr">
         <is>
           <t>2_100</t>
         </is>
@@ -6784,7 +6779,7 @@
       <c r="P102">
         <v>0.0431016696225528</v>
       </c>
-      <c r="AQ102" t="inlineStr">
+      <c r="AP102" t="inlineStr">
         <is>
           <t>2_101</t>
         </is>
@@ -6832,7 +6827,7 @@
       <c r="P103">
         <v>0.04451432255169364</v>
       </c>
-      <c r="AQ103" t="inlineStr">
+      <c r="AP103" t="inlineStr">
         <is>
           <t>2_102</t>
         </is>
@@ -6880,7 +6875,7 @@
       <c r="P104">
         <v>0.04191685248976311</v>
       </c>
-      <c r="AQ104" t="inlineStr">
+      <c r="AP104" t="inlineStr">
         <is>
           <t>2_103</t>
         </is>
@@ -6928,7 +6923,7 @@
       <c r="P105">
         <v>0.04550701431953193</v>
       </c>
-      <c r="AQ105" t="inlineStr">
+      <c r="AP105" t="inlineStr">
         <is>
           <t>2_104</t>
         </is>
@@ -6976,7 +6971,7 @@
       <c r="P106">
         <v>0.0475481448734883</v>
       </c>
-      <c r="AQ106" t="inlineStr">
+      <c r="AP106" t="inlineStr">
         <is>
           <t>2_105</t>
         </is>
@@ -7024,7 +7019,7 @@
       <c r="P107">
         <v>0.0407691995546183</v>
       </c>
-      <c r="AQ107" t="inlineStr">
+      <c r="AP107" t="inlineStr">
         <is>
           <t>2_106</t>
         </is>
@@ -7072,7 +7067,7 @@
       <c r="P108">
         <v>0.04313953676862101</v>
       </c>
-      <c r="AQ108" t="inlineStr">
+      <c r="AP108" t="inlineStr">
         <is>
           <t>2_107</t>
         </is>
@@ -7120,7 +7115,7 @@
       <c r="P109">
         <v>0.04735654682519304</v>
       </c>
-      <c r="AQ109" t="inlineStr">
+      <c r="AP109" t="inlineStr">
         <is>
           <t>2_108</t>
         </is>
@@ -7168,7 +7163,7 @@
       <c r="P110">
         <v>0.08805028520806327</v>
       </c>
-      <c r="AQ110" t="inlineStr">
+      <c r="AP110" t="inlineStr">
         <is>
           <t>2_109</t>
         </is>
@@ -7216,7 +7211,7 @@
       <c r="P111">
         <v>0.04229786267835268</v>
       </c>
-      <c r="AQ111" t="inlineStr">
+      <c r="AP111" t="inlineStr">
         <is>
           <t>2_110</t>
         </is>
@@ -7264,7 +7259,7 @@
       <c r="P112">
         <v>0.03779410350821394</v>
       </c>
-      <c r="AQ112" t="inlineStr">
+      <c r="AP112" t="inlineStr">
         <is>
           <t>2_111</t>
         </is>
@@ -7312,7 +7307,7 @@
       <c r="P113">
         <v>0.04693571885625683</v>
       </c>
-      <c r="AQ113" t="inlineStr">
+      <c r="AP113" t="inlineStr">
         <is>
           <t>2_112</t>
         </is>
@@ -7378,13 +7373,13 @@
       <c r="AI114">
         <v>1.446581627</v>
       </c>
-      <c r="AK114">
+      <c r="AJ114">
         <v>6.83007002583022</v>
       </c>
-      <c r="AM114">
+      <c r="AL114">
         <v>0.184745405</v>
       </c>
-      <c r="AQ114" t="inlineStr">
+      <c r="AP114" t="inlineStr">
         <is>
           <t>2_113</t>
         </is>
@@ -7432,7 +7427,7 @@
       <c r="P115">
         <v>0.04478364410328125</v>
       </c>
-      <c r="AQ115" t="inlineStr">
+      <c r="AP115" t="inlineStr">
         <is>
           <t>2_114</t>
         </is>
@@ -7498,13 +7493,13 @@
       <c r="AI116">
         <v>0.492225186</v>
       </c>
-      <c r="AK116">
+      <c r="AJ116">
         <v>2.86123964861265</v>
       </c>
-      <c r="AM116">
+      <c r="AL116">
         <v>0.070131346</v>
       </c>
-      <c r="AQ116" t="inlineStr">
+      <c r="AP116" t="inlineStr">
         <is>
           <t>2_115</t>
         </is>
@@ -7552,7 +7547,7 @@
       <c r="P117">
         <v>0.04836546147033199</v>
       </c>
-      <c r="AQ117" t="inlineStr">
+      <c r="AP117" t="inlineStr">
         <is>
           <t>2_116</t>
         </is>
@@ -7618,13 +7613,13 @@
       <c r="AI118">
         <v>-0.001525258</v>
       </c>
-      <c r="AK118">
+      <c r="AJ118">
         <v>-0.0264095153439392</v>
       </c>
-      <c r="AM118">
+      <c r="AL118">
         <v>0.017129007</v>
       </c>
-      <c r="AQ118" t="inlineStr">
+      <c r="AP118" t="inlineStr">
         <is>
           <t>2_117</t>
         </is>
@@ -7672,7 +7667,7 @@
       <c r="P119">
         <v>0.04069231208830125</v>
       </c>
-      <c r="AQ119" t="inlineStr">
+      <c r="AP119" t="inlineStr">
         <is>
           <t>2_118</t>
         </is>
@@ -7738,13 +7733,13 @@
       <c r="AI120">
         <v>0.087228756</v>
       </c>
-      <c r="AK120">
+      <c r="AJ120">
         <v>1.4448041882506</v>
       </c>
-      <c r="AM120">
+      <c r="AL120">
         <v>0.011417317</v>
       </c>
-      <c r="AQ120" t="inlineStr">
+      <c r="AP120" t="inlineStr">
         <is>
           <t>2_119</t>
         </is>
@@ -7810,13 +7805,13 @@
       <c r="AI121">
         <v>0.061532392</v>
       </c>
-      <c r="AK121">
+      <c r="AJ121">
         <v>1.02909746557389</v>
       </c>
-      <c r="AM121">
+      <c r="AL121">
         <v>0.007707553</v>
       </c>
-      <c r="AQ121" t="inlineStr">
+      <c r="AP121" t="inlineStr">
         <is>
           <t>2_120</t>
         </is>
@@ -7864,7 +7859,7 @@
       <c r="P122">
         <v>0.04561684151243184</v>
       </c>
-      <c r="AQ122" t="inlineStr">
+      <c r="AP122" t="inlineStr">
         <is>
           <t>2_121</t>
         </is>
@@ -7930,13 +7925,13 @@
       <c r="AI123">
         <v>0.056667675</v>
       </c>
-      <c r="AK123">
+      <c r="AJ123">
         <v>1.2333433694603</v>
       </c>
-      <c r="AM123">
+      <c r="AL123">
         <v>0.006878636</v>
       </c>
-      <c r="AQ123" t="inlineStr">
+      <c r="AP123" t="inlineStr">
         <is>
           <t>2_122</t>
         </is>
@@ -8002,13 +7997,13 @@
       <c r="AI124">
         <v>0.055335735</v>
       </c>
-      <c r="AK124">
+      <c r="AJ124">
         <v>1.04825860964497</v>
       </c>
-      <c r="AM124">
+      <c r="AL124">
         <v>0.005491974</v>
       </c>
-      <c r="AQ124" t="inlineStr">
+      <c r="AP124" t="inlineStr">
         <is>
           <t>2_123</t>
         </is>
@@ -8074,13 +8069,13 @@
       <c r="AI125">
         <v>0.055335735</v>
       </c>
-      <c r="AK125">
+      <c r="AJ125">
         <v>1.04825860964497</v>
       </c>
-      <c r="AM125">
+      <c r="AL125">
         <v>0.005491974</v>
       </c>
-      <c r="AQ125" t="inlineStr">
+      <c r="AP125" t="inlineStr">
         <is>
           <t>2_124</t>
         </is>
@@ -8146,13 +8141,13 @@
       <c r="AI126">
         <v>0.037949931</v>
       </c>
-      <c r="AK126">
+      <c r="AJ126">
         <v>1.3246196954172</v>
       </c>
-      <c r="AM126">
+      <c r="AL126">
         <v>0.003307609</v>
       </c>
-      <c r="AQ126" t="inlineStr">
+      <c r="AP126" t="inlineStr">
         <is>
           <t>2_125</t>
         </is>
@@ -8218,13 +8213,13 @@
       <c r="AI127">
         <v>0.13069625</v>
       </c>
-      <c r="AK127">
+      <c r="AJ127">
         <v>2.71524368526853</v>
       </c>
-      <c r="AM127">
+      <c r="AL127">
         <v>0.012907093</v>
       </c>
-      <c r="AQ127" t="inlineStr">
+      <c r="AP127" t="inlineStr">
         <is>
           <t>2_126</t>
         </is>
@@ -8290,13 +8285,13 @@
       <c r="AI128">
         <v>0.022938849</v>
       </c>
-      <c r="AK128">
+      <c r="AJ128">
         <v>0.866343902952317</v>
       </c>
-      <c r="AM128">
+      <c r="AL128">
         <v>0.002274153</v>
       </c>
-      <c r="AQ128" t="inlineStr">
+      <c r="AP128" t="inlineStr">
         <is>
           <t>2_127</t>
         </is>
@@ -8362,13 +8357,13 @@
       <c r="AI129">
         <v>0.032734959</v>
       </c>
-      <c r="AK129">
+      <c r="AJ129">
         <v>1.4349332144005</v>
       </c>
-      <c r="AM129">
+      <c r="AL129">
         <v>0.003416161</v>
       </c>
-      <c r="AQ129" t="inlineStr">
+      <c r="AP129" t="inlineStr">
         <is>
           <t>2_128</t>
         </is>
@@ -8434,13 +8429,13 @@
       <c r="AI130">
         <v>0.021356339</v>
       </c>
-      <c r="AK130">
+      <c r="AJ130">
         <v>1.00878442606345</v>
       </c>
-      <c r="AM130">
+      <c r="AL130">
         <v>0.001916318</v>
       </c>
-      <c r="AQ130" t="inlineStr">
+      <c r="AP130" t="inlineStr">
         <is>
           <t>2_129</t>
         </is>
@@ -8506,13 +8501,13 @@
       <c r="AI131">
         <v>0.008504338</v>
       </c>
-      <c r="AK131">
+      <c r="AJ131">
         <v>0.6668498391269509</v>
       </c>
-      <c r="AM131">
+      <c r="AL131">
         <v>0.000796263</v>
       </c>
-      <c r="AQ131" t="inlineStr">
+      <c r="AP131" t="inlineStr">
         <is>
           <t>2_130</t>
         </is>
@@ -8578,13 +8573,13 @@
       <c r="AI132">
         <v>0.024929321</v>
       </c>
-      <c r="AK132">
+      <c r="AJ132">
         <v>1.19700384863006</v>
       </c>
-      <c r="AM132">
+      <c r="AL132">
         <v>0.002030142</v>
       </c>
-      <c r="AQ132" t="inlineStr">
+      <c r="AP132" t="inlineStr">
         <is>
           <t>2_131</t>
         </is>
@@ -8650,13 +8645,13 @@
       <c r="AI133">
         <v>0.021815052</v>
       </c>
-      <c r="AK133">
+      <c r="AJ133">
         <v>1.20060203908888</v>
       </c>
-      <c r="AM133">
+      <c r="AL133">
         <v>0.001951819</v>
       </c>
-      <c r="AQ133" t="inlineStr">
+      <c r="AP133" t="inlineStr">
         <is>
           <t>2_132</t>
         </is>
@@ -8722,13 +8717,13 @@
       <c r="AI134">
         <v>0.011823167</v>
       </c>
-      <c r="AK134">
+      <c r="AJ134">
         <v>0.680298186269109</v>
       </c>
-      <c r="AM134">
+      <c r="AL134">
         <v>0.001243146</v>
       </c>
-      <c r="AQ134" t="inlineStr">
+      <c r="AP134" t="inlineStr">
         <is>
           <t>2_133</t>
         </is>
@@ -8794,13 +8789,13 @@
       <c r="AI135">
         <v>0.017664791</v>
       </c>
-      <c r="AK135">
+      <c r="AJ135">
         <v>1.56160906369302</v>
       </c>
-      <c r="AM135">
+      <c r="AL135">
         <v>0.001730367</v>
       </c>
-      <c r="AQ135" t="inlineStr">
+      <c r="AP135" t="inlineStr">
         <is>
           <t>2_134</t>
         </is>
@@ -8866,13 +8861,13 @@
       <c r="AI136">
         <v>0.009897338</v>
       </c>
-      <c r="AK136">
+      <c r="AJ136">
         <v>0.662346419125084</v>
       </c>
-      <c r="AM136">
+      <c r="AL136">
         <v>0.001100813</v>
       </c>
-      <c r="AQ136" t="inlineStr">
+      <c r="AP136" t="inlineStr">
         <is>
           <t>2_135</t>
         </is>
@@ -8938,13 +8933,13 @@
       <c r="AI137">
         <v>0.00740029</v>
       </c>
-      <c r="AK137">
+      <c r="AJ137">
         <v>3.06302906158648</v>
       </c>
-      <c r="AM137">
+      <c r="AL137">
         <v>0.000770494</v>
       </c>
-      <c r="AQ137" t="inlineStr">
+      <c r="AP137" t="inlineStr">
         <is>
           <t>2_136</t>
         </is>
@@ -9010,13 +9005,13 @@
       <c r="AI138">
         <v>0.008425584999999999</v>
       </c>
-      <c r="AK138">
+      <c r="AJ138">
         <v>0.678061704738348</v>
       </c>
-      <c r="AM138">
+      <c r="AL138">
         <v>0.000803431</v>
       </c>
-      <c r="AQ138" t="inlineStr">
+      <c r="AP138" t="inlineStr">
         <is>
           <t>2_137</t>
         </is>
@@ -9082,13 +9077,13 @@
       <c r="AI139">
         <v>0.007915629</v>
       </c>
-      <c r="AK139">
+      <c r="AJ139">
         <v>0.824490422408423</v>
       </c>
-      <c r="AM139">
+      <c r="AL139">
         <v>0.001065685</v>
       </c>
-      <c r="AQ139" t="inlineStr">
+      <c r="AP139" t="inlineStr">
         <is>
           <t>2_138</t>
         </is>
@@ -9154,13 +9149,13 @@
       <c r="AI140">
         <v>0.026825258</v>
       </c>
-      <c r="AK140">
+      <c r="AJ140">
         <v>1.69473296508753</v>
       </c>
-      <c r="AM140">
+      <c r="AL140">
         <v>0.002658647</v>
       </c>
-      <c r="AQ140" t="inlineStr">
+      <c r="AP140" t="inlineStr">
         <is>
           <t>2_139</t>
         </is>
@@ -9208,7 +9203,7 @@
       <c r="P141">
         <v>0.04576163668326398</v>
       </c>
-      <c r="AQ141" t="inlineStr">
+      <c r="AP141" t="inlineStr">
         <is>
           <t>2_140</t>
         </is>
@@ -9256,7 +9251,7 @@
       <c r="P142">
         <v>0.0440620852964315</v>
       </c>
-      <c r="AQ142" t="inlineStr">
+      <c r="AP142" t="inlineStr">
         <is>
           <t>2_141</t>
         </is>
@@ -9304,7 +9299,7 @@
       <c r="P143">
         <v>0.04626044501383682</v>
       </c>
-      <c r="AQ143" t="inlineStr">
+      <c r="AP143" t="inlineStr">
         <is>
           <t>2_142</t>
         </is>
@@ -9352,7 +9347,7 @@
       <c r="P144">
         <v>0.04291148566528052</v>
       </c>
-      <c r="AQ144" t="inlineStr">
+      <c r="AP144" t="inlineStr">
         <is>
           <t>2_143</t>
         </is>
@@ -9400,7 +9395,7 @@
       <c r="P145">
         <v>0.05480433372604358</v>
       </c>
-      <c r="AQ145" t="inlineStr">
+      <c r="AP145" t="inlineStr">
         <is>
           <t>2_144</t>
         </is>
@@ -9448,7 +9443,7 @@
       <c r="P146">
         <v>0.04931139320661038</v>
       </c>
-      <c r="AQ146" t="inlineStr">
+      <c r="AP146" t="inlineStr">
         <is>
           <t>2_145</t>
         </is>
@@ -9496,7 +9491,7 @@
       <c r="P147">
         <v>0.05502637816143977</v>
       </c>
-      <c r="AQ147" t="inlineStr">
+      <c r="AP147" t="inlineStr">
         <is>
           <t>2_146</t>
         </is>
@@ -9544,7 +9539,7 @@
       <c r="P148">
         <v>0.05288919457924174</v>
       </c>
-      <c r="AQ148" t="inlineStr">
+      <c r="AP148" t="inlineStr">
         <is>
           <t>2_147</t>
         </is>
@@ -9592,7 +9587,7 @@
       <c r="P149">
         <v>0.05178150962117496</v>
       </c>
-      <c r="AQ149" t="inlineStr">
+      <c r="AP149" t="inlineStr">
         <is>
           <t>2_148</t>
         </is>
@@ -9640,7 +9635,7 @@
       <c r="P150">
         <v>0.05124517354134852</v>
       </c>
-      <c r="AQ150" t="inlineStr">
+      <c r="AP150" t="inlineStr">
         <is>
           <t>2_149</t>
         </is>
@@ -9688,7 +9683,7 @@
       <c r="P151">
         <v>0.05153090809098054</v>
       </c>
-      <c r="AQ151" t="inlineStr">
+      <c r="AP151" t="inlineStr">
         <is>
           <t>2_150</t>
         </is>
@@ -9736,7 +9731,7 @@
       <c r="P152">
         <v>0.0547969480669102</v>
       </c>
-      <c r="AQ152" t="inlineStr">
+      <c r="AP152" t="inlineStr">
         <is>
           <t>2_151</t>
         </is>
@@ -9784,7 +9779,7 @@
       <c r="P153">
         <v>0.05582988251833639</v>
       </c>
-      <c r="AQ153" t="inlineStr">
+      <c r="AP153" t="inlineStr">
         <is>
           <t>2_152</t>
         </is>
@@ -9832,7 +9827,7 @@
       <c r="P154">
         <v>0.04487478889297065</v>
       </c>
-      <c r="AQ154" t="inlineStr">
+      <c r="AP154" t="inlineStr">
         <is>
           <t>2_153</t>
         </is>
@@ -9880,7 +9875,7 @@
       <c r="P155">
         <v>0.049895499114492</v>
       </c>
-      <c r="AQ155" t="inlineStr">
+      <c r="AP155" t="inlineStr">
         <is>
           <t>2_154</t>
         </is>
@@ -9928,7 +9923,7 @@
       <c r="P156">
         <v>0.0440819460045901</v>
       </c>
-      <c r="AQ156" t="inlineStr">
+      <c r="AP156" t="inlineStr">
         <is>
           <t>2_155</t>
         </is>
@@ -9994,13 +9989,13 @@
       <c r="AI157">
         <v>0.064737039</v>
       </c>
-      <c r="AK157">
+      <c r="AJ157">
         <v>1.20909377635447</v>
       </c>
-      <c r="AM157">
+      <c r="AL157">
         <v>0.008620310000000001</v>
       </c>
-      <c r="AQ157" t="inlineStr">
+      <c r="AP157" t="inlineStr">
         <is>
           <t>2_156</t>
         </is>
@@ -10048,7 +10043,7 @@
       <c r="P158">
         <v>0.05628402504657595</v>
       </c>
-      <c r="AQ158" t="inlineStr">
+      <c r="AP158" t="inlineStr">
         <is>
           <t>2_157</t>
         </is>
@@ -10114,13 +10109,13 @@
       <c r="AI159">
         <v>0.075450463</v>
       </c>
-      <c r="AK159">
+      <c r="AJ159">
         <v>1.21861081307161</v>
       </c>
-      <c r="AM159">
+      <c r="AL159">
         <v>0.008096555</v>
       </c>
-      <c r="AQ159" t="inlineStr">
+      <c r="AP159" t="inlineStr">
         <is>
           <t>2_158</t>
         </is>
@@ -10186,13 +10181,13 @@
       <c r="AI160">
         <v>0.180031442</v>
       </c>
-      <c r="AK160">
+      <c r="AJ160">
         <v>1.71347424732038</v>
       </c>
-      <c r="AM160">
+      <c r="AL160">
         <v>0.030127795</v>
       </c>
-      <c r="AQ160" t="inlineStr">
+      <c r="AP160" t="inlineStr">
         <is>
           <t>2_159</t>
         </is>
@@ -10240,7 +10235,7 @@
       <c r="P161">
         <v>0.04526758651801055</v>
       </c>
-      <c r="AQ161" t="inlineStr">
+      <c r="AP161" t="inlineStr">
         <is>
           <t>2_160</t>
         </is>
@@ -10306,13 +10301,13 @@
       <c r="AI162">
         <v>0.08596234799999999</v>
       </c>
-      <c r="AK162">
+      <c r="AJ162">
         <v>0.959085620298238</v>
       </c>
-      <c r="AM162">
+      <c r="AL162">
         <v>0.010686217</v>
       </c>
-      <c r="AQ162" t="inlineStr">
+      <c r="AP162" t="inlineStr">
         <is>
           <t>2_161</t>
         </is>
@@ -10378,13 +10373,13 @@
       <c r="AI163">
         <v>0.049870619</v>
       </c>
-      <c r="AK163">
+      <c r="AJ163">
         <v>0.8655729064375161</v>
       </c>
-      <c r="AM163">
+      <c r="AL163">
         <v>0.007111353</v>
       </c>
-      <c r="AQ163" t="inlineStr">
+      <c r="AP163" t="inlineStr">
         <is>
           <t>2_162</t>
         </is>
@@ -10432,7 +10427,7 @@
       <c r="P164">
         <v>0.05699497794313522</v>
       </c>
-      <c r="AQ164" t="inlineStr">
+      <c r="AP164" t="inlineStr">
         <is>
           <t>2_163</t>
         </is>
@@ -10498,13 +10493,13 @@
       <c r="AI165">
         <v>0.033494782</v>
       </c>
-      <c r="AK165">
+      <c r="AJ165">
         <v>0.765233076232488</v>
       </c>
-      <c r="AM165">
+      <c r="AL165">
         <v>0.004263377</v>
       </c>
-      <c r="AQ165" t="inlineStr">
+      <c r="AP165" t="inlineStr">
         <is>
           <t>2_164</t>
         </is>
@@ -10570,13 +10565,13 @@
       <c r="AI166">
         <v>0.009508575999999999</v>
       </c>
-      <c r="AK166">
+      <c r="AJ166">
         <v>0.714357902976942</v>
       </c>
-      <c r="AM166">
+      <c r="AL166">
         <v>0.001346931</v>
       </c>
-      <c r="AQ166" t="inlineStr">
+      <c r="AP166" t="inlineStr">
         <is>
           <t>2_165</t>
         </is>
@@ -10642,13 +10637,13 @@
       <c r="AI167">
         <v>0.010688228</v>
       </c>
-      <c r="AK167">
+      <c r="AJ167">
         <v>0.640078056571915</v>
       </c>
-      <c r="AM167">
+      <c r="AL167">
         <v>0.00136303</v>
       </c>
-      <c r="AQ167" t="inlineStr">
+      <c r="AP167" t="inlineStr">
         <is>
           <t>2_166</t>
         </is>
@@ -10714,13 +10709,13 @@
       <c r="AI168">
         <v>0.007284768</v>
       </c>
-      <c r="AK168">
+      <c r="AJ168">
         <v>0.534122121591649</v>
       </c>
-      <c r="AM168">
+      <c r="AL168">
         <v>0.000788346</v>
       </c>
-      <c r="AQ168" t="inlineStr">
+      <c r="AP168" t="inlineStr">
         <is>
           <t>2_167</t>
         </is>
@@ -10777,7 +10772,7 @@
       <c r="W169">
         <v>6.3467550241065</v>
       </c>
-      <c r="AQ169" t="inlineStr">
+      <c r="AP169" t="inlineStr">
         <is>
           <t>2_168</t>
         </is>
@@ -10843,13 +10838,13 @@
       <c r="AI170">
         <v>0.038544077</v>
       </c>
-      <c r="AK170">
+      <c r="AJ170">
         <v>1.4501585961136</v>
       </c>
-      <c r="AM170">
+      <c r="AL170">
         <v>0.001801122</v>
       </c>
-      <c r="AQ170" t="inlineStr">
+      <c r="AP170" t="inlineStr">
         <is>
           <t>2_169</t>
         </is>
@@ -10915,13 +10910,13 @@
       <c r="AI171">
         <v>0.012021662</v>
       </c>
-      <c r="AK171">
+      <c r="AJ171">
         <v>0.6228387097472859</v>
       </c>
-      <c r="AM171">
+      <c r="AL171">
         <v>0.001205012</v>
       </c>
-      <c r="AQ171" t="inlineStr">
+      <c r="AP171" t="inlineStr">
         <is>
           <t>2_170</t>
         </is>
@@ -10987,13 +10982,13 @@
       <c r="AI172">
         <v>0.007544181</v>
       </c>
-      <c r="AK172">
+      <c r="AJ172">
         <v>0.551134130463743</v>
       </c>
-      <c r="AM172">
+      <c r="AL172">
         <v>0.001025416</v>
       </c>
-      <c r="AQ172" t="inlineStr">
+      <c r="AP172" t="inlineStr">
         <is>
           <t>2_171</t>
         </is>
@@ -11059,13 +11054,13 @@
       <c r="AI173">
         <v>0.005565287</v>
       </c>
-      <c r="AK173">
+      <c r="AJ173">
         <v>0.788763803661883</v>
       </c>
-      <c r="AM173">
+      <c r="AL173">
         <v>0.000542552</v>
       </c>
-      <c r="AQ173" t="inlineStr">
+      <c r="AP173" t="inlineStr">
         <is>
           <t>2_172</t>
         </is>
@@ -11131,13 +11126,13 @@
       <c r="AI174">
         <v>0.009006624</v>
       </c>
-      <c r="AK174">
+      <c r="AJ174">
         <v>0.694202888805132</v>
       </c>
-      <c r="AM174">
+      <c r="AL174">
         <v>0.0009911709999999999</v>
       </c>
-      <c r="AQ174" t="inlineStr">
+      <c r="AP174" t="inlineStr">
         <is>
           <t>2_173</t>
         </is>
@@ -11203,13 +11198,13 @@
       <c r="AI175">
         <v>0.009303990999999999</v>
       </c>
-      <c r="AK175">
+      <c r="AJ175">
         <v>0.786280356557907</v>
       </c>
-      <c r="AM175">
+      <c r="AL175">
         <v>0.000840241</v>
       </c>
-      <c r="AQ175" t="inlineStr">
+      <c r="AP175" t="inlineStr">
         <is>
           <t>2_174</t>
         </is>
@@ -11257,7 +11252,7 @@
       <c r="P176">
         <v>0.04911628201851397</v>
       </c>
-      <c r="AQ176" t="inlineStr">
+      <c r="AP176" t="inlineStr">
         <is>
           <t>2_175</t>
         </is>
@@ -11305,7 +11300,7 @@
       <c r="P177">
         <v>0.05312105853489421</v>
       </c>
-      <c r="AQ177" t="inlineStr">
+      <c r="AP177" t="inlineStr">
         <is>
           <t>2_176</t>
         </is>
@@ -11353,7 +11348,7 @@
       <c r="P178">
         <v>0.0512862173089321</v>
       </c>
-      <c r="AQ178" t="inlineStr">
+      <c r="AP178" t="inlineStr">
         <is>
           <t>2_177</t>
         </is>
@@ -11401,7 +11396,7 @@
       <c r="P179">
         <v>0.06040706757160584</v>
       </c>
-      <c r="AQ179" t="inlineStr">
+      <c r="AP179" t="inlineStr">
         <is>
           <t>2_178</t>
         </is>
@@ -11449,7 +11444,7 @@
       <c r="P180">
         <v>0.05807824316923577</v>
       </c>
-      <c r="AQ180" t="inlineStr">
+      <c r="AP180" t="inlineStr">
         <is>
           <t>2_179</t>
         </is>
@@ -11497,7 +11492,7 @@
       <c r="P181">
         <v>0.05305907147025202</v>
       </c>
-      <c r="AQ181" t="inlineStr">
+      <c r="AP181" t="inlineStr">
         <is>
           <t>2_180</t>
         </is>
@@ -11545,7 +11540,7 @@
       <c r="P182">
         <v>0.05728663357457931</v>
       </c>
-      <c r="AQ182" t="inlineStr">
+      <c r="AP182" t="inlineStr">
         <is>
           <t>2_181</t>
         </is>
@@ -11593,7 +11588,7 @@
       <c r="P183">
         <v>0.05389996281103591</v>
       </c>
-      <c r="AQ183" t="inlineStr">
+      <c r="AP183" t="inlineStr">
         <is>
           <t>2_182</t>
         </is>
@@ -11641,7 +11636,7 @@
       <c r="P184">
         <v>0.05712034102382012</v>
       </c>
-      <c r="AQ184" t="inlineStr">
+      <c r="AP184" t="inlineStr">
         <is>
           <t>2_183</t>
         </is>
@@ -11689,7 +11684,7 @@
       <c r="P185">
         <v>0.05888289202840228</v>
       </c>
-      <c r="AQ185" t="inlineStr">
+      <c r="AP185" t="inlineStr">
         <is>
           <t>2_184</t>
         </is>
@@ -11737,7 +11732,7 @@
       <c r="P186">
         <v>0.06675494623984679</v>
       </c>
-      <c r="AQ186" t="inlineStr">
+      <c r="AP186" t="inlineStr">
         <is>
           <t>2_185</t>
         </is>
@@ -11785,7 +11780,7 @@
       <c r="P187">
         <v>0.05535064283252638</v>
       </c>
-      <c r="AQ187" t="inlineStr">
+      <c r="AP187" t="inlineStr">
         <is>
           <t>2_186</t>
         </is>
@@ -11833,7 +11828,7 @@
       <c r="P188">
         <v>0.05355940054699772</v>
       </c>
-      <c r="AQ188" t="inlineStr">
+      <c r="AP188" t="inlineStr">
         <is>
           <t>2_187</t>
         </is>
@@ -11881,7 +11876,7 @@
       <c r="P189">
         <v>0.0565776284037432</v>
       </c>
-      <c r="AQ189" t="inlineStr">
+      <c r="AP189" t="inlineStr">
         <is>
           <t>2_188</t>
         </is>
@@ -11929,7 +11924,7 @@
       <c r="P190">
         <v>0.05672263677889665</v>
       </c>
-      <c r="AQ190" t="inlineStr">
+      <c r="AP190" t="inlineStr">
         <is>
           <t>2_189</t>
         </is>
@@ -11977,7 +11972,7 @@
       <c r="P191">
         <v>0.06044707176174831</v>
       </c>
-      <c r="AQ191" t="inlineStr">
+      <c r="AP191" t="inlineStr">
         <is>
           <t>2_190</t>
         </is>
@@ -12025,7 +12020,7 @@
       <c r="P192">
         <v>0.05430962261265455</v>
       </c>
-      <c r="AQ192" t="inlineStr">
+      <c r="AP192" t="inlineStr">
         <is>
           <t>2_191</t>
         </is>
@@ -12091,13 +12086,13 @@
       <c r="AI193">
         <v>0.119062921</v>
       </c>
-      <c r="AK193">
+      <c r="AJ193">
         <v>3.2167252690418</v>
       </c>
-      <c r="AM193">
+      <c r="AL193">
         <v>0.017321575</v>
       </c>
-      <c r="AQ193" t="inlineStr">
+      <c r="AP193" t="inlineStr">
         <is>
           <t>2_192</t>
         </is>
@@ -12163,13 +12158,13 @@
       <c r="AI194">
         <v>0.185036328</v>
       </c>
-      <c r="AK194">
+      <c r="AJ194">
         <v>2.66359343294461</v>
       </c>
-      <c r="AM194">
+      <c r="AL194">
         <v>0.008764022999999999</v>
       </c>
-      <c r="AQ194" t="inlineStr">
+      <c r="AP194" t="inlineStr">
         <is>
           <t>2_193</t>
         </is>
@@ -12226,7 +12221,7 @@
       <c r="W195">
         <v>0.0038508276622945</v>
       </c>
-      <c r="AQ195" t="inlineStr">
+      <c r="AP195" t="inlineStr">
         <is>
           <t>2_194</t>
         </is>
@@ -12292,13 +12287,13 @@
       <c r="AI196">
         <v>0.103949256</v>
       </c>
-      <c r="AK196">
+      <c r="AJ196">
         <v>0.8557737664759441</v>
       </c>
-      <c r="AM196">
+      <c r="AL196">
         <v>0.014777683</v>
       </c>
-      <c r="AQ196" t="inlineStr">
+      <c r="AP196" t="inlineStr">
         <is>
           <t>2_195</t>
         </is>
@@ -12364,13 +12359,13 @@
       <c r="AI197">
         <v>0.103949256</v>
       </c>
-      <c r="AK197">
+      <c r="AJ197">
         <v>0.8557737664759441</v>
       </c>
-      <c r="AM197">
+      <c r="AL197">
         <v>0.014777683</v>
       </c>
-      <c r="AQ197" t="inlineStr">
+      <c r="AP197" t="inlineStr">
         <is>
           <t>2_196</t>
         </is>
@@ -12418,7 +12413,7 @@
       <c r="P198">
         <v>0.05576945593146411</v>
       </c>
-      <c r="AQ198" t="inlineStr">
+      <c r="AP198" t="inlineStr">
         <is>
           <t>2_197</t>
         </is>
@@ -12484,13 +12479,13 @@
       <c r="AI199">
         <v>0.049172777</v>
       </c>
-      <c r="AK199">
+      <c r="AJ199">
         <v>0.947238311559926</v>
       </c>
-      <c r="AM199">
+      <c r="AL199">
         <v>0.00560386</v>
       </c>
-      <c r="AQ199" t="inlineStr">
+      <c r="AP199" t="inlineStr">
         <is>
           <t>2_198</t>
         </is>
@@ -12538,7 +12533,7 @@
       <c r="P200">
         <v>0.06163295271266641</v>
       </c>
-      <c r="AQ200" t="inlineStr">
+      <c r="AP200" t="inlineStr">
         <is>
           <t>2_199</t>
         </is>
@@ -12604,13 +12599,13 @@
       <c r="AI201">
         <v>0.026864322</v>
       </c>
-      <c r="AK201">
+      <c r="AJ201">
         <v>0.696955604823419</v>
       </c>
-      <c r="AM201">
+      <c r="AL201">
         <v>0.002921445</v>
       </c>
-      <c r="AQ201" t="inlineStr">
+      <c r="AP201" t="inlineStr">
         <is>
           <t>2_200</t>
         </is>
@@ -12676,13 +12671,13 @@
       <c r="AI202">
         <v>0.009823818</v>
       </c>
-      <c r="AK202">
+      <c r="AJ202">
         <v>0.398900170171692</v>
       </c>
-      <c r="AM202">
+      <c r="AL202">
         <v>0.001125669</v>
       </c>
-      <c r="AQ202" t="inlineStr">
+      <c r="AP202" t="inlineStr">
         <is>
           <t>2_201</t>
         </is>
@@ -12748,13 +12743,13 @@
       <c r="AI203">
         <v>0.008287879</v>
       </c>
-      <c r="AK203">
+      <c r="AJ203">
         <v>0.397759509039211</v>
       </c>
-      <c r="AM203">
+      <c r="AL203">
         <v>0.000779272</v>
       </c>
-      <c r="AQ203" t="inlineStr">
+      <c r="AP203" t="inlineStr">
         <is>
           <t>2_202</t>
         </is>
@@ -12820,13 +12815,13 @@
       <c r="AI204">
         <v>0.119062921</v>
       </c>
-      <c r="AK204">
+      <c r="AJ204">
         <v>3.2167252690418</v>
       </c>
-      <c r="AM204">
+      <c r="AL204">
         <v>0.017321575</v>
       </c>
-      <c r="AQ204" t="inlineStr">
+      <c r="AP204" t="inlineStr">
         <is>
           <t>2_203</t>
         </is>
@@ -12892,13 +12887,13 @@
       <c r="AI205">
         <v>0.005544873</v>
       </c>
-      <c r="AK205">
+      <c r="AJ205">
         <v>0.274906229090195</v>
       </c>
-      <c r="AM205">
+      <c r="AL205">
         <v>0.000420921</v>
       </c>
-      <c r="AQ205" t="inlineStr">
+      <c r="AP205" t="inlineStr">
         <is>
           <t>2_204</t>
         </is>
@@ -12964,13 +12959,13 @@
       <c r="AI206">
         <v>0.002460045</v>
       </c>
-      <c r="AK206">
+      <c r="AJ206">
         <v>0.232030205224471</v>
       </c>
-      <c r="AM206">
+      <c r="AL206">
         <v>0.00016701</v>
       </c>
-      <c r="AQ206" t="inlineStr">
+      <c r="AP206" t="inlineStr">
         <is>
           <t>2_205</t>
         </is>
@@ -13036,13 +13031,13 @@
       <c r="AI207">
         <v>0.003282962</v>
       </c>
-      <c r="AK207">
+      <c r="AJ207">
         <v>0.324503351339502</v>
       </c>
-      <c r="AM207">
+      <c r="AL207">
         <v>0.000190323</v>
       </c>
-      <c r="AQ207" t="inlineStr">
+      <c r="AP207" t="inlineStr">
         <is>
           <t>2_206</t>
         </is>
@@ -13108,13 +13103,13 @@
       <c r="AI208">
         <v>0.005372891</v>
       </c>
-      <c r="AK208">
+      <c r="AJ208">
         <v>0.522171836806671</v>
       </c>
-      <c r="AM208">
+      <c r="AL208">
         <v>0.000497067</v>
       </c>
-      <c r="AQ208" t="inlineStr">
+      <c r="AP208" t="inlineStr">
         <is>
           <t>2_207</t>
         </is>
@@ -13180,13 +13175,13 @@
       <c r="AI209">
         <v>0.001701666</v>
       </c>
-      <c r="AK209">
+      <c r="AJ209">
         <v>0.30690477204143</v>
       </c>
-      <c r="AM209">
+      <c r="AL209">
         <v>0.000127048</v>
       </c>
-      <c r="AQ209" t="inlineStr">
+      <c r="AP209" t="inlineStr">
         <is>
           <t>2_208</t>
         </is>
@@ -13252,13 +13247,13 @@
       <c r="AI210">
         <v>0.001897503</v>
       </c>
-      <c r="AK210">
+      <c r="AJ210">
         <v>0.276343086742637</v>
       </c>
-      <c r="AM210">
+      <c r="AL210">
         <v>0.00013917</v>
       </c>
-      <c r="AQ210" t="inlineStr">
+      <c r="AP210" t="inlineStr">
         <is>
           <t>2_209</t>
         </is>
@@ -13324,13 +13319,13 @@
       <c r="AI211">
         <v>0.003967981</v>
       </c>
-      <c r="AK211">
+      <c r="AJ211">
         <v>0.622297952877795</v>
       </c>
-      <c r="AM211">
+      <c r="AL211">
         <v>0.000466004</v>
       </c>
-      <c r="AQ211" t="inlineStr">
+      <c r="AP211" t="inlineStr">
         <is>
           <t>2_210</t>
         </is>
@@ -13378,7 +13373,7 @@
       <c r="P212">
         <v>0.05660929862339908</v>
       </c>
-      <c r="AQ212" t="inlineStr">
+      <c r="AP212" t="inlineStr">
         <is>
           <t>2_211</t>
         </is>
@@ -13426,7 +13421,7 @@
       <c r="P213">
         <v>0.05633202686502396</v>
       </c>
-      <c r="AQ213" t="inlineStr">
+      <c r="AP213" t="inlineStr">
         <is>
           <t>2_212</t>
         </is>
@@ -13474,7 +13469,7 @@
       <c r="P214">
         <v>0.05391585233000872</v>
       </c>
-      <c r="AQ214" t="inlineStr">
+      <c r="AP214" t="inlineStr">
         <is>
           <t>2_213</t>
         </is>
@@ -13522,7 +13517,7 @@
       <c r="P215">
         <v>0.05311565625368957</v>
       </c>
-      <c r="AQ215" t="inlineStr">
+      <c r="AP215" t="inlineStr">
         <is>
           <t>2_214</t>
         </is>
@@ -13570,7 +13565,7 @@
       <c r="P216">
         <v>0.0513083412160085</v>
       </c>
-      <c r="AQ216" t="inlineStr">
+      <c r="AP216" t="inlineStr">
         <is>
           <t>2_215</t>
         </is>
@@ -13618,7 +13613,7 @@
       <c r="P217">
         <v>0.05309105057644127</v>
       </c>
-      <c r="AQ217" t="inlineStr">
+      <c r="AP217" t="inlineStr">
         <is>
           <t>2_216</t>
         </is>
@@ -13666,7 +13661,7 @@
       <c r="P218">
         <v>0.05781698183840966</v>
       </c>
-      <c r="AQ218" t="inlineStr">
+      <c r="AP218" t="inlineStr">
         <is>
           <t>2_217</t>
         </is>
@@ -13714,7 +13709,7 @@
       <c r="P219">
         <v>0.05300932313110011</v>
       </c>
-      <c r="AQ219" t="inlineStr">
+      <c r="AP219" t="inlineStr">
         <is>
           <t>2_218</t>
         </is>
@@ -13762,7 +13757,7 @@
       <c r="P220">
         <v>0.05397011297669339</v>
       </c>
-      <c r="AQ220" t="inlineStr">
+      <c r="AP220" t="inlineStr">
         <is>
           <t>2_219</t>
         </is>
@@ -13810,7 +13805,7 @@
       <c r="P221">
         <v>0.05365236335420028</v>
       </c>
-      <c r="AQ221" t="inlineStr">
+      <c r="AP221" t="inlineStr">
         <is>
           <t>2_220</t>
         </is>
@@ -13858,7 +13853,7 @@
       <c r="P222">
         <v>0.05132258745021467</v>
       </c>
-      <c r="AQ222" t="inlineStr">
+      <c r="AP222" t="inlineStr">
         <is>
           <t>2_221</t>
         </is>
@@ -13906,7 +13901,7 @@
       <c r="P223">
         <v>0.04723638517330334</v>
       </c>
-      <c r="AQ223" t="inlineStr">
+      <c r="AP223" t="inlineStr">
         <is>
           <t>2_222</t>
         </is>
@@ -13954,7 +13949,7 @@
       <c r="P224">
         <v>0.05560449285820573</v>
       </c>
-      <c r="AQ224" t="inlineStr">
+      <c r="AP224" t="inlineStr">
         <is>
           <t>2_223</t>
         </is>
@@ -14002,7 +13997,7 @@
       <c r="P225">
         <v>0.05507075736302789</v>
       </c>
-      <c r="AQ225" t="inlineStr">
+      <c r="AP225" t="inlineStr">
         <is>
           <t>2_224</t>
         </is>
@@ -14050,7 +14045,7 @@
       <c r="P226">
         <v>0.04760836051871477</v>
       </c>
-      <c r="AQ226" t="inlineStr">
+      <c r="AP226" t="inlineStr">
         <is>
           <t>2_225</t>
         </is>
@@ -14098,7 +14093,7 @@
       <c r="P227">
         <v>0.04633011888973403</v>
       </c>
-      <c r="AQ227" t="inlineStr">
+      <c r="AP227" t="inlineStr">
         <is>
           <t>2_226</t>
         </is>
@@ -14146,7 +14141,7 @@
       <c r="P228">
         <v>0.06329752986510695</v>
       </c>
-      <c r="AQ228" t="inlineStr">
+      <c r="AP228" t="inlineStr">
         <is>
           <t>2_227</t>
         </is>
@@ -14212,13 +14207,13 @@
       <c r="AI229">
         <v>0.07445844</v>
       </c>
-      <c r="AK229">
+      <c r="AJ229">
         <v>3.3803223448763</v>
       </c>
-      <c r="AM229">
+      <c r="AL229">
         <v>0.010344497</v>
       </c>
-      <c r="AQ229" t="inlineStr">
+      <c r="AP229" t="inlineStr">
         <is>
           <t>2_228</t>
         </is>
@@ -14284,13 +14279,13 @@
       <c r="AI230">
         <v>0.07445844</v>
       </c>
-      <c r="AK230">
+      <c r="AJ230">
         <v>3.3803223448763</v>
       </c>
-      <c r="AM230">
+      <c r="AL230">
         <v>0.010344497</v>
       </c>
-      <c r="AQ230" t="inlineStr">
+      <c r="AP230" t="inlineStr">
         <is>
           <t>2_229</t>
         </is>
@@ -14338,7 +14333,7 @@
       <c r="P231">
         <v>0.04858933160172169</v>
       </c>
-      <c r="AQ231" t="inlineStr">
+      <c r="AP231" t="inlineStr">
         <is>
           <t>2_230</t>
         </is>
@@ -14404,13 +14399,13 @@
       <c r="AI232">
         <v>0.069110703</v>
       </c>
-      <c r="AK232">
+      <c r="AJ232">
         <v>1.23737631582372</v>
       </c>
-      <c r="AM232">
+      <c r="AL232">
         <v>0.008429004</v>
       </c>
-      <c r="AQ232" t="inlineStr">
+      <c r="AP232" t="inlineStr">
         <is>
           <t>2_231</t>
         </is>
@@ -14458,7 +14453,7 @@
       <c r="P233">
         <v>0.06356355092319188</v>
       </c>
-      <c r="AQ233" t="inlineStr">
+      <c r="AP233" t="inlineStr">
         <is>
           <t>2_232</t>
         </is>
@@ -14524,13 +14519,13 @@
       <c r="AI234">
         <v>0.05477224</v>
       </c>
-      <c r="AK234">
+      <c r="AJ234">
         <v>0.662679868837632</v>
       </c>
-      <c r="AM234">
+      <c r="AL234">
         <v>0.007464754</v>
       </c>
-      <c r="AQ234" t="inlineStr">
+      <c r="AP234" t="inlineStr">
         <is>
           <t>2_233</t>
         </is>
@@ -14596,13 +14591,13 @@
       <c r="AI235">
         <v>0.022718728</v>
       </c>
-      <c r="AK235">
+      <c r="AJ235">
         <v>0.538547644314222</v>
       </c>
-      <c r="AM235">
+      <c r="AL235">
         <v>0.002772614</v>
       </c>
-      <c r="AQ235" t="inlineStr">
+      <c r="AP235" t="inlineStr">
         <is>
           <t>2_234</t>
         </is>
@@ -14668,13 +14663,13 @@
       <c r="AI236">
         <v>0.052885947</v>
       </c>
-      <c r="AK236">
+      <c r="AJ236">
         <v>0.606153595248185</v>
       </c>
-      <c r="AM236">
+      <c r="AL236">
         <v>0.006189255</v>
       </c>
-      <c r="AQ236" t="inlineStr">
+      <c r="AP236" t="inlineStr">
         <is>
           <t>2_235</t>
         </is>
@@ -14740,13 +14735,13 @@
       <c r="AI237">
         <v>0.018871019</v>
       </c>
-      <c r="AK237">
+      <c r="AJ237">
         <v>0.95442460789998</v>
       </c>
-      <c r="AM237">
+      <c r="AL237">
         <v>0.002159538</v>
       </c>
-      <c r="AQ237" t="inlineStr">
+      <c r="AP237" t="inlineStr">
         <is>
           <t>2_236</t>
         </is>
@@ -14794,7 +14789,7 @@
       <c r="P238">
         <v>0.04739318276303027</v>
       </c>
-      <c r="AQ238" t="inlineStr">
+      <c r="AP238" t="inlineStr">
         <is>
           <t>2_237</t>
         </is>
@@ -14860,13 +14855,13 @@
       <c r="AI239">
         <v>0.01222654</v>
       </c>
-      <c r="AK239">
+      <c r="AJ239">
         <v>0.519514455298639</v>
       </c>
-      <c r="AM239">
+      <c r="AL239">
         <v>0.001187917</v>
       </c>
-      <c r="AQ239" t="inlineStr">
+      <c r="AP239" t="inlineStr">
         <is>
           <t>2_238</t>
         </is>
@@ -14932,13 +14927,13 @@
       <c r="AI240">
         <v>0.01222654</v>
       </c>
-      <c r="AK240">
+      <c r="AJ240">
         <v>0.519514455298639</v>
       </c>
-      <c r="AM240">
+      <c r="AL240">
         <v>0.001187917</v>
       </c>
-      <c r="AQ240" t="inlineStr">
+      <c r="AP240" t="inlineStr">
         <is>
           <t>2_239</t>
         </is>
@@ -15004,13 +14999,13 @@
       <c r="AI241">
         <v>0.010796054</v>
       </c>
-      <c r="AK241">
+      <c r="AJ241">
         <v>0.383369988826445</v>
       </c>
-      <c r="AM241">
+      <c r="AL241">
         <v>0.00099811</v>
       </c>
-      <c r="AQ241" t="inlineStr">
+      <c r="AP241" t="inlineStr">
         <is>
           <t>2_240</t>
         </is>
@@ -15076,13 +15071,13 @@
       <c r="AI242">
         <v>0.006378615</v>
       </c>
-      <c r="AK242">
+      <c r="AJ242">
         <v>0.288295737162171</v>
       </c>
-      <c r="AM242">
+      <c r="AL242">
         <v>0.000476086</v>
       </c>
-      <c r="AQ242" t="inlineStr">
+      <c r="AP242" t="inlineStr">
         <is>
           <t>2_241</t>
         </is>
@@ -15148,13 +15143,13 @@
       <c r="AI243">
         <v>0.008901076000000001</v>
       </c>
-      <c r="AK243">
+      <c r="AJ243">
         <v>0.453599815372699</v>
       </c>
-      <c r="AM243">
+      <c r="AL243">
         <v>0.000847997</v>
       </c>
-      <c r="AQ243" t="inlineStr">
+      <c r="AP243" t="inlineStr">
         <is>
           <t>2_242</t>
         </is>
@@ -15220,13 +15215,13 @@
       <c r="AI244">
         <v>0.009141191</v>
       </c>
-      <c r="AK244">
+      <c r="AJ244">
         <v>0.758110306135131</v>
       </c>
-      <c r="AM244">
+      <c r="AL244">
         <v>0.000685653</v>
       </c>
-      <c r="AQ244" t="inlineStr">
+      <c r="AP244" t="inlineStr">
         <is>
           <t>2_243</t>
         </is>
@@ -15292,13 +15287,13 @@
       <c r="AI245">
         <v>0.012225538</v>
       </c>
-      <c r="AK245">
+      <c r="AJ245">
         <v>1.36960139164068</v>
       </c>
-      <c r="AM245">
+      <c r="AL245">
         <v>0.000820697</v>
       </c>
-      <c r="AQ245" t="inlineStr">
+      <c r="AP245" t="inlineStr">
         <is>
           <t>2_244</t>
         </is>
@@ -15364,13 +15359,13 @@
       <c r="AI246">
         <v>0.00790771</v>
       </c>
-      <c r="AK246">
+      <c r="AJ246">
         <v>0.710020346891018</v>
       </c>
-      <c r="AM246">
+      <c r="AL246">
         <v>0.000576421</v>
       </c>
-      <c r="AQ246" t="inlineStr">
+      <c r="AP246" t="inlineStr">
         <is>
           <t>2_245</t>
         </is>
@@ -15436,13 +15431,13 @@
       <c r="AI247">
         <v>0.020402887</v>
       </c>
-      <c r="AK247">
+      <c r="AJ247">
         <v>1.49935799965319</v>
       </c>
-      <c r="AM247">
+      <c r="AL247">
         <v>0.001365507</v>
       </c>
-      <c r="AQ247" t="inlineStr">
+      <c r="AP247" t="inlineStr">
         <is>
           <t>2_246</t>
         </is>
@@ -15508,13 +15503,13 @@
       <c r="AI248">
         <v>0.004872027</v>
       </c>
-      <c r="AK248">
+      <c r="AJ248">
         <v>0.611990187391148</v>
       </c>
-      <c r="AM248">
+      <c r="AL248">
         <v>0.000665677</v>
       </c>
-      <c r="AQ248" t="inlineStr">
+      <c r="AP248" t="inlineStr">
         <is>
           <t>2_247</t>
         </is>
@@ -15580,13 +15575,13 @@
       <c r="AI249">
         <v>0.005562381</v>
       </c>
-      <c r="AK249">
+      <c r="AJ249">
         <v>0.627466039253786</v>
       </c>
-      <c r="AM249">
+      <c r="AL249">
         <v>0.0006408609999999999</v>
       </c>
-      <c r="AQ249" t="inlineStr">
+      <c r="AP249" t="inlineStr">
         <is>
           <t>2_248</t>
         </is>
@@ -15652,13 +15647,13 @@
       <c r="AI250">
         <v>0.003135887</v>
       </c>
-      <c r="AK250">
+      <c r="AJ250">
         <v>0.590257416360894</v>
       </c>
-      <c r="AM250">
+      <c r="AL250">
         <v>0.000285721</v>
       </c>
-      <c r="AQ250" t="inlineStr">
+      <c r="AP250" t="inlineStr">
         <is>
           <t>2_249</t>
         </is>
@@ -15724,13 +15719,13 @@
       <c r="AI251">
         <v>0.003003127</v>
       </c>
-      <c r="AK251">
+      <c r="AJ251">
         <v>0.56715480398535</v>
       </c>
-      <c r="AM251">
+      <c r="AL251">
         <v>0.000348047</v>
       </c>
-      <c r="AQ251" t="inlineStr">
+      <c r="AP251" t="inlineStr">
         <is>
           <t>2_250</t>
         </is>
@@ -15796,13 +15791,13 @@
       <c r="AI252">
         <v>0.005416373</v>
       </c>
-      <c r="AK252">
+      <c r="AJ252">
         <v>0.959082724951931</v>
       </c>
-      <c r="AM252">
+      <c r="AL252">
         <v>0.000608997</v>
       </c>
-      <c r="AQ252" t="inlineStr">
+      <c r="AP252" t="inlineStr">
         <is>
           <t>2_251</t>
         </is>
@@ -15868,13 +15863,13 @@
       <c r="AI253">
         <v>0.005416373</v>
       </c>
-      <c r="AK253">
+      <c r="AJ253">
         <v>0.959082724951931</v>
       </c>
-      <c r="AM253">
+      <c r="AL253">
         <v>0.000608997</v>
       </c>
-      <c r="AQ253" t="inlineStr">
+      <c r="AP253" t="inlineStr">
         <is>
           <t>2_252</t>
         </is>
@@ -15940,13 +15935,13 @@
       <c r="AI254">
         <v>0.005416373</v>
       </c>
-      <c r="AK254">
+      <c r="AJ254">
         <v>0.959082724951931</v>
       </c>
-      <c r="AM254">
+      <c r="AL254">
         <v>0.000608997</v>
       </c>
-      <c r="AQ254" t="inlineStr">
+      <c r="AP254" t="inlineStr">
         <is>
           <t>2_253</t>
         </is>
@@ -16012,13 +16007,13 @@
       <c r="AI255">
         <v>0.005416373</v>
       </c>
-      <c r="AK255">
+      <c r="AJ255">
         <v>0.959082724951931</v>
       </c>
-      <c r="AM255">
+      <c r="AL255">
         <v>0.000608997</v>
       </c>
-      <c r="AQ255" t="inlineStr">
+      <c r="AP255" t="inlineStr">
         <is>
           <t>2_254</t>
         </is>
@@ -16084,13 +16079,13 @@
       <c r="AI256">
         <v>0.005416373</v>
       </c>
-      <c r="AK256">
+      <c r="AJ256">
         <v>0.959082724951931</v>
       </c>
-      <c r="AM256">
+      <c r="AL256">
         <v>0.000608997</v>
       </c>
-      <c r="AQ256" t="inlineStr">
+      <c r="AP256" t="inlineStr">
         <is>
           <t>2_255</t>
         </is>
@@ -16156,13 +16151,13 @@
       <c r="AI257">
         <v>0.004977885</v>
       </c>
-      <c r="AK257">
+      <c r="AJ257">
         <v>0.909752690478644</v>
       </c>
-      <c r="AM257">
+      <c r="AL257">
         <v>0.000440552</v>
       </c>
-      <c r="AQ257" t="inlineStr">
+      <c r="AP257" t="inlineStr">
         <is>
           <t>2_256</t>
         </is>
@@ -16228,13 +16223,13 @@
       <c r="AI258">
         <v>0.001302859</v>
       </c>
-      <c r="AK258">
+      <c r="AJ258">
         <v>0.343392960828511</v>
       </c>
-      <c r="AM258">
+      <c r="AL258">
         <v>8.31e-05</v>
       </c>
-      <c r="AQ258" t="inlineStr">
+      <c r="AP258" t="inlineStr">
         <is>
           <t>2_257</t>
         </is>
@@ -16300,13 +16295,13 @@
       <c r="AI259">
         <v>0.003878822</v>
       </c>
-      <c r="AK259">
+      <c r="AJ259">
         <v>0.756298922775632</v>
       </c>
-      <c r="AM259">
+      <c r="AL259">
         <v>0.000311806</v>
       </c>
-      <c r="AQ259" t="inlineStr">
+      <c r="AP259" t="inlineStr">
         <is>
           <t>2_258</t>
         </is>
@@ -16354,7 +16349,7 @@
       <c r="P260">
         <v>0.051410891897844</v>
       </c>
-      <c r="AQ260" t="inlineStr">
+      <c r="AP260" t="inlineStr">
         <is>
           <t>2_259</t>
         </is>
@@ -16402,7 +16397,7 @@
       <c r="P261">
         <v>0.05243237249794401</v>
       </c>
-      <c r="AQ261" t="inlineStr">
+      <c r="AP261" t="inlineStr">
         <is>
           <t>2_260</t>
         </is>
@@ -16450,7 +16445,7 @@
       <c r="P262">
         <v>0.05104977841987359</v>
       </c>
-      <c r="AQ262" t="inlineStr">
+      <c r="AP262" t="inlineStr">
         <is>
           <t>2_261</t>
         </is>
@@ -16498,7 +16493,7 @@
       <c r="P263">
         <v>0.09370800771649146</v>
       </c>
-      <c r="AQ263" t="inlineStr">
+      <c r="AP263" t="inlineStr">
         <is>
           <t>2_262</t>
         </is>
@@ -16546,7 +16541,7 @@
       <c r="P264">
         <v>0.06071204536880916</v>
       </c>
-      <c r="AQ264" t="inlineStr">
+      <c r="AP264" t="inlineStr">
         <is>
           <t>2_263</t>
         </is>
@@ -16594,7 +16589,7 @@
       <c r="P265">
         <v>0.05420953408672782</v>
       </c>
-      <c r="AQ265" t="inlineStr">
+      <c r="AP265" t="inlineStr">
         <is>
           <t>2_264</t>
         </is>
@@ -16642,7 +16637,7 @@
       <c r="P266">
         <v>0.060499756384486</v>
       </c>
-      <c r="AQ266" t="inlineStr">
+      <c r="AP266" t="inlineStr">
         <is>
           <t>2_265</t>
         </is>
@@ -16690,7 +16685,7 @@
       <c r="P267">
         <v>0.06104637244899928</v>
       </c>
-      <c r="AQ267" t="inlineStr">
+      <c r="AP267" t="inlineStr">
         <is>
           <t>2_266</t>
         </is>
@@ -16738,7 +16733,7 @@
       <c r="P268">
         <v>0.06345742547190927</v>
       </c>
-      <c r="AQ268" t="inlineStr">
+      <c r="AP268" t="inlineStr">
         <is>
           <t>2_267</t>
         </is>
@@ -16786,7 +16781,7 @@
       <c r="P269">
         <v>0.05661140319564798</v>
       </c>
-      <c r="AQ269" t="inlineStr">
+      <c r="AP269" t="inlineStr">
         <is>
           <t>2_268</t>
         </is>
@@ -16834,7 +16829,7 @@
       <c r="P270">
         <v>0.06329080948393674</v>
       </c>
-      <c r="AQ270" t="inlineStr">
+      <c r="AP270" t="inlineStr">
         <is>
           <t>2_269</t>
         </is>
@@ -16882,7 +16877,7 @@
       <c r="P271">
         <v>0.0492998789486675</v>
       </c>
-      <c r="AQ271" t="inlineStr">
+      <c r="AP271" t="inlineStr">
         <is>
           <t>2_270</t>
         </is>
@@ -16930,7 +16925,7 @@
       <c r="P272">
         <v>0.05541807997682821</v>
       </c>
-      <c r="AQ272" t="inlineStr">
+      <c r="AP272" t="inlineStr">
         <is>
           <t>2_271</t>
         </is>
@@ -16978,7 +16973,7 @@
       <c r="P273">
         <v>0.05751540797644891</v>
       </c>
-      <c r="AQ273" t="inlineStr">
+      <c r="AP273" t="inlineStr">
         <is>
           <t>2_272</t>
         </is>
@@ -17026,7 +17021,7 @@
       <c r="P274">
         <v>0.05115218792371881</v>
       </c>
-      <c r="AQ274" t="inlineStr">
+      <c r="AP274" t="inlineStr">
         <is>
           <t>2_273</t>
         </is>
@@ -17074,7 +17069,7 @@
       <c r="P275">
         <v>0.05720386142765611</v>
       </c>
-      <c r="AQ275" t="inlineStr">
+      <c r="AP275" t="inlineStr">
         <is>
           <t>2_274</t>
         </is>
@@ -17122,7 +17117,7 @@
       <c r="P276">
         <v>0.06233356192088084</v>
       </c>
-      <c r="AQ276" t="inlineStr">
+      <c r="AP276" t="inlineStr">
         <is>
           <t>2_275</t>
         </is>
@@ -17188,13 +17183,13 @@
       <c r="AI277">
         <v>0.044953392</v>
       </c>
-      <c r="AK277">
+      <c r="AJ277">
         <v>2.30801420562972</v>
       </c>
-      <c r="AM277">
+      <c r="AL277">
         <v>0.007650146</v>
       </c>
-      <c r="AQ277" t="inlineStr">
+      <c r="AP277" t="inlineStr">
         <is>
           <t>2_276</t>
         </is>
@@ -17242,7 +17237,7 @@
       <c r="P278">
         <v>0.05565212529514543</v>
       </c>
-      <c r="AQ278" t="inlineStr">
+      <c r="AP278" t="inlineStr">
         <is>
           <t>2_277</t>
         </is>
@@ -17308,13 +17303,13 @@
       <c r="AI279">
         <v>0.000312297</v>
       </c>
-      <c r="AK279">
+      <c r="AJ279">
         <v>0.00498447853572715</v>
       </c>
-      <c r="AM279">
+      <c r="AL279">
         <v>0.005532384</v>
       </c>
-      <c r="AQ279" t="inlineStr">
+      <c r="AP279" t="inlineStr">
         <is>
           <t>2_278</t>
         </is>
@@ -17362,7 +17357,7 @@
       <c r="P280">
         <v>0.05711794421865232</v>
       </c>
-      <c r="AQ280" t="inlineStr">
+      <c r="AP280" t="inlineStr">
         <is>
           <t>2_279</t>
         </is>
@@ -17428,13 +17423,13 @@
       <c r="AI281">
         <v>0.054108722</v>
       </c>
-      <c r="AK281">
+      <c r="AJ281">
         <v>0.783594512216845</v>
       </c>
-      <c r="AM281">
+      <c r="AL281">
         <v>0.008291974000000001</v>
       </c>
-      <c r="AQ281" t="inlineStr">
+      <c r="AP281" t="inlineStr">
         <is>
           <t>2_280</t>
         </is>
@@ -17500,13 +17495,13 @@
       <c r="AI282">
         <v>0.035562622</v>
       </c>
-      <c r="AK282">
+      <c r="AJ282">
         <v>1.02660476257989</v>
       </c>
-      <c r="AM282">
+      <c r="AL282">
         <v>0.005509124</v>
       </c>
-      <c r="AQ282" t="inlineStr">
+      <c r="AP282" t="inlineStr">
         <is>
           <t>2_281</t>
         </is>
@@ -17572,13 +17567,13 @@
       <c r="AI283">
         <v>0.013125172</v>
       </c>
-      <c r="AK283">
+      <c r="AJ283">
         <v>0.969652295983128</v>
       </c>
-      <c r="AM283">
+      <c r="AL283">
         <v>0.002225728</v>
       </c>
-      <c r="AQ283" t="inlineStr">
+      <c r="AP283" t="inlineStr">
         <is>
           <t>2_282</t>
         </is>
@@ -17644,13 +17639,13 @@
       <c r="AI284">
         <v>0.006106782</v>
       </c>
-      <c r="AK284">
+      <c r="AJ284">
         <v>0.49062505592359</v>
       </c>
-      <c r="AM284">
+      <c r="AL284">
         <v>0.001158291</v>
       </c>
-      <c r="AQ284" t="inlineStr">
+      <c r="AP284" t="inlineStr">
         <is>
           <t>2_283</t>
         </is>
@@ -17698,7 +17693,7 @@
       <c r="P285">
         <v>0.05332468760564372</v>
       </c>
-      <c r="AQ285" t="inlineStr">
+      <c r="AP285" t="inlineStr">
         <is>
           <t>2_284</t>
         </is>
@@ -17764,13 +17759,13 @@
       <c r="AI286">
         <v>0.008335577</v>
       </c>
-      <c r="AK286">
+      <c r="AJ286">
         <v>0.478397728954887</v>
       </c>
-      <c r="AM286">
+      <c r="AL286">
         <v>0.001272724</v>
       </c>
-      <c r="AQ286" t="inlineStr">
+      <c r="AP286" t="inlineStr">
         <is>
           <t>2_285</t>
         </is>
@@ -17836,13 +17831,13 @@
       <c r="AI287">
         <v>0.069629254</v>
       </c>
-      <c r="AK287">
+      <c r="AJ287">
         <v>0.870126400684043</v>
       </c>
-      <c r="AM287">
+      <c r="AL287">
         <v>0.010723141</v>
       </c>
-      <c r="AQ287" t="inlineStr">
+      <c r="AP287" t="inlineStr">
         <is>
           <t>2_286</t>
         </is>
@@ -17908,13 +17903,13 @@
       <c r="AI288">
         <v>0.006289821</v>
       </c>
-      <c r="AK288">
+      <c r="AJ288">
         <v>0.653978994181742</v>
       </c>
-      <c r="AM288">
+      <c r="AL288">
         <v>0.000736417</v>
       </c>
-      <c r="AQ288" t="inlineStr">
+      <c r="AP288" t="inlineStr">
         <is>
           <t>2_287</t>
         </is>
@@ -17980,13 +17975,13 @@
       <c r="AI289">
         <v>0.0015501</v>
       </c>
-      <c r="AK289">
+      <c r="AJ289">
         <v>0.869558918272478</v>
       </c>
-      <c r="AM289">
+      <c r="AL289">
         <v>0.000315752</v>
       </c>
-      <c r="AQ289" t="inlineStr">
+      <c r="AP289" t="inlineStr">
         <is>
           <t>2_288</t>
         </is>
@@ -18052,13 +18047,13 @@
       <c r="AI290">
         <v>0.001492944</v>
       </c>
-      <c r="AK290">
+      <c r="AJ290">
         <v>0.435560345699743</v>
       </c>
-      <c r="AM290">
+      <c r="AL290">
         <v>0.000222929</v>
       </c>
-      <c r="AQ290" t="inlineStr">
+      <c r="AP290" t="inlineStr">
         <is>
           <t>2_289</t>
         </is>
@@ -18124,13 +18119,13 @@
       <c r="AI291">
         <v>0.004860826</v>
       </c>
-      <c r="AK291">
+      <c r="AJ291">
         <v>1.55833733711863</v>
       </c>
-      <c r="AM291">
+      <c r="AL291">
         <v>0.000737742</v>
       </c>
-      <c r="AQ291" t="inlineStr">
+      <c r="AP291" t="inlineStr">
         <is>
           <t>2_290</t>
         </is>
@@ -18196,13 +18191,13 @@
       <c r="AI292">
         <v>0.002790739</v>
       </c>
-      <c r="AK292">
+      <c r="AJ292">
         <v>0.615219602134024</v>
       </c>
-      <c r="AM292">
+      <c r="AL292">
         <v>0.000299507</v>
       </c>
-      <c r="AQ292" t="inlineStr">
+      <c r="AP292" t="inlineStr">
         <is>
           <t>2_291</t>
         </is>
@@ -18268,13 +18263,13 @@
       <c r="AI293">
         <v>0.002276699</v>
       </c>
-      <c r="AK293">
+      <c r="AJ293">
         <v>0.273130640149604</v>
       </c>
-      <c r="AM293">
+      <c r="AL293">
         <v>0.000327034</v>
       </c>
-      <c r="AQ293" t="inlineStr">
+      <c r="AP293" t="inlineStr">
         <is>
           <t>2_292</t>
         </is>
@@ -18340,13 +18335,13 @@
       <c r="AI294">
         <v>0.003660852</v>
       </c>
-      <c r="AK294">
+      <c r="AJ294">
         <v>0.474877846590801</v>
       </c>
-      <c r="AM294">
+      <c r="AL294">
         <v>0.000466547</v>
       </c>
-      <c r="AQ294" t="inlineStr">
+      <c r="AP294" t="inlineStr">
         <is>
           <t>2_293</t>
         </is>
@@ -18394,7 +18389,7 @@
       <c r="P295">
         <v>0.05529586567358302</v>
       </c>
-      <c r="AQ295" t="inlineStr">
+      <c r="AP295" t="inlineStr">
         <is>
           <t>2_294</t>
         </is>
@@ -18442,7 +18437,7 @@
       <c r="P296">
         <v>0.05366133713658371</v>
       </c>
-      <c r="AQ296" t="inlineStr">
+      <c r="AP296" t="inlineStr">
         <is>
           <t>2_295</t>
         </is>
@@ -18490,7 +18485,7 @@
       <c r="P297">
         <v>0.05121698852035154</v>
       </c>
-      <c r="AQ297" t="inlineStr">
+      <c r="AP297" t="inlineStr">
         <is>
           <t>2_296</t>
         </is>
@@ -18538,7 +18533,7 @@
       <c r="P298">
         <v>0.05611110124488643</v>
       </c>
-      <c r="AQ298" t="inlineStr">
+      <c r="AP298" t="inlineStr">
         <is>
           <t>2_297</t>
         </is>
@@ -18586,7 +18581,7 @@
       <c r="P299">
         <v>0.05055346309580978</v>
       </c>
-      <c r="AQ299" t="inlineStr">
+      <c r="AP299" t="inlineStr">
         <is>
           <t>2_298</t>
         </is>
@@ -18634,7 +18629,7 @@
       <c r="P300">
         <v>0.0529612017107421</v>
       </c>
-      <c r="AQ300" t="inlineStr">
+      <c r="AP300" t="inlineStr">
         <is>
           <t>2_299</t>
         </is>
@@ -18682,7 +18677,7 @@
       <c r="P301">
         <v>0.05206778466194847</v>
       </c>
-      <c r="AQ301" t="inlineStr">
+      <c r="AP301" t="inlineStr">
         <is>
           <t>2_300</t>
         </is>
@@ -18730,7 +18725,7 @@
       <c r="P302">
         <v>0.0489915969023717</v>
       </c>
-      <c r="AQ302" t="inlineStr">
+      <c r="AP302" t="inlineStr">
         <is>
           <t>2_301</t>
         </is>
@@ -18778,7 +18773,7 @@
       <c r="P303">
         <v>0.05143865895309405</v>
       </c>
-      <c r="AQ303" t="inlineStr">
+      <c r="AP303" t="inlineStr">
         <is>
           <t>2_302</t>
         </is>
@@ -18826,7 +18821,7 @@
       <c r="P304">
         <v>0.0544168623557431</v>
       </c>
-      <c r="AQ304" t="inlineStr">
+      <c r="AP304" t="inlineStr">
         <is>
           <t>2_303</t>
         </is>
@@ -18874,7 +18869,7 @@
       <c r="P305">
         <v>0.0549134317240756</v>
       </c>
-      <c r="AQ305" t="inlineStr">
+      <c r="AP305" t="inlineStr">
         <is>
           <t>2_304</t>
         </is>
@@ -18922,7 +18917,7 @@
       <c r="P306">
         <v>0.0626500251535778</v>
       </c>
-      <c r="AQ306" t="inlineStr">
+      <c r="AP306" t="inlineStr">
         <is>
           <t>2_305</t>
         </is>
@@ -18970,7 +18965,7 @@
       <c r="P307">
         <v>0.05542237709637733</v>
       </c>
-      <c r="AQ307" t="inlineStr">
+      <c r="AP307" t="inlineStr">
         <is>
           <t>2_306</t>
         </is>
@@ -19018,7 +19013,7 @@
       <c r="P308">
         <v>0.04872993889542276</v>
       </c>
-      <c r="AQ308" t="inlineStr">
+      <c r="AP308" t="inlineStr">
         <is>
           <t>2_307</t>
         </is>
@@ -19066,7 +19061,7 @@
       <c r="P309">
         <v>0.04844308940810016</v>
       </c>
-      <c r="AQ309" t="inlineStr">
+      <c r="AP309" t="inlineStr">
         <is>
           <t>2_308</t>
         </is>
@@ -19114,7 +19109,7 @@
       <c r="P310">
         <v>0.0486096353058994</v>
       </c>
-      <c r="AQ310" t="inlineStr">
+      <c r="AP310" t="inlineStr">
         <is>
           <t>2_309</t>
         </is>
@@ -19180,13 +19175,13 @@
       <c r="AI311">
         <v>0.140068009</v>
       </c>
-      <c r="AK311">
+      <c r="AJ311">
         <v>15.3677013341064</v>
       </c>
-      <c r="AM311">
+      <c r="AL311">
         <v>0.026551947</v>
       </c>
-      <c r="AQ311" t="inlineStr">
+      <c r="AP311" t="inlineStr">
         <is>
           <t>2_310</t>
         </is>
@@ -19234,7 +19229,7 @@
       <c r="P312">
         <v>0.04884795177308876</v>
       </c>
-      <c r="AQ312" t="inlineStr">
+      <c r="AP312" t="inlineStr">
         <is>
           <t>2_311</t>
         </is>
@@ -19300,13 +19295,13 @@
       <c r="AI313">
         <v>0.037427293</v>
       </c>
-      <c r="AK313">
+      <c r="AJ313">
         <v>3.59888106763386</v>
       </c>
-      <c r="AM313">
+      <c r="AL313">
         <v>0.005212657</v>
       </c>
-      <c r="AQ313" t="inlineStr">
+      <c r="AP313" t="inlineStr">
         <is>
           <t>2_312</t>
         </is>
@@ -19372,13 +19367,13 @@
       <c r="AI314">
         <v>0.039501675</v>
       </c>
-      <c r="AK314">
+      <c r="AJ314">
         <v>2.35563413367353</v>
       </c>
-      <c r="AM314">
+      <c r="AL314">
         <v>0.006040284</v>
       </c>
-      <c r="AQ314" t="inlineStr">
+      <c r="AP314" t="inlineStr">
         <is>
           <t>2_313</t>
         </is>
@@ -19426,7 +19421,7 @@
       <c r="P315">
         <v>0.05235139045143301</v>
       </c>
-      <c r="AQ315" t="inlineStr">
+      <c r="AP315" t="inlineStr">
         <is>
           <t>2_314</t>
         </is>
@@ -19492,13 +19487,13 @@
       <c r="AI316">
         <v>0.034746574</v>
       </c>
-      <c r="AK316">
+      <c r="AJ316">
         <v>0.8694065658119</v>
       </c>
-      <c r="AM316">
+      <c r="AL316">
         <v>0.005189499</v>
       </c>
-      <c r="AQ316" t="inlineStr">
+      <c r="AP316" t="inlineStr">
         <is>
           <t>2_315</t>
         </is>
@@ -19564,13 +19559,13 @@
       <c r="AI317">
         <v>0.017038334</v>
       </c>
-      <c r="AK317">
+      <c r="AJ317">
         <v>0.880686390117302</v>
       </c>
-      <c r="AM317">
+      <c r="AL317">
         <v>0.002308606</v>
       </c>
-      <c r="AQ317" t="inlineStr">
+      <c r="AP317" t="inlineStr">
         <is>
           <t>2_316</t>
         </is>
@@ -19636,13 +19631,13 @@
       <c r="AI318">
         <v>0.010902631</v>
       </c>
-      <c r="AK318">
+      <c r="AJ318">
         <v>0.646223481012029</v>
       </c>
-      <c r="AM318">
+      <c r="AL318">
         <v>0.001483742</v>
       </c>
-      <c r="AQ318" t="inlineStr">
+      <c r="AP318" t="inlineStr">
         <is>
           <t>2_317</t>
         </is>
@@ -19690,7 +19685,7 @@
       <c r="P319">
         <v>0.0448761403348799</v>
       </c>
-      <c r="AQ319" t="inlineStr">
+      <c r="AP319" t="inlineStr">
         <is>
           <t>2_318</t>
         </is>
@@ -19756,13 +19751,13 @@
       <c r="AI320">
         <v>0.004731197</v>
       </c>
-      <c r="AK320">
+      <c r="AJ320">
         <v>0.365170523773434</v>
       </c>
-      <c r="AM320">
+      <c r="AL320">
         <v>0.000683445</v>
       </c>
-      <c r="AQ320" t="inlineStr">
+      <c r="AP320" t="inlineStr">
         <is>
           <t>2_319</t>
         </is>
@@ -19810,7 +19805,7 @@
       <c r="P321">
         <v>0.05304992002277545</v>
       </c>
-      <c r="AQ321" t="inlineStr">
+      <c r="AP321" t="inlineStr">
         <is>
           <t>2_320</t>
         </is>
@@ -19876,13 +19871,13 @@
       <c r="AI322">
         <v>0.008749145999999999</v>
       </c>
-      <c r="AK322">
+      <c r="AJ322">
         <v>0.772006825965732</v>
       </c>
-      <c r="AM322">
+      <c r="AL322">
         <v>0.001639775</v>
       </c>
-      <c r="AQ322" t="inlineStr">
+      <c r="AP322" t="inlineStr">
         <is>
           <t>2_321</t>
         </is>
@@ -19948,13 +19943,13 @@
       <c r="AI323">
         <v>0.009319284000000001</v>
       </c>
-      <c r="AK323">
+      <c r="AJ323">
         <v>1.00740904200041</v>
       </c>
-      <c r="AM323">
+      <c r="AL323">
         <v>0.000907409</v>
       </c>
-      <c r="AQ323" t="inlineStr">
+      <c r="AP323" t="inlineStr">
         <is>
           <t>2_322</t>
         </is>
@@ -20020,13 +20015,13 @@
       <c r="AI324">
         <v>0.00349607</v>
       </c>
-      <c r="AK324">
+      <c r="AJ324">
         <v>0.619390371175275</v>
       </c>
-      <c r="AM324">
+      <c r="AL324">
         <v>0.000424411</v>
       </c>
-      <c r="AQ324" t="inlineStr">
+      <c r="AP324" t="inlineStr">
         <is>
           <t>2_323</t>
         </is>
@@ -20092,13 +20087,13 @@
       <c r="AI325">
         <v>0.002150084</v>
       </c>
-      <c r="AK325">
+      <c r="AJ325">
         <v>0.7523138297625001</v>
       </c>
-      <c r="AM325">
+      <c r="AL325">
         <v>0.00022169</v>
       </c>
-      <c r="AQ325" t="inlineStr">
+      <c r="AP325" t="inlineStr">
         <is>
           <t>2_324</t>
         </is>
@@ -20164,13 +20159,13 @@
       <c r="AI326">
         <v>0.003992454</v>
       </c>
-      <c r="AK326">
+      <c r="AJ326">
         <v>0.790232663381551</v>
       </c>
-      <c r="AM326">
+      <c r="AL326">
         <v>0.000393207</v>
       </c>
-      <c r="AQ326" t="inlineStr">
+      <c r="AP326" t="inlineStr">
         <is>
           <t>2_325</t>
         </is>
@@ -20236,13 +20231,13 @@
       <c r="AI327">
         <v>0.003335249</v>
       </c>
-      <c r="AK327">
+      <c r="AJ327">
         <v>0.45471021949554</v>
       </c>
-      <c r="AM327">
+      <c r="AL327">
         <v>0.000473108</v>
       </c>
-      <c r="AQ327" t="inlineStr">
+      <c r="AP327" t="inlineStr">
         <is>
           <t>2_326</t>
         </is>
@@ -20308,13 +20303,13 @@
       <c r="AI328">
         <v>0.002127075</v>
       </c>
-      <c r="AK328">
+      <c r="AJ328">
         <v>0.40008660882343</v>
       </c>
-      <c r="AM328">
+      <c r="AL328">
         <v>0.000314867</v>
       </c>
-      <c r="AQ328" t="inlineStr">
+      <c r="AP328" t="inlineStr">
         <is>
           <t>2_327</t>
         </is>
@@ -20380,13 +20375,13 @@
       <c r="AI329">
         <v>0.002285217</v>
       </c>
-      <c r="AK329">
+      <c r="AJ329">
         <v>0.476993859081313</v>
       </c>
-      <c r="AM329">
+      <c r="AL329">
         <v>0.000361247</v>
       </c>
-      <c r="AQ329" t="inlineStr">
+      <c r="AP329" t="inlineStr">
         <is>
           <t>2_328</t>
         </is>
@@ -20452,13 +20447,13 @@
       <c r="AI330">
         <v>0.003723471</v>
       </c>
-      <c r="AK330">
+      <c r="AJ330">
         <v>0.7597143534351261</v>
       </c>
-      <c r="AM330">
+      <c r="AL330">
         <v>0.000411522</v>
       </c>
-      <c r="AQ330" t="inlineStr">
+      <c r="AP330" t="inlineStr">
         <is>
           <t>2_329</t>
         </is>
@@ -20524,13 +20519,13 @@
       <c r="AI331">
         <v>0.009319284000000001</v>
       </c>
-      <c r="AK331">
+      <c r="AJ331">
         <v>1.00740904200041</v>
       </c>
-      <c r="AM331">
+      <c r="AL331">
         <v>0.000907409</v>
       </c>
-      <c r="AQ331" t="inlineStr">
+      <c r="AP331" t="inlineStr">
         <is>
           <t>2_330</t>
         </is>
@@ -20596,13 +20591,13 @@
       <c r="AI332">
         <v>0.00349607</v>
       </c>
-      <c r="AK332">
+      <c r="AJ332">
         <v>0.619390371175275</v>
       </c>
-      <c r="AM332">
+      <c r="AL332">
         <v>0.000424411</v>
       </c>
-      <c r="AQ332" t="inlineStr">
+      <c r="AP332" t="inlineStr">
         <is>
           <t>2_331</t>
         </is>
@@ -20668,13 +20663,13 @@
       <c r="AI333">
         <v>0.002150084</v>
       </c>
-      <c r="AK333">
+      <c r="AJ333">
         <v>0.7523138297625001</v>
       </c>
-      <c r="AM333">
+      <c r="AL333">
         <v>0.00022169</v>
       </c>
-      <c r="AQ333" t="inlineStr">
+      <c r="AP333" t="inlineStr">
         <is>
           <t>2_332</t>
         </is>
@@ -20740,13 +20735,13 @@
       <c r="AI334">
         <v>0.003335249</v>
       </c>
-      <c r="AK334">
+      <c r="AJ334">
         <v>0.45471021949554</v>
       </c>
-      <c r="AM334">
+      <c r="AL334">
         <v>0.000473108</v>
       </c>
-      <c r="AQ334" t="inlineStr">
+      <c r="AP334" t="inlineStr">
         <is>
           <t>2_333</t>
         </is>
@@ -20812,13 +20807,13 @@
       <c r="AI335">
         <v>0.002127075</v>
       </c>
-      <c r="AK335">
+      <c r="AJ335">
         <v>0.40008660882343</v>
       </c>
-      <c r="AM335">
+      <c r="AL335">
         <v>0.000314867</v>
       </c>
-      <c r="AQ335" t="inlineStr">
+      <c r="AP335" t="inlineStr">
         <is>
           <t>2_334</t>
         </is>
@@ -20884,13 +20879,13 @@
       <c r="AI336">
         <v>0.003992454</v>
       </c>
-      <c r="AK336">
+      <c r="AJ336">
         <v>0.790232663381551</v>
       </c>
-      <c r="AM336">
+      <c r="AL336">
         <v>0.000393207</v>
       </c>
-      <c r="AQ336" t="inlineStr">
+      <c r="AP336" t="inlineStr">
         <is>
           <t>2_335</t>
         </is>
@@ -20956,13 +20951,13 @@
       <c r="AI337">
         <v>0.002285217</v>
       </c>
-      <c r="AK337">
+      <c r="AJ337">
         <v>0.476993859081313</v>
       </c>
-      <c r="AM337">
+      <c r="AL337">
         <v>0.000361247</v>
       </c>
-      <c r="AQ337" t="inlineStr">
+      <c r="AP337" t="inlineStr">
         <is>
           <t>2_336</t>
         </is>
@@ -21028,13 +21023,13 @@
       <c r="AI338">
         <v>0.003723471</v>
       </c>
-      <c r="AK338">
+      <c r="AJ338">
         <v>0.7597143534351261</v>
       </c>
-      <c r="AM338">
+      <c r="AL338">
         <v>0.000411522</v>
       </c>
-      <c r="AQ338" t="inlineStr">
+      <c r="AP338" t="inlineStr">
         <is>
           <t>2_337</t>
         </is>
@@ -21100,13 +21095,13 @@
       <c r="AI339">
         <v>0.013958326</v>
       </c>
-      <c r="AK339">
+      <c r="AJ339">
         <v>0.261461468618522</v>
       </c>
-      <c r="AM339">
+      <c r="AL339">
         <v>0.001723284</v>
       </c>
-      <c r="AQ339" t="inlineStr">
+      <c r="AP339" t="inlineStr">
         <is>
           <t>2_338</t>
         </is>
@@ -21172,13 +21167,13 @@
       <c r="AI340">
         <v>0.004547522</v>
       </c>
-      <c r="AK340">
+      <c r="AJ340">
         <v>0.70201695383618</v>
       </c>
-      <c r="AM340">
+      <c r="AL340">
         <v>0.000681039</v>
       </c>
-      <c r="AQ340" t="inlineStr">
+      <c r="AP340" t="inlineStr">
         <is>
           <t>2_339</t>
         </is>
@@ -21244,13 +21239,13 @@
       <c r="AI341">
         <v>0.009370885000000001</v>
       </c>
-      <c r="AK341">
+      <c r="AJ341">
         <v>0.290673888871587</v>
       </c>
-      <c r="AM341">
+      <c r="AL341">
         <v>0.002812925</v>
       </c>
-      <c r="AQ341" t="inlineStr">
+      <c r="AP341" t="inlineStr">
         <is>
           <t>2_340</t>
         </is>
@@ -21316,13 +21311,13 @@
       <c r="AI342">
         <v>3.948709206</v>
       </c>
-      <c r="AK342">
+      <c r="AJ342">
         <v>0.570654150161246</v>
       </c>
-      <c r="AM342">
+      <c r="AL342">
         <v>0.33847224</v>
       </c>
-      <c r="AQ342" t="inlineStr">
+      <c r="AP342" t="inlineStr">
         <is>
           <t>2_341</t>
         </is>
@@ -21388,13 +21383,13 @@
       <c r="AI343">
         <v>0.005892111</v>
       </c>
-      <c r="AK343">
+      <c r="AJ343">
         <v>0.35120574584352</v>
       </c>
-      <c r="AM343">
+      <c r="AL343">
         <v>0.000918601</v>
       </c>
-      <c r="AQ343" t="inlineStr">
+      <c r="AP343" t="inlineStr">
         <is>
           <t>2_342</t>
         </is>
@@ -21460,13 +21455,13 @@
       <c r="AI344">
         <v>0.007783245</v>
       </c>
-      <c r="AK344">
+      <c r="AJ344">
         <v>0.481673136492774</v>
       </c>
-      <c r="AM344">
+      <c r="AL344">
         <v>0.001380719</v>
       </c>
-      <c r="AQ344" t="inlineStr">
+      <c r="AP344" t="inlineStr">
         <is>
           <t>2_343</t>
         </is>
@@ -21532,13 +21527,13 @@
       <c r="AI345">
         <v>0.007542814</v>
       </c>
-      <c r="AK345">
+      <c r="AJ345">
         <v>0.391169378696258</v>
       </c>
-      <c r="AM345">
+      <c r="AL345">
         <v>0.001344825</v>
       </c>
-      <c r="AQ345" t="inlineStr">
+      <c r="AP345" t="inlineStr">
         <is>
           <t>2_344</t>
         </is>
@@ -21604,13 +21599,13 @@
       <c r="AI346">
         <v>0.005281061</v>
       </c>
-      <c r="AK346">
+      <c r="AJ346">
         <v>0.32270513244193</v>
       </c>
-      <c r="AM346">
+      <c r="AL346">
         <v>0.001658044</v>
       </c>
-      <c r="AQ346" t="inlineStr">
+      <c r="AP346" t="inlineStr">
         <is>
           <t>2_345</t>
         </is>
@@ -21658,7 +21653,7 @@
       <c r="P347">
         <v>0.05799060436601811</v>
       </c>
-      <c r="AQ347" t="inlineStr">
+      <c r="AP347" t="inlineStr">
         <is>
           <t>2_346</t>
         </is>
@@ -21706,7 +21701,7 @@
       <c r="P348">
         <v>0.05037792797826741</v>
       </c>
-      <c r="AQ348" t="inlineStr">
+      <c r="AP348" t="inlineStr">
         <is>
           <t>2_347</t>
         </is>
@@ -21754,7 +21749,7 @@
       <c r="P349">
         <v>0.04856291864728625</v>
       </c>
-      <c r="AQ349" t="inlineStr">
+      <c r="AP349" t="inlineStr">
         <is>
           <t>2_348</t>
         </is>
@@ -21802,7 +21797,7 @@
       <c r="P350">
         <v>0.05382143176365545</v>
       </c>
-      <c r="AQ350" t="inlineStr">
+      <c r="AP350" t="inlineStr">
         <is>
           <t>2_349</t>
         </is>
@@ -21850,7 +21845,7 @@
       <c r="P351">
         <v>0.05078844219334215</v>
       </c>
-      <c r="AQ351" t="inlineStr">
+      <c r="AP351" t="inlineStr">
         <is>
           <t>2_350</t>
         </is>
@@ -21898,7 +21893,7 @@
       <c r="P352">
         <v>0.04783033998659572</v>
       </c>
-      <c r="AQ352" t="inlineStr">
+      <c r="AP352" t="inlineStr">
         <is>
           <t>2_351</t>
         </is>
@@ -21946,7 +21941,7 @@
       <c r="P353">
         <v>0.05369966640779927</v>
       </c>
-      <c r="AQ353" t="inlineStr">
+      <c r="AP353" t="inlineStr">
         <is>
           <t>2_352</t>
         </is>
@@ -21994,7 +21989,7 @@
       <c r="P354">
         <v>0.05091838350385629</v>
       </c>
-      <c r="AQ354" t="inlineStr">
+      <c r="AP354" t="inlineStr">
         <is>
           <t>2_353</t>
         </is>
@@ -22042,7 +22037,7 @@
       <c r="P355">
         <v>0.04797319403188548</v>
       </c>
-      <c r="AQ355" t="inlineStr">
+      <c r="AP355" t="inlineStr">
         <is>
           <t>2_354</t>
         </is>
@@ -22090,7 +22085,7 @@
       <c r="P356">
         <v>0.05607422379529586</v>
       </c>
-      <c r="AQ356" t="inlineStr">
+      <c r="AP356" t="inlineStr">
         <is>
           <t>2_355</t>
         </is>
@@ -22138,7 +22133,7 @@
       <c r="P357">
         <v>0.05698636755274981</v>
       </c>
-      <c r="AQ357" t="inlineStr">
+      <c r="AP357" t="inlineStr">
         <is>
           <t>2_356</t>
         </is>
@@ -22204,13 +22199,13 @@
       <c r="AI358">
         <v>0.058611643</v>
       </c>
-      <c r="AK358">
+      <c r="AJ358">
         <v>5.01392270935162</v>
       </c>
-      <c r="AM358">
+      <c r="AL358">
         <v>0.008685228</v>
       </c>
-      <c r="AQ358" t="inlineStr">
+      <c r="AP358" t="inlineStr">
         <is>
           <t>2_357</t>
         </is>
@@ -22258,7 +22253,7 @@
       <c r="P359">
         <v>0.0482688030517455</v>
       </c>
-      <c r="AQ359" t="inlineStr">
+      <c r="AP359" t="inlineStr">
         <is>
           <t>2_358</t>
         </is>
@@ -22324,13 +22319,13 @@
       <c r="AI360">
         <v>0.045300334</v>
       </c>
-      <c r="AK360">
+      <c r="AJ360">
         <v>1.58453439946538</v>
       </c>
-      <c r="AM360">
+      <c r="AL360">
         <v>0.007804306</v>
       </c>
-      <c r="AQ360" t="inlineStr">
+      <c r="AP360" t="inlineStr">
         <is>
           <t>2_359</t>
         </is>
@@ -22378,7 +22373,7 @@
       <c r="P361">
         <v>0.05567300828765081</v>
       </c>
-      <c r="AQ361" t="inlineStr">
+      <c r="AP361" t="inlineStr">
         <is>
           <t>2_360</t>
         </is>
@@ -22444,13 +22439,13 @@
       <c r="AI362">
         <v>0.020588371</v>
       </c>
-      <c r="AK362">
+      <c r="AJ362">
         <v>0.849695292037942</v>
       </c>
-      <c r="AM362">
+      <c r="AL362">
         <v>0.003270909</v>
       </c>
-      <c r="AQ362" t="inlineStr">
+      <c r="AP362" t="inlineStr">
         <is>
           <t>2_361</t>
         </is>
@@ -22498,7 +22493,7 @@
       <c r="P363">
         <v>0.05081842210221297</v>
       </c>
-      <c r="AQ363" t="inlineStr">
+      <c r="AP363" t="inlineStr">
         <is>
           <t>2_362</t>
         </is>
@@ -22564,13 +22559,13 @@
       <c r="AI364">
         <v>0.007036623</v>
       </c>
-      <c r="AK364">
+      <c r="AJ364">
         <v>0.589826705382151</v>
       </c>
-      <c r="AM364">
+      <c r="AL364">
         <v>0.001293724</v>
       </c>
-      <c r="AQ364" t="inlineStr">
+      <c r="AP364" t="inlineStr">
         <is>
           <t>2_363</t>
         </is>
@@ -22636,13 +22631,13 @@
       <c r="AI365">
         <v>0.014549304</v>
       </c>
-      <c r="AK365">
+      <c r="AJ365">
         <v>0.926296194592321</v>
       </c>
-      <c r="AM365">
+      <c r="AL365">
         <v>0.002162986</v>
       </c>
-      <c r="AQ365" t="inlineStr">
+      <c r="AP365" t="inlineStr">
         <is>
           <t>2_364</t>
         </is>
@@ -22690,7 +22685,7 @@
       <c r="P366">
         <v>0.05761554210337663</v>
       </c>
-      <c r="AQ366" t="inlineStr">
+      <c r="AP366" t="inlineStr">
         <is>
           <t>2_365</t>
         </is>
@@ -22756,13 +22751,13 @@
       <c r="AI367">
         <v>0.008038959</v>
       </c>
-      <c r="AK367">
+      <c r="AJ367">
         <v>0.519395305325356</v>
       </c>
-      <c r="AM367">
+      <c r="AL367">
         <v>0.001283658</v>
       </c>
-      <c r="AQ367" t="inlineStr">
+      <c r="AP367" t="inlineStr">
         <is>
           <t>2_366</t>
         </is>
@@ -22828,13 +22823,13 @@
       <c r="AI368">
         <v>0.005494033</v>
       </c>
-      <c r="AK368">
+      <c r="AJ368">
         <v>0.6627428354800839</v>
       </c>
-      <c r="AM368">
+      <c r="AL368">
         <v>0.000935923</v>
       </c>
-      <c r="AQ368" t="inlineStr">
+      <c r="AP368" t="inlineStr">
         <is>
           <t>2_367</t>
         </is>
@@ -22900,13 +22895,13 @@
       <c r="AI369">
         <v>0.002180071</v>
       </c>
-      <c r="AK369">
+      <c r="AJ369">
         <v>0.395991319264051</v>
       </c>
-      <c r="AM369">
+      <c r="AL369">
         <v>0.000565143</v>
       </c>
-      <c r="AQ369" t="inlineStr">
+      <c r="AP369" t="inlineStr">
         <is>
           <t>2_368</t>
         </is>
@@ -22972,13 +22967,13 @@
       <c r="AI370">
         <v>0.002486611</v>
       </c>
-      <c r="AK370">
+      <c r="AJ370">
         <v>0.394077328829321</v>
       </c>
-      <c r="AM370">
+      <c r="AL370">
         <v>0.000595119</v>
       </c>
-      <c r="AQ370" t="inlineStr">
+      <c r="AP370" t="inlineStr">
         <is>
           <t>2_369</t>
         </is>
@@ -23044,13 +23039,13 @@
       <c r="AI371">
         <v>0.001273887</v>
       </c>
-      <c r="AK371">
+      <c r="AJ371">
         <v>0.443501384702947</v>
       </c>
-      <c r="AM371">
+      <c r="AL371">
         <v>0.000463201</v>
       </c>
-      <c r="AQ371" t="inlineStr">
+      <c r="AP371" t="inlineStr">
         <is>
           <t>2_370</t>
         </is>
@@ -23116,13 +23111,13 @@
       <c r="AI372">
         <v>-0.001944163</v>
       </c>
-      <c r="AK372">
+      <c r="AJ372">
         <v>-0.878022825550039</v>
       </c>
-      <c r="AM372">
+      <c r="AL372">
         <v>0.00030314</v>
       </c>
-      <c r="AQ372" t="inlineStr">
+      <c r="AP372" t="inlineStr">
         <is>
           <t>2_371</t>
         </is>
@@ -23188,13 +23183,13 @@
       <c r="AI373">
         <v>0.002022291</v>
       </c>
-      <c r="AK373">
+      <c r="AJ373">
         <v>1.55863301376551</v>
       </c>
-      <c r="AM373">
+      <c r="AL373">
         <v>0.000354904</v>
       </c>
-      <c r="AQ373" t="inlineStr">
+      <c r="AP373" t="inlineStr">
         <is>
           <t>2_372</t>
         </is>
@@ -23260,13 +23255,13 @@
       <c r="AI374">
         <v>0.003631618</v>
       </c>
-      <c r="AK374">
+      <c r="AJ374">
         <v>0.313227309409798</v>
       </c>
-      <c r="AM374">
+      <c r="AL374">
         <v>0.00088061</v>
       </c>
-      <c r="AQ374" t="inlineStr">
+      <c r="AP374" t="inlineStr">
         <is>
           <t>2_373</t>
         </is>
@@ -23332,13 +23327,13 @@
       <c r="AI375">
         <v>0.013121757</v>
       </c>
-      <c r="AK375">
+      <c r="AJ375">
         <v>0.694574273940782</v>
       </c>
-      <c r="AM375">
+      <c r="AL375">
         <v>0.002036194</v>
       </c>
-      <c r="AQ375" t="inlineStr">
+      <c r="AP375" t="inlineStr">
         <is>
           <t>2_374</t>
         </is>
@@ -23404,13 +23399,13 @@
       <c r="AI376">
         <v>0.017261887</v>
       </c>
-      <c r="AK376">
+      <c r="AJ376">
         <v>0.707042561414187</v>
       </c>
-      <c r="AM376">
+      <c r="AL376">
         <v>0.002530214</v>
       </c>
-      <c r="AQ376" t="inlineStr">
+      <c r="AP376" t="inlineStr">
         <is>
           <t>2_375</t>
         </is>
@@ -23458,7 +23453,7 @@
       <c r="P377">
         <v>0.03945655040627547</v>
       </c>
-      <c r="AQ377" t="inlineStr">
+      <c r="AP377" t="inlineStr">
         <is>
           <t>2_376</t>
         </is>
@@ -23506,7 +23501,7 @@
       <c r="P378">
         <v>0.04022916119289851</v>
       </c>
-      <c r="AQ378" t="inlineStr">
+      <c r="AP378" t="inlineStr">
         <is>
           <t>2_377</t>
         </is>
@@ -23554,7 +23549,7 @@
       <c r="P379">
         <v>0.04152152706861614</v>
       </c>
-      <c r="AQ379" t="inlineStr">
+      <c r="AP379" t="inlineStr">
         <is>
           <t>2_378</t>
         </is>
@@ -23602,7 +23597,7 @@
       <c r="P380">
         <v>0.03738928930984298</v>
       </c>
-      <c r="AQ380" t="inlineStr">
+      <c r="AP380" t="inlineStr">
         <is>
           <t>2_379</t>
         </is>
@@ -23650,7 +23645,7 @@
       <c r="P381">
         <v>0.04127715836400127</v>
       </c>
-      <c r="AQ381" t="inlineStr">
+      <c r="AP381" t="inlineStr">
         <is>
           <t>2_380</t>
         </is>
@@ -23698,7 +23693,7 @@
       <c r="P382">
         <v>0.04163396544569047</v>
       </c>
-      <c r="AQ382" t="inlineStr">
+      <c r="AP382" t="inlineStr">
         <is>
           <t>2_381</t>
         </is>
@@ -23746,7 +23741,7 @@
       <c r="P383">
         <v>0.04270432394139558</v>
       </c>
-      <c r="AQ383" t="inlineStr">
+      <c r="AP383" t="inlineStr">
         <is>
           <t>2_382</t>
         </is>
@@ -23794,7 +23789,7 @@
       <c r="P384">
         <v>0.04280020926344244</v>
       </c>
-      <c r="AQ384" t="inlineStr">
+      <c r="AP384" t="inlineStr">
         <is>
           <t>2_383</t>
         </is>
@@ -23842,7 +23837,7 @@
       <c r="P385">
         <v>0.04116061108383964</v>
       </c>
-      <c r="AQ385" t="inlineStr">
+      <c r="AP385" t="inlineStr">
         <is>
           <t>2_384</t>
         </is>
@@ -23890,7 +23885,7 @@
       <c r="P386">
         <v>0.03889964388009969</v>
       </c>
-      <c r="AQ386" t="inlineStr">
+      <c r="AP386" t="inlineStr">
         <is>
           <t>2_385</t>
         </is>
@@ -23938,7 +23933,7 @@
       <c r="P387">
         <v>0.04301050038053209</v>
       </c>
-      <c r="AQ387" t="inlineStr">
+      <c r="AP387" t="inlineStr">
         <is>
           <t>2_386</t>
         </is>
@@ -23986,7 +23981,7 @@
       <c r="P388">
         <v>0.04087033600087012</v>
       </c>
-      <c r="AQ388" t="inlineStr">
+      <c r="AP388" t="inlineStr">
         <is>
           <t>2_387</t>
         </is>
@@ -24034,7 +24029,7 @@
       <c r="P389">
         <v>0.03894460923130454</v>
       </c>
-      <c r="AQ389" t="inlineStr">
+      <c r="AP389" t="inlineStr">
         <is>
           <t>2_388</t>
         </is>
@@ -24082,7 +24077,7 @@
       <c r="P390">
         <v>0.04073649907625673</v>
       </c>
-      <c r="AQ390" t="inlineStr">
+      <c r="AP390" t="inlineStr">
         <is>
           <t>2_389</t>
         </is>
@@ -24130,7 +24125,7 @@
       <c r="P391">
         <v>0.05521227697867424</v>
       </c>
-      <c r="AQ391" t="inlineStr">
+      <c r="AP391" t="inlineStr">
         <is>
           <t>2_390</t>
         </is>
@@ -24178,7 +24173,7 @@
       <c r="P392">
         <v>0.06875326575178668</v>
       </c>
-      <c r="AQ392" t="inlineStr">
+      <c r="AP392" t="inlineStr">
         <is>
           <t>2_391</t>
         </is>
@@ -24226,7 +24221,7 @@
       <c r="P393">
         <v>0.0429482844648956</v>
       </c>
-      <c r="AQ393" t="inlineStr">
+      <c r="AP393" t="inlineStr">
         <is>
           <t>2_392</t>
         </is>
@@ -24274,7 +24269,7 @@
       <c r="P394">
         <v>0.05480073346460288</v>
       </c>
-      <c r="AQ394" t="inlineStr">
+      <c r="AP394" t="inlineStr">
         <is>
           <t>2_393</t>
         </is>
@@ -24322,7 +24317,7 @@
       <c r="P395">
         <v>0.0471215942731479</v>
       </c>
-      <c r="AQ395" t="inlineStr">
+      <c r="AP395" t="inlineStr">
         <is>
           <t>2_394</t>
         </is>
@@ -24370,7 +24365,7 @@
       <c r="P396">
         <v>0.04313770596418973</v>
       </c>
-      <c r="AQ396" t="inlineStr">
+      <c r="AP396" t="inlineStr">
         <is>
           <t>2_395</t>
         </is>
@@ -24436,13 +24431,13 @@
       <c r="AI397">
         <v>0.098730858</v>
       </c>
-      <c r="AK397">
+      <c r="AJ397">
         <v>0.927713941703211</v>
       </c>
-      <c r="AM397">
+      <c r="AL397">
         <v>0.017608521</v>
       </c>
-      <c r="AQ397" t="inlineStr">
+      <c r="AP397" t="inlineStr">
         <is>
           <t>2_396</t>
         </is>
@@ -24490,7 +24485,7 @@
       <c r="P398">
         <v>0.04401187576217986</v>
       </c>
-      <c r="AQ398" t="inlineStr">
+      <c r="AP398" t="inlineStr">
         <is>
           <t>2_397</t>
         </is>
@@ -24556,13 +24551,13 @@
       <c r="AI399">
         <v>0.012270351</v>
       </c>
-      <c r="AK399">
+      <c r="AJ399">
         <v>0.735128069094496</v>
       </c>
-      <c r="AM399">
+      <c r="AL399">
         <v>0.002407132</v>
       </c>
-      <c r="AQ399" t="inlineStr">
+      <c r="AP399" t="inlineStr">
         <is>
           <t>2_398</t>
         </is>
@@ -24628,13 +24623,13 @@
       <c r="AI400">
         <v>0.017844066</v>
       </c>
-      <c r="AK400">
+      <c r="AJ400">
         <v>0.499660281213449</v>
       </c>
-      <c r="AM400">
+      <c r="AL400">
         <v>0.002708342</v>
       </c>
-      <c r="AQ400" t="inlineStr">
+      <c r="AP400" t="inlineStr">
         <is>
           <t>2_399</t>
         </is>
@@ -24682,7 +24677,7 @@
       <c r="P401">
         <v>0.05616189793301747</v>
       </c>
-      <c r="AQ401" t="inlineStr">
+      <c r="AP401" t="inlineStr">
         <is>
           <t>2_400</t>
         </is>
@@ -24748,13 +24743,13 @@
       <c r="AI402">
         <v>0.014692149</v>
       </c>
-      <c r="AK402">
+      <c r="AJ402">
         <v>0.451981300449214</v>
       </c>
-      <c r="AM402">
+      <c r="AL402">
         <v>0.002058304</v>
       </c>
-      <c r="AQ402" t="inlineStr">
+      <c r="AP402" t="inlineStr">
         <is>
           <t>2_401</t>
         </is>
@@ -24820,13 +24815,13 @@
       <c r="AI403">
         <v>0.008366461</v>
       </c>
-      <c r="AK403">
+      <c r="AJ403">
         <v>0.523560412446072</v>
       </c>
-      <c r="AM403">
+      <c r="AL403">
         <v>0.001419921</v>
       </c>
-      <c r="AQ403" t="inlineStr">
+      <c r="AP403" t="inlineStr">
         <is>
           <t>2_402</t>
         </is>
@@ -24874,7 +24869,7 @@
       <c r="P404">
         <v>0.0431679904002551</v>
       </c>
-      <c r="AQ404" t="inlineStr">
+      <c r="AP404" t="inlineStr">
         <is>
           <t>2_403</t>
         </is>
@@ -24940,13 +24935,13 @@
       <c r="AI405">
         <v>0.007596662</v>
       </c>
-      <c r="AK405">
+      <c r="AJ405">
         <v>0.620186417448621</v>
       </c>
-      <c r="AM405">
+      <c r="AL405">
         <v>0.001168661</v>
       </c>
-      <c r="AQ405" t="inlineStr">
+      <c r="AP405" t="inlineStr">
         <is>
           <t>2_404</t>
         </is>
@@ -25012,13 +25007,13 @@
       <c r="AI406">
         <v>0.00748877</v>
       </c>
-      <c r="AK406">
+      <c r="AJ406">
         <v>0.755013933527981</v>
       </c>
-      <c r="AM406">
+      <c r="AL406">
         <v>0.001136484</v>
       </c>
-      <c r="AQ406" t="inlineStr">
+      <c r="AP406" t="inlineStr">
         <is>
           <t>2_405</t>
         </is>
@@ -25084,13 +25079,13 @@
       <c r="AI407">
         <v>0.00687895</v>
       </c>
-      <c r="AK407">
+      <c r="AJ407">
         <v>0.9107931269671981</v>
       </c>
-      <c r="AM407">
+      <c r="AL407">
         <v>0.000965856</v>
       </c>
-      <c r="AQ407" t="inlineStr">
+      <c r="AP407" t="inlineStr">
         <is>
           <t>2_406</t>
         </is>
@@ -25156,13 +25151,13 @@
       <c r="AI408">
         <v>0.004809661</v>
       </c>
-      <c r="AK408">
+      <c r="AJ408">
         <v>1.06411517033404</v>
       </c>
-      <c r="AM408">
+      <c r="AL408">
         <v>0.000779862</v>
       </c>
-      <c r="AQ408" t="inlineStr">
+      <c r="AP408" t="inlineStr">
         <is>
           <t>2_407</t>
         </is>
@@ -25228,13 +25223,13 @@
       <c r="AI409">
         <v>0.003231541</v>
       </c>
-      <c r="AK409">
+      <c r="AJ409">
         <v>0.661650604442618</v>
       </c>
-      <c r="AM409">
+      <c r="AL409">
         <v>0.000502847</v>
       </c>
-      <c r="AQ409" t="inlineStr">
+      <c r="AP409" t="inlineStr">
         <is>
           <t>2_408</t>
         </is>
@@ -25300,13 +25295,13 @@
       <c r="AI410">
         <v>0.002966044</v>
       </c>
-      <c r="AK410">
+      <c r="AJ410">
         <v>0.558064105934771</v>
       </c>
-      <c r="AM410">
+      <c r="AL410">
         <v>0.000441011</v>
       </c>
-      <c r="AQ410" t="inlineStr">
+      <c r="AP410" t="inlineStr">
         <is>
           <t>2_409</t>
         </is>
@@ -25372,13 +25367,13 @@
       <c r="AI411">
         <v>0.002762785</v>
       </c>
-      <c r="AK411">
+      <c r="AJ411">
         <v>0.4328215849631</v>
       </c>
-      <c r="AM411">
+      <c r="AL411">
         <v>0.00029072</v>
       </c>
-      <c r="AQ411" t="inlineStr">
+      <c r="AP411" t="inlineStr">
         <is>
           <t>2_410</t>
         </is>
@@ -25444,13 +25439,13 @@
       <c r="AI412">
         <v>0.003772497</v>
       </c>
-      <c r="AK412">
+      <c r="AJ412">
         <v>0.556397378039683</v>
       </c>
-      <c r="AM412">
+      <c r="AL412">
         <v>0.000550452</v>
       </c>
-      <c r="AQ412" t="inlineStr">
+      <c r="AP412" t="inlineStr">
         <is>
           <t>2_411</t>
         </is>
@@ -25516,13 +25511,13 @@
       <c r="AI413">
         <v>0.004150069</v>
       </c>
-      <c r="AK413">
+      <c r="AJ413">
         <v>0.511600118891226</v>
       </c>
-      <c r="AM413">
+      <c r="AL413">
         <v>0.000560389</v>
       </c>
-      <c r="AQ413" t="inlineStr">
+      <c r="AP413" t="inlineStr">
         <is>
           <t>2_412</t>
         </is>
@@ -25570,7 +25565,7 @@
       <c r="P414">
         <v>0.05113528684250627</v>
       </c>
-      <c r="AQ414" t="inlineStr">
+      <c r="AP414" t="inlineStr">
         <is>
           <t>2_413</t>
         </is>
@@ -25618,7 +25613,7 @@
       <c r="P415">
         <v>0.05513341724403781</v>
       </c>
-      <c r="AQ415" t="inlineStr">
+      <c r="AP415" t="inlineStr">
         <is>
           <t>2_414</t>
         </is>
@@ -25666,7 +25661,7 @@
       <c r="P416">
         <v>0.05047270246821223</v>
       </c>
-      <c r="AQ416" t="inlineStr">
+      <c r="AP416" t="inlineStr">
         <is>
           <t>2_415</t>
         </is>
@@ -25714,7 +25709,7 @@
       <c r="P417">
         <v>0.04887964750142335</v>
       </c>
-      <c r="AQ417" t="inlineStr">
+      <c r="AP417" t="inlineStr">
         <is>
           <t>2_416</t>
         </is>
@@ -25762,7 +25757,7 @@
       <c r="P418">
         <v>0.04885349479461676</v>
       </c>
-      <c r="AQ418" t="inlineStr">
+      <c r="AP418" t="inlineStr">
         <is>
           <t>2_417</t>
         </is>
@@ -25810,7 +25805,7 @@
       <c r="P419">
         <v>0.05485908604095488</v>
       </c>
-      <c r="AQ419" t="inlineStr">
+      <c r="AP419" t="inlineStr">
         <is>
           <t>2_418</t>
         </is>
@@ -25858,7 +25853,7 @@
       <c r="P420">
         <v>0.04956339004429559</v>
       </c>
-      <c r="AQ420" t="inlineStr">
+      <c r="AP420" t="inlineStr">
         <is>
           <t>2_419</t>
         </is>
@@ -25906,7 +25901,7 @@
       <c r="P421">
         <v>0.04713710177221376</v>
       </c>
-      <c r="AQ421" t="inlineStr">
+      <c r="AP421" t="inlineStr">
         <is>
           <t>2_420</t>
         </is>
@@ -25954,7 +25949,7 @@
       <c r="P422">
         <v>0.05106192969752003</v>
       </c>
-      <c r="AQ422" t="inlineStr">
+      <c r="AP422" t="inlineStr">
         <is>
           <t>2_421</t>
         </is>
@@ -26002,7 +25997,7 @@
       <c r="P423">
         <v>0.04352787340133506</v>
       </c>
-      <c r="AQ423" t="inlineStr">
+      <c r="AP423" t="inlineStr">
         <is>
           <t>2_422</t>
         </is>
@@ -26050,7 +26045,7 @@
       <c r="P424">
         <v>0.05011939425547611</v>
       </c>
-      <c r="AQ424" t="inlineStr">
+      <c r="AP424" t="inlineStr">
         <is>
           <t>2_423</t>
         </is>
@@ -26098,7 +26093,7 @@
       <c r="P425">
         <v>0.04917439099370333</v>
       </c>
-      <c r="AQ425" t="inlineStr">
+      <c r="AP425" t="inlineStr">
         <is>
           <t>2_424</t>
         </is>
@@ -26146,7 +26141,7 @@
       <c r="P426">
         <v>0.05051799506403498</v>
       </c>
-      <c r="AQ426" t="inlineStr">
+      <c r="AP426" t="inlineStr">
         <is>
           <t>2_425</t>
         </is>
@@ -26194,7 +26189,7 @@
       <c r="P427">
         <v>0.05973509340922901</v>
       </c>
-      <c r="AQ427" t="inlineStr">
+      <c r="AP427" t="inlineStr">
         <is>
           <t>2_426</t>
         </is>
@@ -26242,7 +26237,7 @@
       <c r="P428">
         <v>0.04696805276345108</v>
       </c>
-      <c r="AQ428" t="inlineStr">
+      <c r="AP428" t="inlineStr">
         <is>
           <t>2_427</t>
         </is>
@@ -26290,7 +26285,7 @@
       <c r="P429">
         <v>0.04196505083473188</v>
       </c>
-      <c r="AQ429" t="inlineStr">
+      <c r="AP429" t="inlineStr">
         <is>
           <t>2_428</t>
         </is>
@@ -26338,7 +26333,7 @@
       <c r="P430">
         <v>0.0597802339231202</v>
       </c>
-      <c r="AQ430" t="inlineStr">
+      <c r="AP430" t="inlineStr">
         <is>
           <t>2_429</t>
         </is>
@@ -26404,13 +26399,13 @@
       <c r="AI431">
         <v>0.07930287799999999</v>
       </c>
-      <c r="AK431">
+      <c r="AJ431">
         <v>0.61835900538736</v>
       </c>
-      <c r="AM431">
+      <c r="AL431">
         <v>0.010492929</v>
       </c>
-      <c r="AQ431" t="inlineStr">
+      <c r="AP431" t="inlineStr">
         <is>
           <t>2_430</t>
         </is>
@@ -26476,13 +26471,13 @@
       <c r="AI432">
         <v>0.050553977</v>
       </c>
-      <c r="AK432">
+      <c r="AJ432">
         <v>0.617178758929997</v>
       </c>
-      <c r="AM432">
+      <c r="AL432">
         <v>0.007346106</v>
       </c>
-      <c r="AQ432" t="inlineStr">
+      <c r="AP432" t="inlineStr">
         <is>
           <t>2_431</t>
         </is>
@@ -26530,7 +26525,7 @@
       <c r="P433">
         <v>0.04484701906531524</v>
       </c>
-      <c r="AQ433" t="inlineStr">
+      <c r="AP433" t="inlineStr">
         <is>
           <t>2_432</t>
         </is>
@@ -26596,13 +26591,13 @@
       <c r="AI434">
         <v>0.021636118</v>
       </c>
-      <c r="AK434">
+      <c r="AJ434">
         <v>0.409708200801541</v>
       </c>
-      <c r="AM434">
+      <c r="AL434">
         <v>0.002764948</v>
       </c>
-      <c r="AQ434" t="inlineStr">
+      <c r="AP434" t="inlineStr">
         <is>
           <t>2_433</t>
         </is>
@@ -26668,13 +26663,13 @@
       <c r="AI435">
         <v>0.019971449</v>
       </c>
-      <c r="AK435">
+      <c r="AJ435">
         <v>0.488486745640824</v>
       </c>
-      <c r="AM435">
+      <c r="AL435">
         <v>0.002494776</v>
       </c>
-      <c r="AQ435" t="inlineStr">
+      <c r="AP435" t="inlineStr">
         <is>
           <t>2_434</t>
         </is>
@@ -26740,13 +26735,13 @@
       <c r="AI436">
         <v>0.024475748</v>
       </c>
-      <c r="AK436">
+      <c r="AJ436">
         <v>0.495773955632034</v>
       </c>
-      <c r="AM436">
+      <c r="AL436">
         <v>0.002966104</v>
       </c>
-      <c r="AQ436" t="inlineStr">
+      <c r="AP436" t="inlineStr">
         <is>
           <t>2_435</t>
         </is>
@@ -26812,13 +26807,13 @@
       <c r="AI437">
         <v>0.018088109</v>
       </c>
-      <c r="AK437">
+      <c r="AJ437">
         <v>0.952981664412869</v>
       </c>
-      <c r="AM437">
+      <c r="AL437">
         <v>0.002019359</v>
       </c>
-      <c r="AQ437" t="inlineStr">
+      <c r="AP437" t="inlineStr">
         <is>
           <t>2_436</t>
         </is>
@@ -26866,7 +26861,7 @@
       <c r="P438">
         <v>0.05952976900752383</v>
       </c>
-      <c r="AQ438" t="inlineStr">
+      <c r="AP438" t="inlineStr">
         <is>
           <t>2_437</t>
         </is>
@@ -26932,13 +26927,13 @@
       <c r="AI439">
         <v>0.009329185</v>
       </c>
-      <c r="AK439">
+      <c r="AJ439">
         <v>0.709918670537851</v>
       </c>
-      <c r="AM439">
+      <c r="AL439">
         <v>0.001022079</v>
       </c>
-      <c r="AQ439" t="inlineStr">
+      <c r="AP439" t="inlineStr">
         <is>
           <t>2_438</t>
         </is>
@@ -26989,7 +26984,7 @@
       <c r="T440">
         <v>791.7</v>
       </c>
-      <c r="AQ440" t="inlineStr">
+      <c r="AP440" t="inlineStr">
         <is>
           <t>2_439</t>
         </is>
@@ -27055,13 +27050,13 @@
       <c r="AI441">
         <v>0.007222083</v>
       </c>
-      <c r="AK441">
+      <c r="AJ441">
         <v>0.744855141568267</v>
       </c>
-      <c r="AM441">
+      <c r="AL441">
         <v>0.000849941</v>
       </c>
-      <c r="AQ441" t="inlineStr">
+      <c r="AP441" t="inlineStr">
         <is>
           <t>2_440</t>
         </is>
@@ -27127,13 +27122,13 @@
       <c r="AI442">
         <v>0.005727313</v>
       </c>
-      <c r="AK442">
+      <c r="AJ442">
         <v>0.76926339900186</v>
       </c>
-      <c r="AM442">
+      <c r="AL442">
         <v>0.00065699</v>
       </c>
-      <c r="AQ442" t="inlineStr">
+      <c r="AP442" t="inlineStr">
         <is>
           <t>2_441</t>
         </is>
@@ -27199,13 +27194,13 @@
       <c r="AI443">
         <v>0.002662517</v>
       </c>
-      <c r="AK443">
+      <c r="AJ443">
         <v>0.643957184060484</v>
       </c>
-      <c r="AM443">
+      <c r="AL443">
         <v>0.000338031</v>
       </c>
-      <c r="AQ443" t="inlineStr">
+      <c r="AP443" t="inlineStr">
         <is>
           <t>2_442</t>
         </is>
@@ -27271,13 +27266,13 @@
       <c r="AI444">
         <v>0.002757734</v>
       </c>
-      <c r="AK444">
+      <c r="AJ444">
         <v>0.5697547028591859</v>
       </c>
-      <c r="AM444">
+      <c r="AL444">
         <v>0.000352864</v>
       </c>
-      <c r="AQ444" t="inlineStr">
+      <c r="AP444" t="inlineStr">
         <is>
           <t>2_443</t>
         </is>
@@ -27343,13 +27338,13 @@
       <c r="AI445">
         <v>0.000845292</v>
       </c>
-      <c r="AK445">
+      <c r="AJ445">
         <v>0.173670477454684</v>
       </c>
-      <c r="AM445">
+      <c r="AL445">
         <v>0.000379919</v>
       </c>
-      <c r="AQ445" t="inlineStr">
+      <c r="AP445" t="inlineStr">
         <is>
           <t>2_444</t>
         </is>
@@ -27415,13 +27410,13 @@
       <c r="AI446">
         <v>0.003646786</v>
       </c>
-      <c r="AK446">
+      <c r="AJ446">
         <v>0.644742932460819</v>
       </c>
-      <c r="AM446">
+      <c r="AL446">
         <v>0.000419751</v>
       </c>
-      <c r="AQ446" t="inlineStr">
+      <c r="AP446" t="inlineStr">
         <is>
           <t>2_445</t>
         </is>
@@ -27487,13 +27482,13 @@
       <c r="AI447">
         <v>0.004497564</v>
       </c>
-      <c r="AK447">
+      <c r="AJ447">
         <v>0.842639103766554</v>
       </c>
-      <c r="AM447">
+      <c r="AL447">
         <v>0.000570532</v>
       </c>
-      <c r="AQ447" t="inlineStr">
+      <c r="AP447" t="inlineStr">
         <is>
           <t>2_446</t>
         </is>
@@ -27559,13 +27554,13 @@
       <c r="AI448">
         <v>0.005563441</v>
       </c>
-      <c r="AK448">
+      <c r="AJ448">
         <v>0.900553670887533</v>
       </c>
-      <c r="AM448">
+      <c r="AL448">
         <v>0.000639289</v>
       </c>
-      <c r="AQ448" t="inlineStr">
+      <c r="AP448" t="inlineStr">
         <is>
           <t>2_447</t>
         </is>
@@ -27631,13 +27626,13 @@
       <c r="AI449">
         <v>0.003613155</v>
       </c>
-      <c r="AK449">
+      <c r="AJ449">
         <v>0.771083526535151</v>
       </c>
-      <c r="AM449">
+      <c r="AL449">
         <v>0.000364069</v>
       </c>
-      <c r="AQ449" t="inlineStr">
+      <c r="AP449" t="inlineStr">
         <is>
           <t>2_448</t>
         </is>
@@ -27703,13 +27698,13 @@
       <c r="AI450">
         <v>0.002844473</v>
       </c>
-      <c r="AK450">
+      <c r="AJ450">
         <v>0.961284100001747</v>
       </c>
-      <c r="AM450">
+      <c r="AL450">
         <v>0.000451287</v>
       </c>
-      <c r="AQ450" t="inlineStr">
+      <c r="AP450" t="inlineStr">
         <is>
           <t>2_449</t>
         </is>
@@ -27775,13 +27770,13 @@
       <c r="AI451">
         <v>0.002750788</v>
       </c>
-      <c r="AK451">
+      <c r="AJ451">
         <v>0.616530589594675</v>
       </c>
-      <c r="AM451">
+      <c r="AL451">
         <v>0.000342051</v>
       </c>
-      <c r="AQ451" t="inlineStr">
+      <c r="AP451" t="inlineStr">
         <is>
           <t>2_450</t>
         </is>
@@ -27847,13 +27842,13 @@
       <c r="AI452">
         <v>0.00317093</v>
       </c>
-      <c r="AK452">
+      <c r="AJ452">
         <v>0.50642437586338</v>
       </c>
-      <c r="AM452">
+      <c r="AL452">
         <v>0.000383463</v>
       </c>
-      <c r="AQ452" t="inlineStr">
+      <c r="AP452" t="inlineStr">
         <is>
           <t>2_451</t>
         </is>
@@ -27919,13 +27914,13 @@
       <c r="AI453">
         <v>0.003447982</v>
       </c>
-      <c r="AK453">
+      <c r="AJ453">
         <v>0.509000664238188</v>
       </c>
-      <c r="AM453">
+      <c r="AL453">
         <v>0.0004729</v>
       </c>
-      <c r="AQ453" t="inlineStr">
+      <c r="AP453" t="inlineStr">
         <is>
           <t>2_452</t>
         </is>
@@ -27991,13 +27986,13 @@
       <c r="AI454">
         <v>0.001731364</v>
       </c>
-      <c r="AK454">
+      <c r="AJ454">
         <v>0.289190698446024</v>
       </c>
-      <c r="AM454">
+      <c r="AL454">
         <v>0.000270165</v>
       </c>
-      <c r="AQ454" t="inlineStr">
+      <c r="AP454" t="inlineStr">
         <is>
           <t>2_453</t>
         </is>
@@ -28063,13 +28058,13 @@
       <c r="AI455">
         <v>0.003086399</v>
       </c>
-      <c r="AK455">
+      <c r="AJ455">
         <v>0.636164288400498</v>
       </c>
-      <c r="AM455">
+      <c r="AL455">
         <v>0.000355676</v>
       </c>
-      <c r="AQ455" t="inlineStr">
+      <c r="AP455" t="inlineStr">
         <is>
           <t>2_454</t>
         </is>
@@ -28117,7 +28112,7 @@
       <c r="P456">
         <v>0.04326302146269563</v>
       </c>
-      <c r="AQ456" t="inlineStr">
+      <c r="AP456" t="inlineStr">
         <is>
           <t>2_455</t>
         </is>
@@ -28165,7 +28160,7 @@
       <c r="P457">
         <v>0.0446559967007053</v>
       </c>
-      <c r="AQ457" t="inlineStr">
+      <c r="AP457" t="inlineStr">
         <is>
           <t>2_456</t>
         </is>
@@ -28231,13 +28226,13 @@
       <c r="AI458">
         <v>0.046113598</v>
       </c>
-      <c r="AK458">
+      <c r="AJ458">
         <v>1.33427795603044</v>
       </c>
-      <c r="AM458">
+      <c r="AL458">
         <v>0.006018435</v>
       </c>
-      <c r="AQ458" t="inlineStr">
+      <c r="AP458" t="inlineStr">
         <is>
           <t>2_457</t>
         </is>
@@ -28285,7 +28280,7 @@
       <c r="P459">
         <v>0.04222334146917343</v>
       </c>
-      <c r="AQ459" t="inlineStr">
+      <c r="AP459" t="inlineStr">
         <is>
           <t>2_458</t>
         </is>
@@ -28351,13 +28346,13 @@
       <c r="AI460">
         <v>0.145056219</v>
       </c>
-      <c r="AK460">
+      <c r="AJ460">
         <v>1.24703266203427</v>
       </c>
-      <c r="AM460">
+      <c r="AL460">
         <v>0.020748439</v>
       </c>
-      <c r="AQ460" t="inlineStr">
+      <c r="AP460" t="inlineStr">
         <is>
           <t>2_459</t>
         </is>
@@ -28405,7 +28400,7 @@
       <c r="P461">
         <v>0.04451177733547132</v>
       </c>
-      <c r="AQ461" t="inlineStr">
+      <c r="AP461" t="inlineStr">
         <is>
           <t>2_460</t>
         </is>
@@ -28471,13 +28466,13 @@
       <c r="AI462">
         <v>0.090410913</v>
       </c>
-      <c r="AK462">
+      <c r="AJ462">
         <v>0.804209501115575</v>
       </c>
-      <c r="AM462">
+      <c r="AL462">
         <v>0.011938137</v>
       </c>
-      <c r="AQ462" t="inlineStr">
+      <c r="AP462" t="inlineStr">
         <is>
           <t>2_461</t>
         </is>
@@ -28525,7 +28520,7 @@
       <c r="P463">
         <v>0.04659880545952658</v>
       </c>
-      <c r="AQ463" t="inlineStr">
+      <c r="AP463" t="inlineStr">
         <is>
           <t>2_462</t>
         </is>
@@ -28591,13 +28586,13 @@
       <c r="AI464">
         <v>0.040838076</v>
       </c>
-      <c r="AK464">
+      <c r="AJ464">
         <v>0.7045820927197221</v>
       </c>
-      <c r="AM464">
+      <c r="AL464">
         <v>0.005780923</v>
       </c>
-      <c r="AQ464" t="inlineStr">
+      <c r="AP464" t="inlineStr">
         <is>
           <t>2_463</t>
         </is>
@@ -28663,13 +28658,13 @@
       <c r="AI465">
         <v>0.023831154</v>
       </c>
-      <c r="AK465">
+      <c r="AJ465">
         <v>0.802335672969962</v>
       </c>
-      <c r="AM465">
+      <c r="AL465">
         <v>0.00310875</v>
       </c>
-      <c r="AQ465" t="inlineStr">
+      <c r="AP465" t="inlineStr">
         <is>
           <t>2_464</t>
         </is>
@@ -28735,13 +28730,13 @@
       <c r="AI466">
         <v>0.016938407</v>
       </c>
-      <c r="AK466">
+      <c r="AJ466">
         <v>0.865562898481591</v>
       </c>
-      <c r="AM466">
+      <c r="AL466">
         <v>0.002088847</v>
       </c>
-      <c r="AQ466" t="inlineStr">
+      <c r="AP466" t="inlineStr">
         <is>
           <t>2_465</t>
         </is>
@@ -28789,7 +28784,7 @@
       <c r="P467">
         <v>0.04559274294076683</v>
       </c>
-      <c r="AQ467" t="inlineStr">
+      <c r="AP467" t="inlineStr">
         <is>
           <t>2_466</t>
         </is>
@@ -28855,13 +28850,13 @@
       <c r="AI468">
         <v>0.010626556</v>
       </c>
-      <c r="AK468">
+      <c r="AJ468">
         <v>1.37294668347299</v>
       </c>
-      <c r="AM468">
+      <c r="AL468">
         <v>0.001214269</v>
       </c>
-      <c r="AQ468" t="inlineStr">
+      <c r="AP468" t="inlineStr">
         <is>
           <t>2_467</t>
         </is>
@@ -28927,13 +28922,13 @@
       <c r="AI469">
         <v>0.011751196</v>
       </c>
-      <c r="AK469">
+      <c r="AJ469">
         <v>1.09098568880696</v>
       </c>
-      <c r="AM469">
+      <c r="AL469">
         <v>0.001284769</v>
       </c>
-      <c r="AQ469" t="inlineStr">
+      <c r="AP469" t="inlineStr">
         <is>
           <t>2_468</t>
         </is>
@@ -28999,13 +28994,13 @@
       <c r="AI470">
         <v>0.00559696</v>
       </c>
-      <c r="AK470">
+      <c r="AJ470">
         <v>1.08622373815349</v>
       </c>
-      <c r="AM470">
+      <c r="AL470">
         <v>0.000655839</v>
       </c>
-      <c r="AQ470" t="inlineStr">
+      <c r="AP470" t="inlineStr">
         <is>
           <t>2_469</t>
         </is>
@@ -29071,13 +29066,13 @@
       <c r="AI471">
         <v>0.012288032</v>
       </c>
-      <c r="AK471">
+      <c r="AJ471">
         <v>1.47786726922775</v>
       </c>
-      <c r="AM471">
+      <c r="AL471">
         <v>0.001829193</v>
       </c>
-      <c r="AQ471" t="inlineStr">
+      <c r="AP471" t="inlineStr">
         <is>
           <t>2_470</t>
         </is>
@@ -29143,13 +29138,13 @@
       <c r="AI472">
         <v>0.003218781</v>
       </c>
-      <c r="AK472">
+      <c r="AJ472">
         <v>0.758880067226409</v>
       </c>
-      <c r="AM472">
+      <c r="AL472">
         <v>0.000406401</v>
       </c>
-      <c r="AQ472" t="inlineStr">
+      <c r="AP472" t="inlineStr">
         <is>
           <t>2_471</t>
         </is>
@@ -29215,13 +29210,13 @@
       <c r="AI473">
         <v>0.005535466</v>
       </c>
-      <c r="AK473">
+      <c r="AJ473">
         <v>1.04534434476366</v>
       </c>
-      <c r="AM473">
+      <c r="AL473">
         <v>0.000574205</v>
       </c>
-      <c r="AQ473" t="inlineStr">
+      <c r="AP473" t="inlineStr">
         <is>
           <t>2_472</t>
         </is>
@@ -29287,13 +29282,13 @@
       <c r="AI474">
         <v>0.007039933</v>
       </c>
-      <c r="AK474">
+      <c r="AJ474">
         <v>0.706704350830072</v>
       </c>
-      <c r="AM474">
+      <c r="AL474">
         <v>0.000756408</v>
       </c>
-      <c r="AQ474" t="inlineStr">
+      <c r="AP474" t="inlineStr">
         <is>
           <t>2_473</t>
         </is>
@@ -29359,13 +29354,13 @@
       <c r="AI475">
         <v>0.006618919</v>
       </c>
-      <c r="AK475">
+      <c r="AJ475">
         <v>0.564534075948032</v>
       </c>
-      <c r="AM475">
+      <c r="AL475">
         <v>0.00071762</v>
       </c>
-      <c r="AQ475" t="inlineStr">
+      <c r="AP475" t="inlineStr">
         <is>
           <t>2_474</t>
         </is>
@@ -29431,13 +29426,13 @@
       <c r="AI476">
         <v>0.007770763</v>
       </c>
-      <c r="AK476">
+      <c r="AJ476">
         <v>0.580812221260868</v>
       </c>
-      <c r="AM476">
+      <c r="AL476">
         <v>0.00084041</v>
       </c>
-      <c r="AQ476" t="inlineStr">
+      <c r="AP476" t="inlineStr">
         <is>
           <t>2_475</t>
         </is>
@@ -29503,13 +29498,13 @@
       <c r="AI477">
         <v>0.007596715</v>
       </c>
-      <c r="AK477">
+      <c r="AJ477">
         <v>0.541341563069308</v>
       </c>
-      <c r="AM477">
+      <c r="AL477">
         <v>0.000850258</v>
       </c>
-      <c r="AQ477" t="inlineStr">
+      <c r="AP477" t="inlineStr">
         <is>
           <t>2_476</t>
         </is>
@@ -29557,7 +29552,7 @@
       <c r="P478">
         <v>0.05755332847658661</v>
       </c>
-      <c r="AQ478" t="inlineStr">
+      <c r="AP478" t="inlineStr">
         <is>
           <t>2_477</t>
         </is>
@@ -29605,7 +29600,7 @@
       <c r="P479">
         <v>0.05080014461978757</v>
       </c>
-      <c r="AQ479" t="inlineStr">
+      <c r="AP479" t="inlineStr">
         <is>
           <t>2_478</t>
         </is>
@@ -29671,13 +29666,13 @@
       <c r="AI480">
         <v>0.204790864</v>
       </c>
-      <c r="AK480">
+      <c r="AJ480">
         <v>1.25012065369896</v>
       </c>
-      <c r="AM480">
+      <c r="AL480">
         <v>0.028799187</v>
       </c>
-      <c r="AQ480" t="inlineStr">
+      <c r="AP480" t="inlineStr">
         <is>
           <t>2_479</t>
         </is>
@@ -29725,7 +29720,7 @@
       <c r="P481">
         <v>0.04934917136711835</v>
       </c>
-      <c r="AQ481" t="inlineStr">
+      <c r="AP481" t="inlineStr">
         <is>
           <t>2_480</t>
         </is>
@@ -29791,13 +29786,13 @@
       <c r="AI482">
         <v>0.214617343</v>
       </c>
-      <c r="AK482">
+      <c r="AJ482">
         <v>1.2294602110034</v>
       </c>
-      <c r="AM482">
+      <c r="AL482">
         <v>0.031015433</v>
       </c>
-      <c r="AQ482" t="inlineStr">
+      <c r="AP482" t="inlineStr">
         <is>
           <t>2_481</t>
         </is>
@@ -29845,7 +29840,7 @@
       <c r="P483">
         <v>0.04980257998112859</v>
       </c>
-      <c r="AQ483" t="inlineStr">
+      <c r="AP483" t="inlineStr">
         <is>
           <t>2_482</t>
         </is>
@@ -29911,13 +29906,13 @@
       <c r="AI484">
         <v>0.087916286</v>
       </c>
-      <c r="AK484">
+      <c r="AJ484">
         <v>1.07607989092876</v>
       </c>
-      <c r="AM484">
+      <c r="AL484">
         <v>0.013870182</v>
       </c>
-      <c r="AQ484" t="inlineStr">
+      <c r="AP484" t="inlineStr">
         <is>
           <t>2_483</t>
         </is>
@@ -29965,7 +29960,7 @@
       <c r="P485">
         <v>0.05022954627784592</v>
       </c>
-      <c r="AQ485" t="inlineStr">
+      <c r="AP485" t="inlineStr">
         <is>
           <t>2_484</t>
         </is>
@@ -30031,13 +30026,13 @@
       <c r="AI486">
         <v>0.05768571</v>
       </c>
-      <c r="AK486">
+      <c r="AJ486">
         <v>0.712444801407046</v>
       </c>
-      <c r="AM486">
+      <c r="AL486">
         <v>0.008509828000000001</v>
       </c>
-      <c r="AQ486" t="inlineStr">
+      <c r="AP486" t="inlineStr">
         <is>
           <t>2_485</t>
         </is>
@@ -30103,13 +30098,13 @@
       <c r="AI487">
         <v>0.0297536</v>
       </c>
-      <c r="AK487">
+      <c r="AJ487">
         <v>0.783183185633781</v>
       </c>
-      <c r="AM487">
+      <c r="AL487">
         <v>0.004071065</v>
       </c>
-      <c r="AQ487" t="inlineStr">
+      <c r="AP487" t="inlineStr">
         <is>
           <t>2_486</t>
         </is>
@@ -30175,13 +30170,13 @@
       <c r="AI488">
         <v>0.028356184</v>
       </c>
-      <c r="AK488">
+      <c r="AJ488">
         <v>0.865578329179874</v>
       </c>
-      <c r="AM488">
+      <c r="AL488">
         <v>0.003654249</v>
       </c>
-      <c r="AQ488" t="inlineStr">
+      <c r="AP488" t="inlineStr">
         <is>
           <t>2_487</t>
         </is>
@@ -30247,13 +30242,13 @@
       <c r="AI489">
         <v>0.015977109</v>
       </c>
-      <c r="AK489">
+      <c r="AJ489">
         <v>1.02274308832907</v>
       </c>
-      <c r="AM489">
+      <c r="AL489">
         <v>0.001909209</v>
       </c>
-      <c r="AQ489" t="inlineStr">
+      <c r="AP489" t="inlineStr">
         <is>
           <t>2_488</t>
         </is>
@@ -30301,7 +30296,7 @@
       <c r="P490">
         <v>0.06155672561400524</v>
       </c>
-      <c r="AQ490" t="inlineStr">
+      <c r="AP490" t="inlineStr">
         <is>
           <t>2_489</t>
         </is>
@@ -30367,13 +30362,13 @@
       <c r="AI491">
         <v>0.017361122</v>
       </c>
-      <c r="AK491">
+      <c r="AJ491">
         <v>0.926992960304162</v>
       </c>
-      <c r="AM491">
+      <c r="AL491">
         <v>0.001971116</v>
       </c>
-      <c r="AQ491" t="inlineStr">
+      <c r="AP491" t="inlineStr">
         <is>
           <t>2_490</t>
         </is>
@@ -30439,13 +30434,13 @@
       <c r="AI492">
         <v>0.006677115</v>
       </c>
-      <c r="AK492">
+      <c r="AJ492">
         <v>0.724697856045225</v>
       </c>
-      <c r="AM492">
+      <c r="AL492">
         <v>0.000788774</v>
       </c>
-      <c r="AQ492" t="inlineStr">
+      <c r="AP492" t="inlineStr">
         <is>
           <t>2_491</t>
         </is>
@@ -30511,13 +30506,13 @@
       <c r="AI493">
         <v>0.007572515</v>
       </c>
-      <c r="AK493">
+      <c r="AJ493">
         <v>1.16645017341037</v>
       </c>
-      <c r="AM493">
+      <c r="AL493">
         <v>0.000794508</v>
       </c>
-      <c r="AQ493" t="inlineStr">
+      <c r="AP493" t="inlineStr">
         <is>
           <t>2_492</t>
         </is>
@@ -30583,13 +30578,13 @@
       <c r="AI494">
         <v>0.010269467</v>
       </c>
-      <c r="AK494">
+      <c r="AJ494">
         <v>0.9849325696612879</v>
       </c>
-      <c r="AM494">
+      <c r="AL494">
         <v>0.001213905</v>
       </c>
-      <c r="AQ494" t="inlineStr">
+      <c r="AP494" t="inlineStr">
         <is>
           <t>2_493</t>
         </is>
@@ -30655,13 +30650,13 @@
       <c r="AI495">
         <v>0.005618629</v>
       </c>
-      <c r="AK495">
+      <c r="AJ495">
         <v>0.8072919894252431</v>
       </c>
-      <c r="AM495">
+      <c r="AL495">
         <v>0.00051749</v>
       </c>
-      <c r="AQ495" t="inlineStr">
+      <c r="AP495" t="inlineStr">
         <is>
           <t>2_494</t>
         </is>
@@ -30727,13 +30722,13 @@
       <c r="AI496">
         <v>0.005080459</v>
       </c>
-      <c r="AK496">
+      <c r="AJ496">
         <v>0.522763607631993</v>
       </c>
-      <c r="AM496">
+      <c r="AL496">
         <v>0.000484002</v>
       </c>
-      <c r="AQ496" t="inlineStr">
+      <c r="AP496" t="inlineStr">
         <is>
           <t>2_495</t>
         </is>
@@ -30799,13 +30794,13 @@
       <c r="AI497">
         <v>0.005120913</v>
       </c>
-      <c r="AK497">
+      <c r="AJ497">
         <v>0.481601549173341</v>
       </c>
-      <c r="AM497">
+      <c r="AL497">
         <v>0.000471353</v>
       </c>
-      <c r="AQ497" t="inlineStr">
+      <c r="AP497" t="inlineStr">
         <is>
           <t>2_496</t>
         </is>
@@ -30871,13 +30866,13 @@
       <c r="AI498">
         <v>0.00572049</v>
       </c>
-      <c r="AK498">
+      <c r="AJ498">
         <v>0.5463719391809509</v>
       </c>
-      <c r="AM498">
+      <c r="AL498">
         <v>0.000524688</v>
       </c>
-      <c r="AQ498" t="inlineStr">
+      <c r="AP498" t="inlineStr">
         <is>
           <t>2_497</t>
         </is>
@@ -30943,13 +30938,13 @@
       <c r="AI499">
         <v>0.007309462</v>
       </c>
-      <c r="AK499">
+      <c r="AJ499">
         <v>0.352806136849362</v>
       </c>
-      <c r="AM499">
+      <c r="AL499">
         <v>0.000800104</v>
       </c>
-      <c r="AQ499" t="inlineStr">
+      <c r="AP499" t="inlineStr">
         <is>
           <t>2_498</t>
         </is>
@@ -30997,7 +30992,7 @@
       <c r="P500">
         <v>0.0481581271703297</v>
       </c>
-      <c r="AQ500" t="inlineStr">
+      <c r="AP500" t="inlineStr">
         <is>
           <t>2_499</t>
         </is>
@@ -31045,7 +31040,7 @@
       <c r="P501">
         <v>0.05448752535458434</v>
       </c>
-      <c r="AQ501" t="inlineStr">
+      <c r="AP501" t="inlineStr">
         <is>
           <t>2_500</t>
         </is>
@@ -31111,13 +31106,13 @@
       <c r="AI502">
         <v>0.268101003</v>
       </c>
-      <c r="AK502">
+      <c r="AJ502">
         <v>1.38230031639752</v>
       </c>
-      <c r="AM502">
+      <c r="AL502">
         <v>0.042816341</v>
       </c>
-      <c r="AQ502" t="inlineStr">
+      <c r="AP502" t="inlineStr">
         <is>
           <t>2_501</t>
         </is>
@@ -31165,7 +31160,7 @@
       <c r="P503">
         <v>0.04742441253555826</v>
       </c>
-      <c r="AQ503" t="inlineStr">
+      <c r="AP503" t="inlineStr">
         <is>
           <t>2_502</t>
         </is>
@@ -31231,13 +31226,13 @@
       <c r="AI504">
         <v>0.156176803</v>
       </c>
-      <c r="AK504">
+      <c r="AJ504">
         <v>0.9029729316948431</v>
       </c>
-      <c r="AM504">
+      <c r="AL504">
         <v>0.022750016</v>
       </c>
-      <c r="AQ504" t="inlineStr">
+      <c r="AP504" t="inlineStr">
         <is>
           <t>2_503</t>
         </is>
@@ -31285,7 +31280,7 @@
       <c r="P505">
         <v>0.05659647549675788</v>
       </c>
-      <c r="AQ505" t="inlineStr">
+      <c r="AP505" t="inlineStr">
         <is>
           <t>2_504</t>
         </is>
@@ -31333,7 +31328,7 @@
       <c r="P506">
         <v>0.05401472500931984</v>
       </c>
-      <c r="AQ506" t="inlineStr">
+      <c r="AP506" t="inlineStr">
         <is>
           <t>2_505</t>
         </is>
@@ -31399,13 +31394,13 @@
       <c r="AI507">
         <v>0.055892265</v>
       </c>
-      <c r="AK507">
+      <c r="AJ507">
         <v>0.508088691517591</v>
       </c>
-      <c r="AM507">
+      <c r="AL507">
         <v>0.007644117</v>
       </c>
-      <c r="AQ507" t="inlineStr">
+      <c r="AP507" t="inlineStr">
         <is>
           <t>2_506</t>
         </is>
@@ -31471,13 +31466,13 @@
       <c r="AI508">
         <v>0.042658785</v>
       </c>
-      <c r="AK508">
+      <c r="AJ508">
         <v>0.58918273449554</v>
       </c>
-      <c r="AM508">
+      <c r="AL508">
         <v>0.005297577</v>
       </c>
-      <c r="AQ508" t="inlineStr">
+      <c r="AP508" t="inlineStr">
         <is>
           <t>2_507</t>
         </is>
@@ -31543,13 +31538,13 @@
       <c r="AI509">
         <v>0.05339907</v>
       </c>
-      <c r="AK509">
+      <c r="AJ509">
         <v>0.721945282354879</v>
       </c>
-      <c r="AM509">
+      <c r="AL509">
         <v>0.008256223</v>
       </c>
-      <c r="AQ509" t="inlineStr">
+      <c r="AP509" t="inlineStr">
         <is>
           <t>2_508</t>
         </is>
@@ -31597,7 +31592,7 @@
       <c r="P510">
         <v>0.05545559898631658</v>
       </c>
-      <c r="AQ510" t="inlineStr">
+      <c r="AP510" t="inlineStr">
         <is>
           <t>2_509</t>
         </is>
@@ -31663,13 +31658,13 @@
       <c r="AI511">
         <v>0.036585486</v>
       </c>
-      <c r="AK511">
+      <c r="AJ511">
         <v>0.624174386854</v>
       </c>
-      <c r="AM511">
+      <c r="AL511">
         <v>0.005029022</v>
       </c>
-      <c r="AQ511" t="inlineStr">
+      <c r="AP511" t="inlineStr">
         <is>
           <t>2_510</t>
         </is>
@@ -31735,13 +31730,13 @@
       <c r="AI512">
         <v>0.033596746</v>
       </c>
-      <c r="AK512">
+      <c r="AJ512">
         <v>0.574503715681063</v>
       </c>
-      <c r="AM512">
+      <c r="AL512">
         <v>0.004036821</v>
       </c>
-      <c r="AQ512" t="inlineStr">
+      <c r="AP512" t="inlineStr">
         <is>
           <t>2_511</t>
         </is>
@@ -31807,13 +31802,13 @@
       <c r="AI513">
         <v>0.042028952</v>
       </c>
-      <c r="AK513">
+      <c r="AJ513">
         <v>0.519184784904215</v>
       </c>
-      <c r="AM513">
+      <c r="AL513">
         <v>0.004977886</v>
       </c>
-      <c r="AQ513" t="inlineStr">
+      <c r="AP513" t="inlineStr">
         <is>
           <t>2_512</t>
         </is>
@@ -31879,13 +31874,13 @@
       <c r="AI514">
         <v>0.037055892</v>
       </c>
-      <c r="AK514">
+      <c r="AJ514">
         <v>0.557234640419539</v>
       </c>
-      <c r="AM514">
+      <c r="AL514">
         <v>0.004175452</v>
       </c>
-      <c r="AQ514" t="inlineStr">
+      <c r="AP514" t="inlineStr">
         <is>
           <t>2_513</t>
         </is>
@@ -31951,13 +31946,13 @@
       <c r="AI515">
         <v>0.026515218</v>
       </c>
-      <c r="AK515">
+      <c r="AJ515">
         <v>0.527024494424662</v>
       </c>
-      <c r="AM515">
+      <c r="AL515">
         <v>0.003177053</v>
       </c>
-      <c r="AQ515" t="inlineStr">
+      <c r="AP515" t="inlineStr">
         <is>
           <t>2_514</t>
         </is>
@@ -32023,13 +32018,13 @@
       <c r="AI516">
         <v>0.019947873</v>
       </c>
-      <c r="AK516">
+      <c r="AJ516">
         <v>0.577144864757769</v>
       </c>
-      <c r="AM516">
+      <c r="AL516">
         <v>0.002583596</v>
       </c>
-      <c r="AQ516" t="inlineStr">
+      <c r="AP516" t="inlineStr">
         <is>
           <t>2_515</t>
         </is>
@@ -32095,13 +32090,13 @@
       <c r="AI517">
         <v>0.013386929</v>
       </c>
-      <c r="AK517">
+      <c r="AJ517">
         <v>0.6577296664851719</v>
       </c>
-      <c r="AM517">
+      <c r="AL517">
         <v>0.001671937</v>
       </c>
-      <c r="AQ517" t="inlineStr">
+      <c r="AP517" t="inlineStr">
         <is>
           <t>2_516</t>
         </is>
@@ -32167,13 +32162,13 @@
       <c r="AI518">
         <v>0.010085318</v>
       </c>
-      <c r="AK518">
+      <c r="AJ518">
         <v>0.668021693757432</v>
       </c>
-      <c r="AM518">
+      <c r="AL518">
         <v>0.001306361</v>
       </c>
-      <c r="AQ518" t="inlineStr">
+      <c r="AP518" t="inlineStr">
         <is>
           <t>2_517</t>
         </is>
@@ -32239,13 +32234,13 @@
       <c r="AI519">
         <v>0.010722287</v>
       </c>
-      <c r="AK519">
+      <c r="AJ519">
         <v>0.634723084632191</v>
       </c>
-      <c r="AM519">
+      <c r="AL519">
         <v>0.001424727</v>
       </c>
-      <c r="AQ519" t="inlineStr">
+      <c r="AP519" t="inlineStr">
         <is>
           <t>2_518</t>
         </is>
@@ -32311,13 +32306,13 @@
       <c r="AI520">
         <v>0.009553849</v>
       </c>
-      <c r="AK520">
+      <c r="AJ520">
         <v>0.66419803765234</v>
       </c>
-      <c r="AM520">
+      <c r="AL520">
         <v>0.001174649</v>
       </c>
-      <c r="AQ520" t="inlineStr">
+      <c r="AP520" t="inlineStr">
         <is>
           <t>2_519</t>
         </is>
@@ -32383,13 +32378,13 @@
       <c r="AI521">
         <v>0.005933502</v>
       </c>
-      <c r="AK521">
+      <c r="AJ521">
         <v>0.102865411726857</v>
       </c>
-      <c r="AM521">
+      <c r="AL521">
         <v>0.000879374</v>
       </c>
-      <c r="AQ521" t="inlineStr">
+      <c r="AP521" t="inlineStr">
         <is>
           <t>2_520</t>
         </is>
@@ -32455,13 +32450,13 @@
       <c r="AI522">
         <v>0.007698798</v>
       </c>
-      <c r="AK522">
+      <c r="AJ522">
         <v>0.660751564725336</v>
       </c>
-      <c r="AM522">
+      <c r="AL522">
         <v>0.001198077</v>
       </c>
-      <c r="AQ522" t="inlineStr">
+      <c r="AP522" t="inlineStr">
         <is>
           <t>2_521</t>
         </is>
@@ -32527,13 +32522,13 @@
       <c r="AI523">
         <v>0.007339588</v>
       </c>
-      <c r="AK523">
+      <c r="AJ523">
         <v>0.573736332778997</v>
       </c>
-      <c r="AM523">
+      <c r="AL523">
         <v>0.001171546</v>
       </c>
-      <c r="AQ523" t="inlineStr">
+      <c r="AP523" t="inlineStr">
         <is>
           <t>2_522</t>
         </is>
@@ -32599,13 +32594,13 @@
       <c r="AI524">
         <v>0.004434233</v>
       </c>
-      <c r="AK524">
+      <c r="AJ524">
         <v>0.690735074309254</v>
       </c>
-      <c r="AM524">
+      <c r="AL524">
         <v>0.000799674</v>
       </c>
-      <c r="AQ524" t="inlineStr">
+      <c r="AP524" t="inlineStr">
         <is>
           <t>2_523</t>
         </is>
@@ -32671,13 +32666,13 @@
       <c r="AI525">
         <v>0.005333657</v>
       </c>
-      <c r="AK525">
+      <c r="AJ525">
         <v>0.676549678809256</v>
       </c>
-      <c r="AM525">
+      <c r="AL525">
         <v>0.000960462</v>
       </c>
-      <c r="AQ525" t="inlineStr">
+      <c r="AP525" t="inlineStr">
         <is>
           <t>2_524</t>
         </is>
@@ -32743,13 +32738,13 @@
       <c r="AI526">
         <v>0.007057346</v>
       </c>
-      <c r="AK526">
+      <c r="AJ526">
         <v>0.643050371587148</v>
       </c>
-      <c r="AM526">
+      <c r="AL526">
         <v>0.001157724</v>
       </c>
-      <c r="AQ526" t="inlineStr">
+      <c r="AP526" t="inlineStr">
         <is>
           <t>2_525</t>
         </is>
@@ -32815,13 +32810,13 @@
       <c r="AI527">
         <v>0.007057346</v>
       </c>
-      <c r="AK527">
+      <c r="AJ527">
         <v>0.643050371587148</v>
       </c>
-      <c r="AM527">
+      <c r="AL527">
         <v>0.001157724</v>
       </c>
-      <c r="AQ527" t="inlineStr">
+      <c r="AP527" t="inlineStr">
         <is>
           <t>2_526</t>
         </is>
@@ -32887,13 +32882,13 @@
       <c r="AI528">
         <v>0.009897181</v>
       </c>
-      <c r="AK528">
+      <c r="AJ528">
         <v>0.649755328393178</v>
       </c>
-      <c r="AM528">
+      <c r="AL528">
         <v>0.001499372</v>
       </c>
-      <c r="AQ528" t="inlineStr">
+      <c r="AP528" t="inlineStr">
         <is>
           <t>2_527</t>
         </is>
@@ -32959,13 +32954,13 @@
       <c r="AI529">
         <v>0.005171357</v>
       </c>
-      <c r="AK529">
+      <c r="AJ529">
         <v>0.487166023313306</v>
       </c>
-      <c r="AM529">
+      <c r="AL529">
         <v>0.000848639</v>
       </c>
-      <c r="AQ529" t="inlineStr">
+      <c r="AP529" t="inlineStr">
         <is>
           <t>2_528</t>
         </is>
@@ -33013,7 +33008,7 @@
       <c r="P530">
         <v>0.05745154253518853</v>
       </c>
-      <c r="AQ530" t="inlineStr">
+      <c r="AP530" t="inlineStr">
         <is>
           <t>2_529</t>
         </is>
@@ -33061,7 +33056,7 @@
       <c r="P531">
         <v>0.05410932876216452</v>
       </c>
-      <c r="AQ531" t="inlineStr">
+      <c r="AP531" t="inlineStr">
         <is>
           <t>2_530</t>
         </is>
@@ -33127,13 +33122,13 @@
       <c r="AI532">
         <v>0.202970021</v>
       </c>
-      <c r="AK532">
+      <c r="AJ532">
         <v>1.5477174381972</v>
       </c>
-      <c r="AM532">
+      <c r="AL532">
         <v>0.031719494</v>
       </c>
-      <c r="AQ532" t="inlineStr">
+      <c r="AP532" t="inlineStr">
         <is>
           <t>2_531</t>
         </is>
@@ -33199,13 +33194,13 @@
       <c r="AI533">
         <v>0.18072749</v>
       </c>
-      <c r="AK533">
+      <c r="AJ533">
         <v>0.941068208694785</v>
       </c>
-      <c r="AM533">
+      <c r="AL533">
         <v>0.026513788</v>
       </c>
-      <c r="AQ533" t="inlineStr">
+      <c r="AP533" t="inlineStr">
         <is>
           <t>2_532</t>
         </is>
@@ -33253,7 +33248,7 @@
       <c r="P534">
         <v>0.05388412247635151</v>
       </c>
-      <c r="AQ534" t="inlineStr">
+      <c r="AP534" t="inlineStr">
         <is>
           <t>2_533</t>
         </is>
@@ -33301,7 +33296,7 @@
       <c r="P535">
         <v>0.06464896492521068</v>
       </c>
-      <c r="AQ535" t="inlineStr">
+      <c r="AP535" t="inlineStr">
         <is>
           <t>2_534</t>
         </is>
@@ -33367,13 +33362,13 @@
       <c r="AI536">
         <v>0.052238485</v>
       </c>
-      <c r="AK536">
+      <c r="AJ536">
         <v>0.558316846200034</v>
       </c>
-      <c r="AM536">
+      <c r="AL536">
         <v>0.007482296</v>
       </c>
-      <c r="AQ536" t="inlineStr">
+      <c r="AP536" t="inlineStr">
         <is>
           <t>2_535</t>
         </is>
@@ -33439,13 +33434,13 @@
       <c r="AI537">
         <v>0.025873298</v>
       </c>
-      <c r="AK537">
+      <c r="AJ537">
         <v>0.670585600704584</v>
       </c>
-      <c r="AM537">
+      <c r="AL537">
         <v>0.003691918</v>
       </c>
-      <c r="AQ537" t="inlineStr">
+      <c r="AP537" t="inlineStr">
         <is>
           <t>2_536</t>
         </is>
@@ -33511,13 +33506,13 @@
       <c r="AI538">
         <v>0.028269329</v>
       </c>
-      <c r="AK538">
+      <c r="AJ538">
         <v>0.617311350859265</v>
       </c>
-      <c r="AM538">
+      <c r="AL538">
         <v>0.003965944</v>
       </c>
-      <c r="AQ538" t="inlineStr">
+      <c r="AP538" t="inlineStr">
         <is>
           <t>2_537</t>
         </is>
@@ -33583,13 +33578,13 @@
       <c r="AI539">
         <v>0.022952835</v>
       </c>
-      <c r="AK539">
+      <c r="AJ539">
         <v>0.799930426567225</v>
       </c>
-      <c r="AM539">
+      <c r="AL539">
         <v>0.003338715</v>
       </c>
-      <c r="AQ539" t="inlineStr">
+      <c r="AP539" t="inlineStr">
         <is>
           <t>2_538</t>
         </is>
@@ -33637,7 +33632,7 @@
       <c r="P540">
         <v>0.05499549196406141</v>
       </c>
-      <c r="AQ540" t="inlineStr">
+      <c r="AP540" t="inlineStr">
         <is>
           <t>2_539</t>
         </is>
@@ -33703,13 +33698,13 @@
       <c r="AI541">
         <v>0.009668596999999999</v>
       </c>
-      <c r="AK541">
+      <c r="AJ541">
         <v>0.769485283514462</v>
       </c>
-      <c r="AM541">
+      <c r="AL541">
         <v>0.00216739</v>
       </c>
-      <c r="AQ541" t="inlineStr">
+      <c r="AP541" t="inlineStr">
         <is>
           <t>2_540</t>
         </is>
@@ -33757,7 +33752,7 @@
       <c r="P542">
         <v>0.0573241973692362</v>
       </c>
-      <c r="AQ542" t="inlineStr">
+      <c r="AP542" t="inlineStr">
         <is>
           <t>2_541</t>
         </is>
@@ -33823,13 +33818,13 @@
       <c r="AI543">
         <v>0.006478333</v>
       </c>
-      <c r="AK543">
+      <c r="AJ543">
         <v>0.926935714523603</v>
       </c>
-      <c r="AM543">
+      <c r="AL543">
         <v>0.001047701</v>
       </c>
-      <c r="AQ543" t="inlineStr">
+      <c r="AP543" t="inlineStr">
         <is>
           <t>2_542</t>
         </is>
@@ -33895,13 +33890,13 @@
       <c r="AI544">
         <v>0.011079931</v>
       </c>
-      <c r="AK544">
+      <c r="AJ544">
         <v>1.04991979892959</v>
       </c>
-      <c r="AM544">
+      <c r="AL544">
         <v>0.001589076</v>
       </c>
-      <c r="AQ544" t="inlineStr">
+      <c r="AP544" t="inlineStr">
         <is>
           <t>2_543</t>
         </is>
@@ -33967,13 +33962,13 @@
       <c r="AI545">
         <v>0.009738027999999999</v>
       </c>
-      <c r="AK545">
+      <c r="AJ545">
         <v>1.10890108292944</v>
       </c>
-      <c r="AM545">
+      <c r="AL545">
         <v>0.001475692</v>
       </c>
-      <c r="AQ545" t="inlineStr">
+      <c r="AP545" t="inlineStr">
         <is>
           <t>2_544</t>
         </is>
@@ -34039,13 +34034,13 @@
       <c r="AI546">
         <v>0.009344750000000001</v>
       </c>
-      <c r="AK546">
+      <c r="AJ546">
         <v>1.1812020109393</v>
       </c>
-      <c r="AM546">
+      <c r="AL546">
         <v>0.001300426</v>
       </c>
-      <c r="AQ546" t="inlineStr">
+      <c r="AP546" t="inlineStr">
         <is>
           <t>2_545</t>
         </is>
@@ -34111,13 +34106,13 @@
       <c r="AI547">
         <v>0.009769224</v>
       </c>
-      <c r="AK547">
+      <c r="AJ547">
         <v>1.36617005746843</v>
       </c>
-      <c r="AM547">
+      <c r="AL547">
         <v>0.001394739</v>
       </c>
-      <c r="AQ547" t="inlineStr">
+      <c r="AP547" t="inlineStr">
         <is>
           <t>2_546</t>
         </is>
@@ -34183,13 +34178,13 @@
       <c r="AI548">
         <v>0.00949024</v>
       </c>
-      <c r="AK548">
+      <c r="AJ548">
         <v>1.04426686089096</v>
       </c>
-      <c r="AM548">
+      <c r="AL548">
         <v>0.001423243</v>
       </c>
-      <c r="AQ548" t="inlineStr">
+      <c r="AP548" t="inlineStr">
         <is>
           <t>2_547</t>
         </is>
@@ -34255,13 +34250,13 @@
       <c r="AI549">
         <v>0.008233696</v>
       </c>
-      <c r="AK549">
+      <c r="AJ549">
         <v>0.715811597753284</v>
       </c>
-      <c r="AM549">
+      <c r="AL549">
         <v>0.001405572</v>
       </c>
-      <c r="AQ549" t="inlineStr">
+      <c r="AP549" t="inlineStr">
         <is>
           <t>2_548</t>
         </is>
@@ -34327,13 +34322,13 @@
       <c r="AI550">
         <v>0.007294306</v>
       </c>
-      <c r="AK550">
+      <c r="AJ550">
         <v>0.621500768882414</v>
       </c>
-      <c r="AM550">
+      <c r="AL550">
         <v>0.001167195</v>
       </c>
-      <c r="AQ550" t="inlineStr">
+      <c r="AP550" t="inlineStr">
         <is>
           <t>2_549</t>
         </is>
@@ -34399,13 +34394,13 @@
       <c r="AI551">
         <v>0.005191923</v>
       </c>
-      <c r="AK551">
+      <c r="AJ551">
         <v>0.646200295728777</v>
       </c>
-      <c r="AM551">
+      <c r="AL551">
         <v>0.000707127</v>
       </c>
-      <c r="AQ551" t="inlineStr">
+      <c r="AP551" t="inlineStr">
         <is>
           <t>2_550</t>
         </is>
@@ -34453,7 +34448,7 @@
       <c r="P552">
         <v>0.05020884895864468</v>
       </c>
-      <c r="AQ552" t="inlineStr">
+      <c r="AP552" t="inlineStr">
         <is>
           <t>2_551</t>
         </is>
@@ -34501,7 +34496,7 @@
       <c r="P553">
         <v>0.0514718833773523</v>
       </c>
-      <c r="AQ553" t="inlineStr">
+      <c r="AP553" t="inlineStr">
         <is>
           <t>2_552</t>
         </is>
@@ -34567,13 +34562,13 @@
       <c r="AI554">
         <v>0.169590737</v>
       </c>
-      <c r="AK554">
+      <c r="AJ554">
         <v>1.56781182150828</v>
       </c>
-      <c r="AM554">
+      <c r="AL554">
         <v>0.028714095</v>
       </c>
-      <c r="AQ554" t="inlineStr">
+      <c r="AP554" t="inlineStr">
         <is>
           <t>2_553</t>
         </is>
@@ -34621,7 +34616,7 @@
       <c r="P555">
         <v>0.05424232659915562</v>
       </c>
-      <c r="AQ555" t="inlineStr">
+      <c r="AP555" t="inlineStr">
         <is>
           <t>2_554</t>
         </is>
@@ -34687,13 +34682,13 @@
       <c r="AI556">
         <v>0.192506087</v>
       </c>
-      <c r="AK556">
+      <c r="AJ556">
         <v>1.16117672125269</v>
       </c>
-      <c r="AM556">
+      <c r="AL556">
         <v>0.03223859</v>
       </c>
-      <c r="AQ556" t="inlineStr">
+      <c r="AP556" t="inlineStr">
         <is>
           <t>2_555</t>
         </is>
@@ -34741,7 +34736,7 @@
       <c r="P557">
         <v>0.05343036812352474</v>
       </c>
-      <c r="AQ557" t="inlineStr">
+      <c r="AP557" t="inlineStr">
         <is>
           <t>2_556</t>
         </is>
@@ -34807,13 +34802,13 @@
       <c r="AI558">
         <v>0.093662091</v>
       </c>
-      <c r="AK558">
+      <c r="AJ558">
         <v>0.639699732175428</v>
       </c>
-      <c r="AM558">
+      <c r="AL558">
         <v>0.015284735</v>
       </c>
-      <c r="AQ558" t="inlineStr">
+      <c r="AP558" t="inlineStr">
         <is>
           <t>2_557</t>
         </is>
@@ -34861,7 +34856,7 @@
       <c r="P559">
         <v>0.06014732522170281</v>
       </c>
-      <c r="AQ559" t="inlineStr">
+      <c r="AP559" t="inlineStr">
         <is>
           <t>2_558</t>
         </is>
@@ -34927,13 +34922,13 @@
       <c r="AI560">
         <v>0.041983645</v>
       </c>
-      <c r="AK560">
+      <c r="AJ560">
         <v>0.540717657977997</v>
       </c>
-      <c r="AM560">
+      <c r="AL560">
         <v>0.007801221</v>
       </c>
-      <c r="AQ560" t="inlineStr">
+      <c r="AP560" t="inlineStr">
         <is>
           <t>2_559</t>
         </is>
@@ -34999,13 +34994,13 @@
       <c r="AI561">
         <v>0.042679016</v>
       </c>
-      <c r="AK561">
+      <c r="AJ561">
         <v>0.693519575532091</v>
       </c>
-      <c r="AM561">
+      <c r="AL561">
         <v>0.006700884</v>
       </c>
-      <c r="AQ561" t="inlineStr">
+      <c r="AP561" t="inlineStr">
         <is>
           <t>2_560</t>
         </is>
@@ -35071,13 +35066,13 @@
       <c r="AI562">
         <v>0.040638564</v>
       </c>
-      <c r="AK562">
+      <c r="AJ562">
         <v>0.837303015785073</v>
       </c>
-      <c r="AM562">
+      <c r="AL562">
         <v>0.006866966</v>
       </c>
-      <c r="AQ562" t="inlineStr">
+      <c r="AP562" t="inlineStr">
         <is>
           <t>2_561</t>
         </is>
@@ -35143,13 +35138,13 @@
       <c r="AI563">
         <v>0.018762218</v>
       </c>
-      <c r="AK563">
+      <c r="AJ563">
         <v>0.884346835567113</v>
       </c>
-      <c r="AM563">
+      <c r="AL563">
         <v>0.002975933</v>
       </c>
-      <c r="AQ563" t="inlineStr">
+      <c r="AP563" t="inlineStr">
         <is>
           <t>2_562</t>
         </is>
@@ -35197,7 +35192,7 @@
       <c r="P564">
         <v>0.05625887418980489</v>
       </c>
-      <c r="AQ564" t="inlineStr">
+      <c r="AP564" t="inlineStr">
         <is>
           <t>2_563</t>
         </is>
@@ -35263,13 +35258,13 @@
       <c r="AI565">
         <v>0.008585621</v>
       </c>
-      <c r="AK565">
+      <c r="AJ565">
         <v>1.75270078623512</v>
       </c>
-      <c r="AM565">
+      <c r="AL565">
         <v>0.001420181</v>
       </c>
-      <c r="AQ565" t="inlineStr">
+      <c r="AP565" t="inlineStr">
         <is>
           <t>2_564</t>
         </is>
@@ -35335,13 +35330,13 @@
       <c r="AI566">
         <v>0.008954467000000001</v>
       </c>
-      <c r="AK566">
+      <c r="AJ566">
         <v>1.03093977172697</v>
       </c>
-      <c r="AM566">
+      <c r="AL566">
         <v>0.001491745</v>
       </c>
-      <c r="AQ566" t="inlineStr">
+      <c r="AP566" t="inlineStr">
         <is>
           <t>2_565</t>
         </is>
@@ -35407,13 +35402,13 @@
       <c r="AI567">
         <v>0.009064324</v>
       </c>
-      <c r="AK567">
+      <c r="AJ567">
         <v>1.66034208892554</v>
       </c>
-      <c r="AM567">
+      <c r="AL567">
         <v>0.001464556</v>
       </c>
-      <c r="AQ567" t="inlineStr">
+      <c r="AP567" t="inlineStr">
         <is>
           <t>2_566</t>
         </is>
@@ -35479,13 +35474,13 @@
       <c r="AI568">
         <v>0.006675276</v>
       </c>
-      <c r="AK568">
+      <c r="AJ568">
         <v>1.29521239708893</v>
       </c>
-      <c r="AM568">
+      <c r="AL568">
         <v>0.001141332</v>
       </c>
-      <c r="AQ568" t="inlineStr">
+      <c r="AP568" t="inlineStr">
         <is>
           <t>2_567</t>
         </is>
@@ -35551,13 +35546,13 @@
       <c r="AI569">
         <v>0.005367143</v>
       </c>
-      <c r="AK569">
+      <c r="AJ569">
         <v>1.45267921636869</v>
       </c>
-      <c r="AM569">
+      <c r="AL569">
         <v>0.000907703</v>
       </c>
-      <c r="AQ569" t="inlineStr">
+      <c r="AP569" t="inlineStr">
         <is>
           <t>2_568</t>
         </is>
@@ -35623,13 +35618,13 @@
       <c r="AI570">
         <v>0.006602605</v>
       </c>
-      <c r="AK570">
+      <c r="AJ570">
         <v>1.09278309055744</v>
       </c>
-      <c r="AM570">
+      <c r="AL570">
         <v>0.001099485</v>
       </c>
-      <c r="AQ570" t="inlineStr">
+      <c r="AP570" t="inlineStr">
         <is>
           <t>2_569</t>
         </is>
@@ -35695,13 +35690,13 @@
       <c r="AI571">
         <v>0.003795586</v>
       </c>
-      <c r="AK571">
+      <c r="AJ571">
         <v>0.7299628066402351</v>
       </c>
-      <c r="AM571">
+      <c r="AL571">
         <v>0.000892174</v>
       </c>
-      <c r="AQ571" t="inlineStr">
+      <c r="AP571" t="inlineStr">
         <is>
           <t>2_570</t>
         </is>
@@ -35767,13 +35762,13 @@
       <c r="AI572">
         <v>0.004387729</v>
       </c>
-      <c r="AK572">
+      <c r="AJ572">
         <v>0.40613935511878</v>
       </c>
-      <c r="AM572">
+      <c r="AL572">
         <v>0.000700752</v>
       </c>
-      <c r="AQ572" t="inlineStr">
+      <c r="AP572" t="inlineStr">
         <is>
           <t>2_571</t>
         </is>
@@ -35839,13 +35834,13 @@
       <c r="AI573">
         <v>0.002887272</v>
       </c>
-      <c r="AK573">
+      <c r="AJ573">
         <v>0.493072231189161</v>
       </c>
-      <c r="AM573">
+      <c r="AL573">
         <v>0.000509178</v>
       </c>
-      <c r="AQ573" t="inlineStr">
+      <c r="AP573" t="inlineStr">
         <is>
           <t>2_572</t>
         </is>
@@ -35893,7 +35888,7 @@
       <c r="P574">
         <v>0.0444322000123116</v>
       </c>
-      <c r="AQ574" t="inlineStr">
+      <c r="AP574" t="inlineStr">
         <is>
           <t>2_573</t>
         </is>
@@ -35941,7 +35936,7 @@
       <c r="P575">
         <v>0.04495600747783653</v>
       </c>
-      <c r="AQ575" t="inlineStr">
+      <c r="AP575" t="inlineStr">
         <is>
           <t>2_574</t>
         </is>
@@ -35989,7 +35984,7 @@
       <c r="P576">
         <v>0.04159092592043361</v>
       </c>
-      <c r="AQ576" t="inlineStr">
+      <c r="AP576" t="inlineStr">
         <is>
           <t>2_575</t>
         </is>
@@ -36037,7 +36032,7 @@
       <c r="P577">
         <v>0.04903538612610817</v>
       </c>
-      <c r="AQ577" t="inlineStr">
+      <c r="AP577" t="inlineStr">
         <is>
           <t>2_576</t>
         </is>
@@ -36085,7 +36080,7 @@
       <c r="P578">
         <v>0.04867832311549907</v>
       </c>
-      <c r="AQ578" t="inlineStr">
+      <c r="AP578" t="inlineStr">
         <is>
           <t>2_577</t>
         </is>
@@ -36133,7 +36128,7 @@
       <c r="P579">
         <v>0.04736987197820304</v>
       </c>
-      <c r="AQ579" t="inlineStr">
+      <c r="AP579" t="inlineStr">
         <is>
           <t>2_578</t>
         </is>
@@ -36181,7 +36176,7 @@
       <c r="P580">
         <v>0.05164283222448477</v>
       </c>
-      <c r="AQ580" t="inlineStr">
+      <c r="AP580" t="inlineStr">
         <is>
           <t>2_579</t>
         </is>
@@ -36229,7 +36224,7 @@
       <c r="P581">
         <v>0.05514728162197143</v>
       </c>
-      <c r="AQ581" t="inlineStr">
+      <c r="AP581" t="inlineStr">
         <is>
           <t>2_580</t>
         </is>
@@ -36277,7 +36272,7 @@
       <c r="P582">
         <v>0.04799465636309759</v>
       </c>
-      <c r="AQ582" t="inlineStr">
+      <c r="AP582" t="inlineStr">
         <is>
           <t>2_581</t>
         </is>
@@ -36325,7 +36320,7 @@
       <c r="P583">
         <v>0.05058596824038427</v>
       </c>
-      <c r="AQ583" t="inlineStr">
+      <c r="AP583" t="inlineStr">
         <is>
           <t>2_582</t>
         </is>
@@ -36373,7 +36368,7 @@
       <c r="P584">
         <v>0.05462139982496088</v>
       </c>
-      <c r="AQ584" t="inlineStr">
+      <c r="AP584" t="inlineStr">
         <is>
           <t>2_583</t>
         </is>
@@ -36421,7 +36416,7 @@
       <c r="P585">
         <v>0.06116178051171393</v>
       </c>
-      <c r="AQ585" t="inlineStr">
+      <c r="AP585" t="inlineStr">
         <is>
           <t>2_584</t>
         </is>
@@ -36469,7 +36464,7 @@
       <c r="P586">
         <v>0.05011956109608001</v>
       </c>
-      <c r="AQ586" t="inlineStr">
+      <c r="AP586" t="inlineStr">
         <is>
           <t>2_585</t>
         </is>
@@ -36517,7 +36512,7 @@
       <c r="P587">
         <v>0.05564175650715996</v>
       </c>
-      <c r="AQ587" t="inlineStr">
+      <c r="AP587" t="inlineStr">
         <is>
           <t>2_586</t>
         </is>
@@ -36565,7 +36560,7 @@
       <c r="P588">
         <v>0.04555633119387291</v>
       </c>
-      <c r="AQ588" t="inlineStr">
+      <c r="AP588" t="inlineStr">
         <is>
           <t>2_587</t>
         </is>
@@ -36613,7 +36608,7 @@
       <c r="P589">
         <v>0.0486141805672901</v>
       </c>
-      <c r="AQ589" t="inlineStr">
+      <c r="AP589" t="inlineStr">
         <is>
           <t>2_588</t>
         </is>
@@ -36679,13 +36674,13 @@
       <c r="AI590">
         <v>0.081156934</v>
       </c>
-      <c r="AK590">
+      <c r="AJ590">
         <v>1.41533121942562</v>
       </c>
-      <c r="AM590">
+      <c r="AL590">
         <v>0.014186417</v>
       </c>
-      <c r="AQ590" t="inlineStr">
+      <c r="AP590" t="inlineStr">
         <is>
           <t>2_589</t>
         </is>
@@ -36733,7 +36728,7 @@
       <c r="P591">
         <v>0.04957419587968</v>
       </c>
-      <c r="AQ591" t="inlineStr">
+      <c r="AP591" t="inlineStr">
         <is>
           <t>2_590</t>
         </is>
@@ -36799,13 +36794,13 @@
       <c r="AI592">
         <v>0.076847861</v>
       </c>
-      <c r="AK592">
+      <c r="AJ592">
         <v>0.824614229621264</v>
       </c>
-      <c r="AM592">
+      <c r="AL592">
         <v>0.012784309</v>
       </c>
-      <c r="AQ592" t="inlineStr">
+      <c r="AP592" t="inlineStr">
         <is>
           <t>2_591</t>
         </is>
@@ -36871,13 +36866,13 @@
       <c r="AI593">
         <v>0.067055819</v>
       </c>
-      <c r="AK593">
+      <c r="AJ593">
         <v>0.6690562374775449</v>
       </c>
-      <c r="AM593">
+      <c r="AL593">
         <v>0.012283071</v>
       </c>
-      <c r="AQ593" t="inlineStr">
+      <c r="AP593" t="inlineStr">
         <is>
           <t>2_592</t>
         </is>
@@ -36925,7 +36920,7 @@
       <c r="P594">
         <v>0.05665322541195222</v>
       </c>
-      <c r="AQ594" t="inlineStr">
+      <c r="AP594" t="inlineStr">
         <is>
           <t>2_593</t>
         </is>
@@ -36991,13 +36986,13 @@
       <c r="AI595">
         <v>0.037042737</v>
       </c>
-      <c r="AK595">
+      <c r="AJ595">
         <v>0.602013252085823</v>
       </c>
-      <c r="AM595">
+      <c r="AL595">
         <v>0.00622781</v>
       </c>
-      <c r="AQ595" t="inlineStr">
+      <c r="AP595" t="inlineStr">
         <is>
           <t>2_594</t>
         </is>
@@ -37045,7 +37040,7 @@
       <c r="P596">
         <v>0.04584487359402292</v>
       </c>
-      <c r="AQ596" t="inlineStr">
+      <c r="AP596" t="inlineStr">
         <is>
           <t>2_595</t>
         </is>
@@ -37111,13 +37106,13 @@
       <c r="AI597">
         <v>0.025124616</v>
       </c>
-      <c r="AK597">
+      <c r="AJ597">
         <v>0.49062347061847</v>
       </c>
-      <c r="AM597">
+      <c r="AL597">
         <v>0.00466719</v>
       </c>
-      <c r="AQ597" t="inlineStr">
+      <c r="AP597" t="inlineStr">
         <is>
           <t>2_596</t>
         </is>
@@ -37183,13 +37178,13 @@
       <c r="AI598">
         <v>0.015260861</v>
       </c>
-      <c r="AK598">
+      <c r="AJ598">
         <v>0.508905691127627</v>
       </c>
-      <c r="AM598">
+      <c r="AL598">
         <v>0.003122258</v>
       </c>
-      <c r="AQ598" t="inlineStr">
+      <c r="AP598" t="inlineStr">
         <is>
           <t>2_597</t>
         </is>
@@ -37237,7 +37232,7 @@
       <c r="P599">
         <v>0.05766789503354316</v>
       </c>
-      <c r="AQ599" t="inlineStr">
+      <c r="AP599" t="inlineStr">
         <is>
           <t>2_598</t>
         </is>
@@ -37303,13 +37298,13 @@
       <c r="AI600">
         <v>0.010110606</v>
       </c>
-      <c r="AK600">
+      <c r="AJ600">
         <v>0.686925135795068</v>
       </c>
-      <c r="AM600">
+      <c r="AL600">
         <v>0.002138848</v>
       </c>
-      <c r="AQ600" t="inlineStr">
+      <c r="AP600" t="inlineStr">
         <is>
           <t>2_599</t>
         </is>
@@ -37375,13 +37370,13 @@
       <c r="AI601">
         <v>0.005088366</v>
       </c>
-      <c r="AK601">
+      <c r="AJ601">
         <v>0.671599333718035</v>
       </c>
-      <c r="AM601">
+      <c r="AL601">
         <v>0.001288155</v>
       </c>
-      <c r="AQ601" t="inlineStr">
+      <c r="AP601" t="inlineStr">
         <is>
           <t>2_600</t>
         </is>
@@ -37447,13 +37442,13 @@
       <c r="AI602">
         <v>0.005088366</v>
       </c>
-      <c r="AK602">
+      <c r="AJ602">
         <v>0.671599333718035</v>
       </c>
-      <c r="AM602">
+      <c r="AL602">
         <v>0.001288155</v>
       </c>
-      <c r="AQ602" t="inlineStr">
+      <c r="AP602" t="inlineStr">
         <is>
           <t>2_601</t>
         </is>
@@ -37519,13 +37514,13 @@
       <c r="AI603">
         <v>0.002069436</v>
       </c>
-      <c r="AK603">
+      <c r="AJ603">
         <v>0.5207261785523301</v>
       </c>
-      <c r="AM603">
+      <c r="AL603">
         <v>0.000681986</v>
       </c>
-      <c r="AQ603" t="inlineStr">
+      <c r="AP603" t="inlineStr">
         <is>
           <t>2_602</t>
         </is>
@@ -37591,13 +37586,13 @@
       <c r="AI604">
         <v>0.002192888</v>
       </c>
-      <c r="AK604">
+      <c r="AJ604">
         <v>0.627248483449382</v>
       </c>
-      <c r="AM604">
+      <c r="AL604">
         <v>0.000823819</v>
       </c>
-      <c r="AQ604" t="inlineStr">
+      <c r="AP604" t="inlineStr">
         <is>
           <t>2_603</t>
         </is>
@@ -37663,13 +37658,13 @@
       <c r="AI605">
         <v>0.002408217</v>
       </c>
-      <c r="AK605">
+      <c r="AJ605">
         <v>0.705423219430887</v>
       </c>
-      <c r="AM605">
+      <c r="AL605">
         <v>0.000546209</v>
       </c>
-      <c r="AQ605" t="inlineStr">
+      <c r="AP605" t="inlineStr">
         <is>
           <t>2_604</t>
         </is>
@@ -37735,13 +37730,13 @@
       <c r="AI606">
         <v>0.001520357</v>
       </c>
-      <c r="AK606">
+      <c r="AJ606">
         <v>0.483218608170041</v>
       </c>
-      <c r="AM606">
+      <c r="AL606">
         <v>0.000732635</v>
       </c>
-      <c r="AQ606" t="inlineStr">
+      <c r="AP606" t="inlineStr">
         <is>
           <t>2_605</t>
         </is>
@@ -37807,13 +37802,13 @@
       <c r="AI607">
         <v>-0.000407628</v>
       </c>
-      <c r="AK607">
+      <c r="AJ607">
         <v>-0.0938535145193022</v>
       </c>
-      <c r="AM607">
+      <c r="AL607">
         <v>0.000503649</v>
       </c>
-      <c r="AQ607" t="inlineStr">
+      <c r="AP607" t="inlineStr">
         <is>
           <t>2_606</t>
         </is>
@@ -37879,13 +37874,13 @@
       <c r="AI608">
         <v>0.00199156</v>
       </c>
-      <c r="AK608">
+      <c r="AJ608">
         <v>0.501373166879002</v>
       </c>
-      <c r="AM608">
+      <c r="AL608">
         <v>0.000675432</v>
       </c>
-      <c r="AQ608" t="inlineStr">
+      <c r="AP608" t="inlineStr">
         <is>
           <t>2_607</t>
         </is>
@@ -37951,13 +37946,13 @@
       <c r="AI609">
         <v>0.001698725</v>
       </c>
-      <c r="AK609">
+      <c r="AJ609">
         <v>0.494604968401747</v>
       </c>
-      <c r="AM609">
+      <c r="AL609">
         <v>0.0006749599999999999</v>
       </c>
-      <c r="AQ609" t="inlineStr">
+      <c r="AP609" t="inlineStr">
         <is>
           <t>2_608</t>
         </is>
@@ -38023,13 +38018,13 @@
       <c r="AI610">
         <v>-0.003341748</v>
       </c>
-      <c r="AK610">
+      <c r="AJ610">
         <v>7.33723309296085</v>
       </c>
-      <c r="AM610">
+      <c r="AL610">
         <v>-0.000124719</v>
       </c>
-      <c r="AQ610" t="inlineStr">
+      <c r="AP610" t="inlineStr">
         <is>
           <t>2_609</t>
         </is>
@@ -38095,13 +38090,13 @@
       <c r="AI611">
         <v>-0.000226346</v>
       </c>
-      <c r="AK611">
+      <c r="AJ611">
         <v>-0.13144480628353</v>
       </c>
-      <c r="AM611">
+      <c r="AL611">
         <v>0.000385923</v>
       </c>
-      <c r="AQ611" t="inlineStr">
+      <c r="AP611" t="inlineStr">
         <is>
           <t>2_610</t>
         </is>
@@ -38167,13 +38162,13 @@
       <c r="AI612">
         <v>-0.000271499</v>
       </c>
-      <c r="AK612">
+      <c r="AJ612">
         <v>-1.69565220561551</v>
       </c>
-      <c r="AM612">
+      <c r="AL612">
         <v>0.000381453</v>
       </c>
-      <c r="AQ612" t="inlineStr">
+      <c r="AP612" t="inlineStr">
         <is>
           <t>2_611</t>
         </is>
@@ -38239,13 +38234,13 @@
       <c r="AI613">
         <v>-0.001359998</v>
       </c>
-      <c r="AK613">
+      <c r="AJ613">
         <v>-15.2580468716444</v>
       </c>
-      <c r="AM613">
+      <c r="AL613">
         <v>0.000452168</v>
       </c>
-      <c r="AQ613" t="inlineStr">
+      <c r="AP613" t="inlineStr">
         <is>
           <t>2_612</t>
         </is>
@@ -38311,13 +38306,13 @@
       <c r="AI614">
         <v>0.000568814</v>
       </c>
-      <c r="AK614">
+      <c r="AJ614">
         <v>0.159673629640721</v>
       </c>
-      <c r="AM614">
+      <c r="AL614">
         <v>0.000321239</v>
       </c>
-      <c r="AQ614" t="inlineStr">
+      <c r="AP614" t="inlineStr">
         <is>
           <t>2_613</t>
         </is>
@@ -38383,13 +38378,13 @@
       <c r="AI615">
         <v>0.005208245</v>
       </c>
-      <c r="AK615">
+      <c r="AJ615">
         <v>0.546574249793826</v>
       </c>
-      <c r="AM615">
+      <c r="AL615">
         <v>0.000991954</v>
       </c>
-      <c r="AQ615" t="inlineStr">
+      <c r="AP615" t="inlineStr">
         <is>
           <t>2_614</t>
         </is>
@@ -38455,13 +38450,13 @@
       <c r="AI616">
         <v>-0.000242592</v>
       </c>
-      <c r="AK616">
+      <c r="AJ616">
         <v>-0.0663149555072436</v>
       </c>
-      <c r="AM616">
+      <c r="AL616">
         <v>0.000281852</v>
       </c>
-      <c r="AQ616" t="inlineStr">
+      <c r="AP616" t="inlineStr">
         <is>
           <t>2_615</t>
         </is>
@@ -38527,13 +38522,13 @@
       <c r="AI617">
         <v>0.002172681</v>
       </c>
-      <c r="AK617">
+      <c r="AJ617">
         <v>0.324004748469905</v>
       </c>
-      <c r="AM617">
+      <c r="AL617">
         <v>0.000482824</v>
       </c>
-      <c r="AQ617" t="inlineStr">
+      <c r="AP617" t="inlineStr">
         <is>
           <t>2_616</t>
         </is>
@@ -38581,7 +38576,7 @@
       <c r="P618">
         <v>0.050372972602368</v>
       </c>
-      <c r="AQ618" t="inlineStr">
+      <c r="AP618" t="inlineStr">
         <is>
           <t>2_617</t>
         </is>
@@ -38629,7 +38624,7 @@
       <c r="P619">
         <v>0.04942189076753915</v>
       </c>
-      <c r="AQ619" t="inlineStr">
+      <c r="AP619" t="inlineStr">
         <is>
           <t>2_618</t>
         </is>
@@ -38677,7 +38672,7 @@
       <c r="P620">
         <v>0.06240969821256741</v>
       </c>
-      <c r="AQ620" t="inlineStr">
+      <c r="AP620" t="inlineStr">
         <is>
           <t>2_619</t>
         </is>
@@ -38725,7 +38720,7 @@
       <c r="P621">
         <v>0.05762953667771636</v>
       </c>
-      <c r="AQ621" t="inlineStr">
+      <c r="AP621" t="inlineStr">
         <is>
           <t>2_620</t>
         </is>
@@ -38773,7 +38768,7 @@
       <c r="P622">
         <v>0.0521087282413714</v>
       </c>
-      <c r="AQ622" t="inlineStr">
+      <c r="AP622" t="inlineStr">
         <is>
           <t>2_621</t>
         </is>
@@ -38821,7 +38816,7 @@
       <c r="P623">
         <v>0.05331007348966961</v>
       </c>
-      <c r="AQ623" t="inlineStr">
+      <c r="AP623" t="inlineStr">
         <is>
           <t>2_622</t>
         </is>
@@ -38869,7 +38864,7 @@
       <c r="P624">
         <v>0.05442572232686135</v>
       </c>
-      <c r="AQ624" t="inlineStr">
+      <c r="AP624" t="inlineStr">
         <is>
           <t>2_623</t>
         </is>
@@ -38917,7 +38912,7 @@
       <c r="P625">
         <v>0.05827986338136982</v>
       </c>
-      <c r="AQ625" t="inlineStr">
+      <c r="AP625" t="inlineStr">
         <is>
           <t>2_624</t>
         </is>
@@ -38965,7 +38960,7 @@
       <c r="P626">
         <v>0.05713685778232631</v>
       </c>
-      <c r="AQ626" t="inlineStr">
+      <c r="AP626" t="inlineStr">
         <is>
           <t>2_625</t>
         </is>
@@ -39013,7 +39008,7 @@
       <c r="P627">
         <v>0.06275122485657875</v>
       </c>
-      <c r="AQ627" t="inlineStr">
+      <c r="AP627" t="inlineStr">
         <is>
           <t>2_626</t>
         </is>
@@ -39061,7 +39056,7 @@
       <c r="P628">
         <v>0.0525800586313452</v>
       </c>
-      <c r="AQ628" t="inlineStr">
+      <c r="AP628" t="inlineStr">
         <is>
           <t>2_627</t>
         </is>
@@ -39109,7 +39104,7 @@
       <c r="P629">
         <v>0.06275785459861966</v>
       </c>
-      <c r="AQ629" t="inlineStr">
+      <c r="AP629" t="inlineStr">
         <is>
           <t>2_628</t>
         </is>
@@ -39157,7 +39152,7 @@
       <c r="P630">
         <v>0.06075381827914863</v>
       </c>
-      <c r="AQ630" t="inlineStr">
+      <c r="AP630" t="inlineStr">
         <is>
           <t>2_629</t>
         </is>
@@ -39205,7 +39200,7 @@
       <c r="P631">
         <v>0.05711307102518338</v>
       </c>
-      <c r="AQ631" t="inlineStr">
+      <c r="AP631" t="inlineStr">
         <is>
           <t>2_630</t>
         </is>
@@ -39253,7 +39248,7 @@
       <c r="P632">
         <v>0.05174498591248258</v>
       </c>
-      <c r="AQ632" t="inlineStr">
+      <c r="AP632" t="inlineStr">
         <is>
           <t>2_631</t>
         </is>
@@ -39319,13 +39314,13 @@
       <c r="AI633">
         <v>0.036524746</v>
       </c>
-      <c r="AK633">
+      <c r="AJ633">
         <v>3.36850234600764</v>
       </c>
-      <c r="AM633">
+      <c r="AL633">
         <v>0.006808397</v>
       </c>
-      <c r="AQ633" t="inlineStr">
+      <c r="AP633" t="inlineStr">
         <is>
           <t>2_632</t>
         </is>
@@ -39391,13 +39386,13 @@
       <c r="AI634">
         <v>0.044161247</v>
       </c>
-      <c r="AK634">
+      <c r="AJ634">
         <v>1.85599522250867</v>
       </c>
-      <c r="AM634">
+      <c r="AL634">
         <v>0.006050492</v>
       </c>
-      <c r="AQ634" t="inlineStr">
+      <c r="AP634" t="inlineStr">
         <is>
           <t>2_633</t>
         </is>
@@ -39445,7 +39440,7 @@
       <c r="P635">
         <v>0.05686695033680482</v>
       </c>
-      <c r="AQ635" t="inlineStr">
+      <c r="AP635" t="inlineStr">
         <is>
           <t>2_634</t>
         </is>
@@ -39508,7 +39503,7 @@
       <c r="AH636">
         <v>0.000176722863885701</v>
       </c>
-      <c r="AQ636" t="inlineStr">
+      <c r="AP636" t="inlineStr">
         <is>
           <t>2_635</t>
         </is>
@@ -39556,7 +39551,7 @@
       <c r="P637">
         <v>0.05250616471355834</v>
       </c>
-      <c r="AQ637" t="inlineStr">
+      <c r="AP637" t="inlineStr">
         <is>
           <t>2_636</t>
         </is>
@@ -39604,7 +39599,7 @@
       <c r="P638">
         <v>0.05547582955606493</v>
       </c>
-      <c r="AQ638" t="inlineStr">
+      <c r="AP638" t="inlineStr">
         <is>
           <t>2_637</t>
         </is>
@@ -39670,13 +39665,13 @@
       <c r="AI639">
         <v>0.025987251</v>
       </c>
-      <c r="AK639">
+      <c r="AJ639">
         <v>0.857053524387417</v>
       </c>
-      <c r="AM639">
+      <c r="AL639">
         <v>0.004492506</v>
       </c>
-      <c r="AQ639" t="inlineStr">
+      <c r="AP639" t="inlineStr">
         <is>
           <t>2_638</t>
         </is>
@@ -39739,7 +39734,7 @@
       <c r="AH640">
         <v>0.000358453900126406</v>
       </c>
-      <c r="AQ640" t="inlineStr">
+      <c r="AP640" t="inlineStr">
         <is>
           <t>2_639</t>
         </is>
@@ -39787,7 +39782,7 @@
       <c r="P641">
         <v>0.05599684009214097</v>
       </c>
-      <c r="AQ641" t="inlineStr">
+      <c r="AP641" t="inlineStr">
         <is>
           <t>2_640</t>
         </is>
@@ -39853,13 +39848,13 @@
       <c r="AI642">
         <v>0.007181743</v>
       </c>
-      <c r="AK642">
+      <c r="AJ642">
         <v>0.837526941805787</v>
       </c>
-      <c r="AM642">
+      <c r="AL642">
         <v>0.001439308</v>
       </c>
-      <c r="AQ642" t="inlineStr">
+      <c r="AP642" t="inlineStr">
         <is>
           <t>2_641</t>
         </is>
@@ -39922,7 +39917,7 @@
       <c r="AH643">
         <v>0.000246070278133871</v>
       </c>
-      <c r="AQ643" t="inlineStr">
+      <c r="AP643" t="inlineStr">
         <is>
           <t>2_642</t>
         </is>
@@ -39988,13 +39983,13 @@
       <c r="AI644">
         <v>0.004062371</v>
       </c>
-      <c r="AK644">
+      <c r="AJ644">
         <v>0.711260337603566</v>
       </c>
-      <c r="AM644">
+      <c r="AL644">
         <v>0.00077152</v>
       </c>
-      <c r="AQ644" t="inlineStr">
+      <c r="AP644" t="inlineStr">
         <is>
           <t>2_643</t>
         </is>
@@ -40060,13 +40055,13 @@
       <c r="AI645">
         <v>0.000181941</v>
       </c>
-      <c r="AK645">
+      <c r="AJ645">
         <v>0.08404131633469381</v>
       </c>
-      <c r="AM645">
+      <c r="AL645">
         <v>3.16e-05</v>
       </c>
-      <c r="AQ645" t="inlineStr">
+      <c r="AP645" t="inlineStr">
         <is>
           <t>2_644</t>
         </is>
@@ -40132,13 +40127,13 @@
       <c r="AI646">
         <v>0.001996278</v>
       </c>
-      <c r="AK646">
+      <c r="AJ646">
         <v>0.911299582198721</v>
       </c>
-      <c r="AM646">
+      <c r="AL646">
         <v>0.000155819</v>
       </c>
-      <c r="AQ646" t="inlineStr">
+      <c r="AP646" t="inlineStr">
         <is>
           <t>2_645</t>
         </is>
@@ -40204,13 +40199,13 @@
       <c r="AI647">
         <v>0.000232531</v>
       </c>
-      <c r="AK647">
+      <c r="AJ647">
         <v>0.146127174318939</v>
       </c>
-      <c r="AM647">
+      <c r="AL647">
         <v>2.25e-05</v>
       </c>
-      <c r="AQ647" t="inlineStr">
+      <c r="AP647" t="inlineStr">
         <is>
           <t>2_646</t>
         </is>
@@ -40276,13 +40271,13 @@
       <c r="AI648">
         <v>0.002308506</v>
       </c>
-      <c r="AK648">
+      <c r="AJ648">
         <v>0.7433814345754</v>
       </c>
-      <c r="AM648">
+      <c r="AL648">
         <v>0.000232629</v>
       </c>
-      <c r="AQ648" t="inlineStr">
+      <c r="AP648" t="inlineStr">
         <is>
           <t>2_647</t>
         </is>
@@ -40348,13 +40343,13 @@
       <c r="AI649">
         <v>0.001251055</v>
       </c>
-      <c r="AK649">
+      <c r="AJ649">
         <v>0.486899281651768</v>
       </c>
-      <c r="AM649">
+      <c r="AL649">
         <v>0.000204353</v>
       </c>
-      <c r="AQ649" t="inlineStr">
+      <c r="AP649" t="inlineStr">
         <is>
           <t>2_648</t>
         </is>
@@ -40420,13 +40415,13 @@
       <c r="AI650">
         <v>0.203940981</v>
       </c>
-      <c r="AK650">
+      <c r="AJ650">
         <v>-0.629800906658572</v>
       </c>
-      <c r="AM650">
+      <c r="AL650">
         <v>-0.128793618</v>
       </c>
-      <c r="AQ650" t="inlineStr">
+      <c r="AP650" t="inlineStr">
         <is>
           <t>2_649</t>
         </is>
@@ -40492,13 +40487,13 @@
       <c r="AI651">
         <v>0.000515498</v>
       </c>
-      <c r="AK651">
+      <c r="AJ651">
         <v>0.08788272915754319</v>
       </c>
-      <c r="AM651">
+      <c r="AL651">
         <v>-2.32e-05</v>
       </c>
-      <c r="AQ651" t="inlineStr">
+      <c r="AP651" t="inlineStr">
         <is>
           <t>2_650</t>
         </is>
@@ -40558,13 +40553,13 @@
       <c r="AI652">
         <v>0.000174525</v>
       </c>
-      <c r="AK652">
+      <c r="AJ652">
         <v>0.0300284417597766</v>
       </c>
-      <c r="AM652">
+      <c r="AL652">
         <v>-7.74e-05</v>
       </c>
-      <c r="AQ652" t="inlineStr">
+      <c r="AP652" t="inlineStr">
         <is>
           <t>2_651</t>
         </is>
@@ -40612,7 +40607,7 @@
       <c r="P653">
         <v>0.05346013529394247</v>
       </c>
-      <c r="AQ653" t="inlineStr">
+      <c r="AP653" t="inlineStr">
         <is>
           <t>2_652</t>
         </is>
@@ -40660,7 +40655,7 @@
       <c r="P654">
         <v>0.06127183699926301</v>
       </c>
-      <c r="AQ654" t="inlineStr">
+      <c r="AP654" t="inlineStr">
         <is>
           <t>2_653</t>
         </is>
@@ -40708,7 +40703,7 @@
       <c r="P655">
         <v>0.05277537685429781</v>
       </c>
-      <c r="AQ655" t="inlineStr">
+      <c r="AP655" t="inlineStr">
         <is>
           <t>2_654</t>
         </is>
@@ -40756,7 +40751,7 @@
       <c r="P656">
         <v>0.05266540934032217</v>
       </c>
-      <c r="AQ656" t="inlineStr">
+      <c r="AP656" t="inlineStr">
         <is>
           <t>2_655</t>
         </is>
@@ -40804,7 +40799,7 @@
       <c r="P657">
         <v>0.05780806791865876</v>
       </c>
-      <c r="AQ657" t="inlineStr">
+      <c r="AP657" t="inlineStr">
         <is>
           <t>2_656</t>
         </is>
@@ -40852,7 +40847,7 @@
       <c r="P658">
         <v>0.0574901902829327</v>
       </c>
-      <c r="AQ658" t="inlineStr">
+      <c r="AP658" t="inlineStr">
         <is>
           <t>2_657</t>
         </is>
@@ -40900,7 +40895,7 @@
       <c r="P659">
         <v>0.05641662228879607</v>
       </c>
-      <c r="AQ659" t="inlineStr">
+      <c r="AP659" t="inlineStr">
         <is>
           <t>2_658</t>
         </is>
@@ -40948,7 +40943,7 @@
       <c r="P660">
         <v>0.05126156188057421</v>
       </c>
-      <c r="AQ660" t="inlineStr">
+      <c r="AP660" t="inlineStr">
         <is>
           <t>2_659</t>
         </is>
@@ -40996,7 +40991,7 @@
       <c r="P661">
         <v>0.05339769661767498</v>
       </c>
-      <c r="AQ661" t="inlineStr">
+      <c r="AP661" t="inlineStr">
         <is>
           <t>2_660</t>
         </is>
@@ -41044,7 +41039,7 @@
       <c r="P662">
         <v>0.05619660792990635</v>
       </c>
-      <c r="AQ662" t="inlineStr">
+      <c r="AP662" t="inlineStr">
         <is>
           <t>2_661</t>
         </is>
@@ -41092,7 +41087,7 @@
       <c r="P663">
         <v>0.05461814522772307</v>
       </c>
-      <c r="AQ663" t="inlineStr">
+      <c r="AP663" t="inlineStr">
         <is>
           <t>2_662</t>
         </is>
@@ -41140,7 +41135,7 @@
       <c r="P664">
         <v>0.05369786879420364</v>
       </c>
-      <c r="AQ664" t="inlineStr">
+      <c r="AP664" t="inlineStr">
         <is>
           <t>2_663</t>
         </is>
@@ -41188,7 +41183,7 @@
       <c r="P665">
         <v>0.05551542077243155</v>
       </c>
-      <c r="AQ665" t="inlineStr">
+      <c r="AP665" t="inlineStr">
         <is>
           <t>2_664</t>
         </is>
@@ -41236,7 +41231,7 @@
       <c r="P666">
         <v>0.05730918972711457</v>
       </c>
-      <c r="AQ666" t="inlineStr">
+      <c r="AP666" t="inlineStr">
         <is>
           <t>2_665</t>
         </is>
@@ -41284,7 +41279,7 @@
       <c r="P667">
         <v>0.05900666572964297</v>
       </c>
-      <c r="AQ667" t="inlineStr">
+      <c r="AP667" t="inlineStr">
         <is>
           <t>2_666</t>
         </is>
@@ -41332,7 +41327,7 @@
       <c r="P668">
         <v>0.06155476281204396</v>
       </c>
-      <c r="AQ668" t="inlineStr">
+      <c r="AP668" t="inlineStr">
         <is>
           <t>2_667</t>
         </is>
@@ -41398,13 +41393,13 @@
       <c r="AI669">
         <v>0.049282783</v>
       </c>
-      <c r="AK669">
+      <c r="AJ669">
         <v>16.265063754589</v>
       </c>
-      <c r="AM669">
+      <c r="AL669">
         <v>0.008682001999999999</v>
       </c>
-      <c r="AQ669" t="inlineStr">
+      <c r="AP669" t="inlineStr">
         <is>
           <t>2_668</t>
         </is>
@@ -41470,13 +41465,13 @@
       <c r="AI670">
         <v>0.039844614</v>
       </c>
-      <c r="AK670">
+      <c r="AJ670">
         <v>8.51444271580352</v>
       </c>
-      <c r="AM670">
+      <c r="AL670">
         <v>0.006634627</v>
       </c>
-      <c r="AQ670" t="inlineStr">
+      <c r="AP670" t="inlineStr">
         <is>
           <t>2_669</t>
         </is>
@@ -41524,7 +41519,7 @@
       <c r="P671">
         <v>0.05664728306865886</v>
       </c>
-      <c r="AQ671" t="inlineStr">
+      <c r="AP671" t="inlineStr">
         <is>
           <t>2_670</t>
         </is>
@@ -41572,7 +41567,7 @@
       <c r="P672">
         <v>0.05928870759142083</v>
       </c>
-      <c r="AQ672" t="inlineStr">
+      <c r="AP672" t="inlineStr">
         <is>
           <t>2_671</t>
         </is>
@@ -41638,13 +41633,13 @@
       <c r="AI673">
         <v>0.030825247</v>
       </c>
-      <c r="AK673">
+      <c r="AJ673">
         <v>2.10478768760341</v>
       </c>
-      <c r="AM673">
+      <c r="AL673">
         <v>0.005047121</v>
       </c>
-      <c r="AQ673" t="inlineStr">
+      <c r="AP673" t="inlineStr">
         <is>
           <t>2_672</t>
         </is>
@@ -41692,7 +41687,7 @@
       <c r="P674">
         <v>0.05682496901561951</v>
       </c>
-      <c r="AQ674" t="inlineStr">
+      <c r="AP674" t="inlineStr">
         <is>
           <t>2_673</t>
         </is>
@@ -41758,13 +41753,13 @@
       <c r="AI675">
         <v>0.035521763</v>
       </c>
-      <c r="AK675">
+      <c r="AJ675">
         <v>0.904916680752135</v>
       </c>
-      <c r="AM675">
+      <c r="AL675">
         <v>0.006081752</v>
       </c>
-      <c r="AQ675" t="inlineStr">
+      <c r="AP675" t="inlineStr">
         <is>
           <t>2_674</t>
         </is>
@@ -41830,13 +41825,13 @@
       <c r="AI676">
         <v>0.021851297</v>
       </c>
-      <c r="AK676">
+      <c r="AJ676">
         <v>0.980152260286991</v>
       </c>
-      <c r="AM676">
+      <c r="AL676">
         <v>0.003558265</v>
       </c>
-      <c r="AQ676" t="inlineStr">
+      <c r="AP676" t="inlineStr">
         <is>
           <t>2_675</t>
         </is>
@@ -41884,7 +41879,7 @@
       <c r="P677">
         <v>0.05823506641695612</v>
       </c>
-      <c r="AQ677" t="inlineStr">
+      <c r="AP677" t="inlineStr">
         <is>
           <t>2_676</t>
         </is>
@@ -41950,13 +41945,13 @@
       <c r="AI678">
         <v>0.013172802</v>
       </c>
-      <c r="AK678">
+      <c r="AJ678">
         <v>0.791960099841745</v>
       </c>
-      <c r="AM678">
+      <c r="AL678">
         <v>0.002316507</v>
       </c>
-      <c r="AQ678" t="inlineStr">
+      <c r="AP678" t="inlineStr">
         <is>
           <t>2_677</t>
         </is>
@@ -42022,13 +42017,13 @@
       <c r="AI679">
         <v>0.007702138</v>
       </c>
-      <c r="AK679">
+      <c r="AJ679">
         <v>0.929137760102317</v>
       </c>
-      <c r="AM679">
+      <c r="AL679">
         <v>0.001423277</v>
       </c>
-      <c r="AQ679" t="inlineStr">
+      <c r="AP679" t="inlineStr">
         <is>
           <t>2_678</t>
         </is>
@@ -42079,7 +42074,7 @@
       <c r="T680">
         <v>498.928571428571</v>
       </c>
-      <c r="AQ680" t="inlineStr">
+      <c r="AP680" t="inlineStr">
         <is>
           <t>2_679</t>
         </is>
@@ -42130,7 +42125,7 @@
       <c r="T681">
         <v>498.928571428571</v>
       </c>
-      <c r="AQ681" t="inlineStr">
+      <c r="AP681" t="inlineStr">
         <is>
           <t>2_680</t>
         </is>
@@ -42196,13 +42191,13 @@
       <c r="AI682">
         <v>0.005884928</v>
       </c>
-      <c r="AK682">
+      <c r="AJ682">
         <v>1.10142590632925</v>
       </c>
-      <c r="AM682">
+      <c r="AL682">
         <v>0.001035132</v>
       </c>
-      <c r="AQ682" t="inlineStr">
+      <c r="AP682" t="inlineStr">
         <is>
           <t>2_681</t>
         </is>
@@ -42268,13 +42263,13 @@
       <c r="AI683">
         <v>0.004506978</v>
       </c>
-      <c r="AK683">
+      <c r="AJ683">
         <v>0.769833666314765</v>
       </c>
-      <c r="AM683">
+      <c r="AL683">
         <v>0.000847589</v>
       </c>
-      <c r="AQ683" t="inlineStr">
+      <c r="AP683" t="inlineStr">
         <is>
           <t>2_682</t>
         </is>
@@ -42340,13 +42335,13 @@
       <c r="AI684">
         <v>0.004534267</v>
       </c>
-      <c r="AK684">
+      <c r="AJ684">
         <v>0.7437015778989849</v>
       </c>
-      <c r="AM684">
+      <c r="AL684">
         <v>0.000642067</v>
       </c>
-      <c r="AQ684" t="inlineStr">
+      <c r="AP684" t="inlineStr">
         <is>
           <t>2_683</t>
         </is>
@@ -42412,13 +42407,13 @@
       <c r="AI685">
         <v>0.003937135</v>
       </c>
-      <c r="AK685">
+      <c r="AJ685">
         <v>0.9769243557856671</v>
       </c>
-      <c r="AM685">
+      <c r="AL685">
         <v>0.00055236</v>
       </c>
-      <c r="AQ685" t="inlineStr">
+      <c r="AP685" t="inlineStr">
         <is>
           <t>2_684</t>
         </is>
@@ -42484,13 +42479,13 @@
       <c r="AI686">
         <v>0.004988019</v>
       </c>
-      <c r="AK686">
+      <c r="AJ686">
         <v>0.923926217990914</v>
       </c>
-      <c r="AM686">
+      <c r="AL686">
         <v>0.000927734</v>
       </c>
-      <c r="AQ686" t="inlineStr">
+      <c r="AP686" t="inlineStr">
         <is>
           <t>2_685</t>
         </is>
@@ -42556,13 +42551,13 @@
       <c r="AI687">
         <v>0.004184846</v>
       </c>
-      <c r="AK687">
+      <c r="AJ687">
         <v>0.873686659156295</v>
       </c>
-      <c r="AM687">
+      <c r="AL687">
         <v>0.00060726</v>
       </c>
-      <c r="AQ687" t="inlineStr">
+      <c r="AP687" t="inlineStr">
         <is>
           <t>2_686</t>
         </is>
@@ -42628,13 +42623,13 @@
       <c r="AI688">
         <v>0.00435939</v>
       </c>
-      <c r="AK688">
+      <c r="AJ688">
         <v>0.913213805660969</v>
       </c>
-      <c r="AM688">
+      <c r="AL688">
         <v>0.000644527</v>
       </c>
-      <c r="AQ688" t="inlineStr">
+      <c r="AP688" t="inlineStr">
         <is>
           <t>2_687</t>
         </is>
@@ -42700,13 +42695,13 @@
       <c r="AI689">
         <v>0.001674053</v>
       </c>
-      <c r="AK689">
+      <c r="AJ689">
         <v>0.570600496213668</v>
       </c>
-      <c r="AM689">
+      <c r="AL689">
         <v>0.001844339</v>
       </c>
-      <c r="AQ689" t="inlineStr">
+      <c r="AP689" t="inlineStr">
         <is>
           <t>2_688</t>
         </is>
@@ -42772,13 +42767,13 @@
       <c r="AI690">
         <v>0.001138552</v>
       </c>
-      <c r="AK690">
+      <c r="AJ690">
         <v>0.410641541104701</v>
       </c>
-      <c r="AM690">
+      <c r="AL690">
         <v>0.000388631</v>
       </c>
-      <c r="AQ690" t="inlineStr">
+      <c r="AP690" t="inlineStr">
         <is>
           <t>2_689</t>
         </is>
@@ -42844,13 +42839,13 @@
       <c r="AI691">
         <v>0.000591161</v>
       </c>
-      <c r="AK691">
+      <c r="AJ691">
         <v>0.366785323709307</v>
       </c>
-      <c r="AM691">
+      <c r="AL691">
         <v>0.000219756</v>
       </c>
-      <c r="AQ691" t="inlineStr">
+      <c r="AP691" t="inlineStr">
         <is>
           <t>2_690</t>
         </is>
@@ -42916,13 +42911,13 @@
       <c r="AI692">
         <v>0.000591161</v>
       </c>
-      <c r="AK692">
+      <c r="AJ692">
         <v>0.366785323709307</v>
       </c>
-      <c r="AM692">
+      <c r="AL692">
         <v>0.000219756</v>
       </c>
-      <c r="AQ692" t="inlineStr">
+      <c r="AP692" t="inlineStr">
         <is>
           <t>2_691</t>
         </is>
@@ -42988,13 +42983,13 @@
       <c r="AI693">
         <v>0.000591161</v>
       </c>
-      <c r="AK693">
+      <c r="AJ693">
         <v>0.366785323709307</v>
       </c>
-      <c r="AM693">
+      <c r="AL693">
         <v>0.000219756</v>
       </c>
-      <c r="AQ693" t="inlineStr">
+      <c r="AP693" t="inlineStr">
         <is>
           <t>2_692</t>
         </is>
@@ -43060,13 +43055,13 @@
       <c r="AI694">
         <v>0.000591161</v>
       </c>
-      <c r="AK694">
+      <c r="AJ694">
         <v>0.366785323709307</v>
       </c>
-      <c r="AM694">
+      <c r="AL694">
         <v>0.000219756</v>
       </c>
-      <c r="AQ694" t="inlineStr">
+      <c r="AP694" t="inlineStr">
         <is>
           <t>2_693</t>
         </is>
@@ -43132,13 +43127,13 @@
       <c r="AI695">
         <v>0.000591161</v>
       </c>
-      <c r="AK695">
+      <c r="AJ695">
         <v>0.366785323709307</v>
       </c>
-      <c r="AM695">
+      <c r="AL695">
         <v>0.000219756</v>
       </c>
-      <c r="AQ695" t="inlineStr">
+      <c r="AP695" t="inlineStr">
         <is>
           <t>2_694</t>
         </is>
@@ -43204,13 +43199,13 @@
       <c r="AI696">
         <v>0.002721474</v>
       </c>
-      <c r="AK696">
+      <c r="AJ696">
         <v>1.05110015708344</v>
       </c>
-      <c r="AM696">
+      <c r="AL696">
         <v>0.000364485</v>
       </c>
-      <c r="AQ696" t="inlineStr">
+      <c r="AP696" t="inlineStr">
         <is>
           <t>2_695</t>
         </is>
@@ -43276,13 +43271,13 @@
       <c r="AI697">
         <v>0.00223042</v>
       </c>
-      <c r="AK697">
+      <c r="AJ697">
         <v>0.558589211493776</v>
       </c>
-      <c r="AM697">
+      <c r="AL697">
         <v>0.00035546</v>
       </c>
-      <c r="AQ697" t="inlineStr">
+      <c r="AP697" t="inlineStr">
         <is>
           <t>2_696</t>
         </is>
@@ -43348,13 +43343,13 @@
       <c r="AI698">
         <v>0.001638143</v>
       </c>
-      <c r="AK698">
+      <c r="AJ698">
         <v>0.347787461759319</v>
       </c>
-      <c r="AM698">
+      <c r="AL698">
         <v>0.001627421</v>
       </c>
-      <c r="AQ698" t="inlineStr">
+      <c r="AP698" t="inlineStr">
         <is>
           <t>2_697</t>
         </is>
@@ -43420,13 +43415,13 @@
       <c r="AI699">
         <v>0.003982374</v>
       </c>
-      <c r="AK699">
+      <c r="AJ699">
         <v>0.86477721368562</v>
       </c>
-      <c r="AM699">
+      <c r="AL699">
         <v>0.000545459</v>
       </c>
-      <c r="AQ699" t="inlineStr">
+      <c r="AP699" t="inlineStr">
         <is>
           <t>2_698</t>
         </is>
@@ -43492,13 +43487,13 @@
       <c r="AI700">
         <v>0.001800038</v>
       </c>
-      <c r="AK700">
+      <c r="AJ700">
         <v>0.518363729896723</v>
       </c>
-      <c r="AM700">
+      <c r="AL700">
         <v>0.000154257</v>
       </c>
-      <c r="AQ700" t="inlineStr">
+      <c r="AP700" t="inlineStr">
         <is>
           <t>2_699</t>
         </is>
